--- a/fcst_results/no_covid_series_HOU-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Dom_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>538837.6847885847</v>
+        <v>533354.161544621</v>
       </c>
       <c r="C2" t="n">
-        <v>567597.7512207057</v>
+        <v>537244.1186179519</v>
       </c>
       <c r="D2" t="n">
+        <v>567597.758341391</v>
+      </c>
+      <c r="E2" t="n">
         <v>602686.2626755536</v>
       </c>
-      <c r="E2" t="n">
-        <v>580623.1766918809</v>
+      <c r="F2" t="n">
+        <v>574862.378356796</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>522395.9827752709</v>
+        <v>528995.4689385295</v>
       </c>
       <c r="C3" t="n">
-        <v>559137.6109765585</v>
+        <v>532425.9760482907</v>
       </c>
       <c r="D3" t="n">
+        <v>559137.6192011492</v>
+      </c>
+      <c r="E3" t="n">
         <v>580422.211595117</v>
       </c>
-      <c r="E3" t="n">
-        <v>566092.3689832084</v>
+      <c r="F3" t="n">
+        <v>562049.114356157</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>532069.6423305869</v>
+        <v>540396.0818659067</v>
       </c>
       <c r="C4" t="n">
-        <v>586003.6385417941</v>
+        <v>535949.060282886</v>
       </c>
       <c r="D4" t="n">
+        <v>586003.6468173779</v>
+      </c>
+      <c r="E4" t="n">
         <v>605607.626946749</v>
       </c>
-      <c r="E4" t="n">
-        <v>591423.7024488284</v>
+      <c r="F4" t="n">
+        <v>584557.566253998</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>535220.375240624</v>
+        <v>537070.1999070048</v>
       </c>
       <c r="C5" t="n">
-        <v>611278.4532062508</v>
+        <v>540465.9557740688</v>
       </c>
       <c r="D5" t="n">
+        <v>611278.4626222842</v>
+      </c>
+      <c r="E5" t="n">
         <v>636509.341252004</v>
       </c>
-      <c r="E5" t="n">
-        <v>617928.375549561</v>
+      <c r="F5" t="n">
+        <v>607917.2509240583</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>537991.1194454432</v>
+        <v>529267.8378968239</v>
       </c>
       <c r="C6" t="n">
-        <v>613413.3564009352</v>
+        <v>549460.097375989</v>
       </c>
       <c r="D6" t="n">
+        <v>613413.3658206322</v>
+      </c>
+      <c r="E6" t="n">
         <v>640178.4494989081</v>
       </c>
-      <c r="E6" t="n">
-        <v>620725.6660926383</v>
+      <c r="F6" t="n">
+        <v>611101.3475789041</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>531700.9820197821</v>
+        <v>540918.1165658236</v>
       </c>
       <c r="C7" t="n">
-        <v>564553.5379777277</v>
+        <v>538182.6575239301</v>
       </c>
       <c r="D7" t="n">
+        <v>564553.5435004764</v>
+      </c>
+      <c r="E7" t="n">
         <v>594482.0496377712</v>
       </c>
-      <c r="E7" t="n">
-        <v>575255.3138174571</v>
+      <c r="F7" t="n">
+        <v>570920.2771873932</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>539968.0171262026</v>
+        <v>543223.8626794815</v>
       </c>
       <c r="C8" t="n">
-        <v>529683.5387219149</v>
+        <v>553837.3843343854</v>
       </c>
       <c r="D8" t="n">
+        <v>529683.5402103409</v>
+      </c>
+      <c r="E8" t="n">
         <v>527985.1887606144</v>
       </c>
-      <c r="E8" t="n">
-        <v>529489.2439633106</v>
+      <c r="F8" t="n">
+        <v>532841.7208153034</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>551009.6035208106</v>
+        <v>536552.8079916835</v>
       </c>
       <c r="C9" t="n">
-        <v>588667.7945361527</v>
+        <v>547822.0765428543</v>
       </c>
       <c r="D9" t="n">
+        <v>588667.795209059</v>
+      </c>
+      <c r="E9" t="n">
         <v>600445.4681529488</v>
       </c>
-      <c r="E9" t="n">
-        <v>591666.2709933878</v>
+      <c r="F9" t="n">
+        <v>585330.3673175547</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>547641.9597144723</v>
+        <v>537272.1842508316</v>
       </c>
       <c r="C10" t="n">
-        <v>583408.0094640368</v>
+        <v>547169.8581628799</v>
       </c>
       <c r="D10" t="n">
+        <v>583408.0101097104</v>
+      </c>
+      <c r="E10" t="n">
         <v>592851.4776734043</v>
       </c>
-      <c r="E10" t="n">
-        <v>585538.9572697396</v>
+      <c r="F10" t="n">
+        <v>580086.3765443196</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>552670.0490035415</v>
+        <v>543457.8125952482</v>
       </c>
       <c r="C11" t="n">
-        <v>594694.9810091069</v>
+        <v>552396.8907718658</v>
       </c>
       <c r="D11" t="n">
+        <v>594694.9802024941</v>
+      </c>
+      <c r="E11" t="n">
         <v>597517.3928751803</v>
       </c>
-      <c r="E11" t="n">
-        <v>593794.9152784644</v>
+      <c r="F11" t="n">
+        <v>587952.2504640672</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>547549.0808086395</v>
+        <v>545318.5478054285</v>
       </c>
       <c r="C12" t="n">
-        <v>541183.7074414761</v>
+        <v>550149.7830276489</v>
       </c>
       <c r="D12" t="n">
+        <v>541183.7063887551</v>
+      </c>
+      <c r="E12" t="n">
         <v>551359.5456701583</v>
       </c>
-      <c r="E12" t="n">
-        <v>545682.4471998275</v>
+      <c r="F12" t="n">
+        <v>546239.6975230598</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>548084.7885091901</v>
+        <v>542453.7175707817</v>
       </c>
       <c r="C13" t="n">
-        <v>521728.8675261118</v>
+        <v>554034.354470849</v>
       </c>
       <c r="D13" t="n">
+        <v>521728.866295176</v>
+      </c>
+      <c r="E13" t="n">
         <v>533143.9267627357</v>
       </c>
-      <c r="E13" t="n">
-        <v>527717.9512786021</v>
+      <c r="F13" t="n">
+        <v>531029.0774782907</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>567883.1541432738</v>
+        <v>538957.5382729173</v>
       </c>
       <c r="C14" t="n">
-        <v>591325.9766114871</v>
+        <v>557575.6152071357</v>
       </c>
       <c r="D14" t="n">
+        <v>591325.9817241835</v>
+      </c>
+      <c r="E14" t="n">
         <v>619419.1044056325</v>
       </c>
-      <c r="E14" t="n">
-        <v>601734.1745202536</v>
+      <c r="F14" t="n">
+        <v>594839.6225658449</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>560692.107580781</v>
+        <v>539009.6999578476</v>
       </c>
       <c r="C15" t="n">
-        <v>578375.334432641</v>
+        <v>562755.894975245</v>
       </c>
       <c r="D15" t="n">
+        <v>578375.3376677106</v>
+      </c>
+      <c r="E15" t="n">
         <v>597814.2095437858</v>
       </c>
-      <c r="E15" t="n">
-        <v>585505.5120569709</v>
+      <c r="F15" t="n">
+        <v>581701.323780969</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>546831.6777329445</v>
+        <v>562736.9756280184</v>
       </c>
       <c r="C16" t="n">
-        <v>600621.7378011533</v>
+        <v>560978.4048928618</v>
       </c>
       <c r="D16" t="n">
+        <v>600621.7422701889</v>
+      </c>
+      <c r="E16" t="n">
         <v>623734.4912420533</v>
       </c>
-      <c r="E16" t="n">
-        <v>607492.4323685754</v>
+      <c r="F16" t="n">
+        <v>602155.0680404652</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>553828.9808942676</v>
+        <v>554286.527316153</v>
       </c>
       <c r="C17" t="n">
-        <v>622579.2434896932</v>
+        <v>554216.6766219139</v>
       </c>
       <c r="D17" t="n">
+        <v>622579.2510582452</v>
+      </c>
+      <c r="E17" t="n">
         <v>651473.0272178927</v>
       </c>
-      <c r="E17" t="n">
-        <v>631094.5859287975</v>
+      <c r="F17" t="n">
+        <v>621120.9241350221</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>571722.8762872815</v>
+        <v>556644.1333337426</v>
       </c>
       <c r="C18" t="n">
-        <v>623524.687035834</v>
+        <v>569485.2398236394</v>
       </c>
       <c r="D18" t="n">
+        <v>623524.695809538</v>
+      </c>
+      <c r="E18" t="n">
         <v>656482.533015279</v>
       </c>
-      <c r="E18" t="n">
-        <v>634543.3552791002</v>
+      <c r="F18" t="n">
+        <v>625501.096766611</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>569103.3475767374</v>
+        <v>564966.9747110009</v>
       </c>
       <c r="C19" t="n">
-        <v>577009.7209059424</v>
+        <v>569009.9347506762</v>
       </c>
       <c r="D19" t="n">
+        <v>577009.7249039919</v>
+      </c>
+      <c r="E19" t="n">
         <v>610776.604753688</v>
       </c>
-      <c r="E19" t="n">
-        <v>590514.2458559799</v>
+      <c r="F19" t="n">
+        <v>587694.4231791435</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>573382.5789244771</v>
+        <v>571092.8968455195</v>
       </c>
       <c r="C20" t="n">
-        <v>543887.518020688</v>
+        <v>577637.89993155</v>
       </c>
       <c r="D20" t="n">
+        <v>543887.517512445</v>
+      </c>
+      <c r="E20" t="n">
         <v>551298.4640300716</v>
       </c>
-      <c r="E20" t="n">
-        <v>548383.2055298254</v>
+      <c r="F20" t="n">
+        <v>552198.9717856006</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>569017.5721313357</v>
+        <v>574912.306806922</v>
       </c>
       <c r="C21" t="n">
-        <v>599054.6614166819</v>
+        <v>565568.1224604249</v>
       </c>
       <c r="D21" t="n">
+        <v>599054.6632677552</v>
+      </c>
+      <c r="E21" t="n">
         <v>616576.5087140256</v>
       </c>
-      <c r="E21" t="n">
-        <v>604790.200435069</v>
+      <c r="F21" t="n">
+        <v>599953.9979236932</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>565898.433370471</v>
+        <v>571073.931070447</v>
       </c>
       <c r="C22" t="n">
-        <v>593981.6504537372</v>
+        <v>579352.4570687413</v>
       </c>
       <c r="D22" t="n">
+        <v>593981.6524699468</v>
+      </c>
+      <c r="E22" t="n">
         <v>606885.9353365311</v>
       </c>
-      <c r="E22" t="n">
-        <v>597913.2733349167</v>
+      <c r="F22" t="n">
+        <v>595759.7693469682</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>575963.6189507246</v>
+        <v>574817.617215097</v>
       </c>
       <c r="C23" t="n">
-        <v>604501.4747514646</v>
+        <v>573204.7138466239</v>
       </c>
       <c r="D23" t="n">
+        <v>604501.4761801459</v>
+      </c>
+      <c r="E23" t="n">
         <v>615356.1129595938</v>
       </c>
-      <c r="E23" t="n">
-        <v>607567.5357632863</v>
+      <c r="F23" t="n">
+        <v>603039.2119738732</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>577274.3466838002</v>
+        <v>566360.2279402614</v>
       </c>
       <c r="C24" t="n">
-        <v>554202.2761356608</v>
+        <v>578460.8102871776</v>
       </c>
       <c r="D24" t="n">
+        <v>554202.2752252378</v>
+      </c>
+      <c r="E24" t="n">
         <v>567722.9101940858</v>
       </c>
-      <c r="E24" t="n">
-        <v>560896.564498973</v>
+      <c r="F24" t="n">
+        <v>562838.5407360478</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>574829.5491715074</v>
+        <v>572248.5555731058</v>
       </c>
       <c r="C25" t="n">
-        <v>535904.2089833217</v>
+        <v>571824.7621952295</v>
       </c>
       <c r="D25" t="n">
+        <v>535904.2071997051</v>
+      </c>
+      <c r="E25" t="n">
         <v>551901.5242830559</v>
       </c>
-      <c r="E25" t="n">
-        <v>544395.0282522389</v>
+      <c r="F25" t="n">
+        <v>548003.4371979428</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>585185.6052066684</v>
+        <v>564713.4786720872</v>
       </c>
       <c r="C26" t="n">
-        <v>601245.1056104415</v>
+        <v>572696.3521473408</v>
       </c>
       <c r="D26" t="n">
+        <v>601245.1128701341</v>
+      </c>
+      <c r="E26" t="n">
         <v>636113.5735861117</v>
       </c>
-      <c r="E26" t="n">
-        <v>614802.9443193651</v>
+      <c r="F26" t="n">
+        <v>608573.2164096246</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>587756.5471764207</v>
+        <v>580951.6410087347</v>
       </c>
       <c r="C27" t="n">
-        <v>589073.2820333408</v>
+        <v>580217.1524857283</v>
       </c>
       <c r="D27" t="n">
+        <v>589073.2870292448</v>
+      </c>
+      <c r="E27" t="n">
         <v>615210.3708068638</v>
       </c>
-      <c r="E27" t="n">
-        <v>599761.9798249501</v>
+      <c r="F27" t="n">
+        <v>597040.6599300919</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>586705.3975300789</v>
+        <v>576988.9547147155</v>
       </c>
       <c r="C28" t="n">
-        <v>609958.6081479054</v>
+        <v>580200.6706004143</v>
       </c>
       <c r="D28" t="n">
+        <v>609958.6152983853</v>
+      </c>
+      <c r="E28" t="n">
         <v>641818.2372142585</v>
       </c>
-      <c r="E28" t="n">
-        <v>621925.7144933789</v>
+      <c r="F28" t="n">
+        <v>616184.2172472894</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>585653.6675356627</v>
+        <v>572593.9091052413</v>
       </c>
       <c r="C29" t="n">
-        <v>630575.0523559012</v>
+        <v>587255.1728679538</v>
       </c>
       <c r="D29" t="n">
+        <v>630575.0633871934</v>
+      </c>
+      <c r="E29" t="n">
         <v>666403.3454424358</v>
       </c>
-      <c r="E29" t="n">
-        <v>643112.1499047719</v>
+      <c r="F29" t="n">
+        <v>635389.6258604492</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>584729.7534011602</v>
+        <v>599528.7685828209</v>
       </c>
       <c r="C30" t="n">
-        <v>631460.7808672757</v>
+        <v>588628.7174766064</v>
       </c>
       <c r="D30" t="n">
+        <v>631460.793086505</v>
+      </c>
+      <c r="E30" t="n">
         <v>672819.9574355934</v>
       </c>
-      <c r="E30" t="n">
-        <v>646184.6259656055</v>
+      <c r="F30" t="n">
+        <v>639442.0281188426</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>597497.8985311389</v>
+        <v>585992.9158060551</v>
       </c>
       <c r="C31" t="n">
-        <v>587777.9090706997</v>
+        <v>583728.1422664523</v>
       </c>
       <c r="D31" t="n">
+        <v>587777.9148110269</v>
+      </c>
+      <c r="E31" t="n">
         <v>627176.7671117317</v>
       </c>
-      <c r="E31" t="n">
-        <v>604464.0782763908</v>
+      <c r="F31" t="n">
+        <v>601461.5850345347</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>599298.7186061144</v>
+        <v>592139.0108396411</v>
       </c>
       <c r="C32" t="n">
-        <v>556672.5204154879</v>
+        <v>595918.6321370602</v>
       </c>
       <c r="D32" t="n">
+        <v>556672.5205032746</v>
+      </c>
+      <c r="E32" t="n">
         <v>574636.9453647494</v>
       </c>
-      <c r="E32" t="n">
-        <v>566154.166349405</v>
+      <c r="F32" t="n">
+        <v>569889.9307040606</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>588498.6266522408</v>
+        <v>585356.3203962445</v>
       </c>
       <c r="C33" t="n">
-        <v>608478.8240227761</v>
+        <v>594505.9488542676</v>
       </c>
       <c r="D33" t="n">
+        <v>608478.8287069208</v>
+      </c>
+      <c r="E33" t="n">
         <v>632568.3248061528</v>
       </c>
-      <c r="E33" t="n">
-        <v>617409.6921761183</v>
+      <c r="F33" t="n">
+        <v>614393.6338960178</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>594549.6142433882</v>
+        <v>591743.9562984109</v>
       </c>
       <c r="C34" t="n">
-        <v>603714.5567553629</v>
+        <v>595089.2218829989</v>
       </c>
       <c r="D34" t="n">
+        <v>603714.5613785295</v>
+      </c>
+      <c r="E34" t="n">
         <v>620908.6794797002</v>
       </c>
-      <c r="E34" t="n">
-        <v>610339.0104626341</v>
+      <c r="F34" t="n">
+        <v>608305.7527298698</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>597876.610470593</v>
+        <v>604375.1857106686</v>
       </c>
       <c r="C35" t="n">
-        <v>613593.4284415703</v>
+        <v>602056.6022976041</v>
       </c>
       <c r="D35" t="n">
+        <v>613593.4329678018</v>
+      </c>
+      <c r="E35" t="n">
         <v>633222.4200233145</v>
       </c>
-      <c r="E35" t="n">
-        <v>620898.2728228684</v>
+      <c r="F35" t="n">
+        <v>618797.4735719888</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>596798.6023153663</v>
+        <v>592723.1195695996</v>
       </c>
       <c r="C36" t="n">
-        <v>566358.0040497578</v>
+        <v>601218.2546831965</v>
       </c>
       <c r="D36" t="n">
+        <v>566358.0042133005</v>
+      </c>
+      <c r="E36" t="n">
         <v>584129.6342546437</v>
       </c>
-      <c r="E36" t="n">
-        <v>575162.6457610737</v>
+      <c r="F36" t="n">
+        <v>578540.8549923018</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>603401.5705670714</v>
+        <v>610258.3134247661</v>
       </c>
       <c r="C37" t="n">
-        <v>549174.4682710741</v>
+        <v>602789.60512954</v>
       </c>
       <c r="D37" t="n">
+        <v>549174.4668268898</v>
+      </c>
+      <c r="E37" t="n">
         <v>570700.9080906152</v>
       </c>
-      <c r="E37" t="n">
-        <v>560690.5994567025</v>
+      <c r="F37" t="n">
+        <v>566668.0379928763</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>599620.6028621197</v>
+        <v>592031.1125256419</v>
       </c>
       <c r="C38" t="n">
-        <v>610535.228417561</v>
+        <v>604713.435782373</v>
       </c>
       <c r="D38" t="n">
+        <v>610535.2382813192</v>
+      </c>
+      <c r="E38" t="n">
         <v>652769.2824203734</v>
       </c>
-      <c r="E38" t="n">
-        <v>627375.7535946321</v>
+      <c r="F38" t="n">
+        <v>624309.7047324739</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>602245.1922078729</v>
+        <v>600655.2241953015</v>
       </c>
       <c r="C39" t="n">
-        <v>599104.8056120734</v>
+        <v>604458.15227139</v>
       </c>
       <c r="D39" t="n">
+        <v>599104.8128257752</v>
+      </c>
+      <c r="E39" t="n">
         <v>632610.2746277921</v>
       </c>
-      <c r="E39" t="n">
-        <v>613043.6062192526</v>
+      <c r="F39" t="n">
+        <v>612038.0448833917</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,19 +1385,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>30739.23325646106</v>
+        <v>32382.46432824216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04548846263330262</v>
+        <v>0.04868549904022722</v>
       </c>
       <c r="M2" t="n">
-        <v>22908.79289381676</v>
+        <v>25406.08331742392</v>
       </c>
       <c r="N2" t="n">
-        <v>0.660134294831376</v>
+        <v>0.6228265849333228</v>
       </c>
       <c r="O2" t="n">
-        <v>554364.7064976975</v>
+        <v>552934.6383122671</v>
       </c>
       <c r="P2" t="n">
         <v>483544</v>
@@ -1354,19 +1406,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>29996.86809300433</v>
+        <v>35233.37120717215</v>
       </c>
       <c r="S2" t="n">
-        <v>19399.68599676824</v>
+        <v>21163.25421396169</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03287240458789351</v>
+        <v>0.03686747537149199</v>
       </c>
       <c r="U2" t="n">
-        <v>13966.85366755296</v>
+        <v>15734.17805708752</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9503578459164159</v>
+        <v>0.9409219550771291</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1374,25 +1426,25 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>['arima', 'prophet', 'lstm']</t>
+          <t>['arima', 'prophet', 'lstm', 'lstm_reg']</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>(0.5395330504396062, 0.41141849042952044, 0.049048459130873294)</t>
+          <t>(0.4624057329635104, 0.3628561492566948, 0.1327012329649302, 0.04203688481486458)</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>30739.23325646106</v>
+        <v>32382.46432824216</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04548846263330262</v>
+        <v>0.04868549904022722</v>
       </c>
       <c r="AE2" t="n">
-        <v>22908.79289381676</v>
+        <v>25406.08331742392</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.660134294831376</v>
+        <v>0.6228265849333228</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1432,19 +1484,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>33321.70776124581</v>
+        <v>33319.69589732465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04970898323942836</v>
+        <v>0.04970585358347717</v>
       </c>
       <c r="M3" t="n">
-        <v>26355.68700509302</v>
+        <v>26353.85075341733</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6006296812770537</v>
+        <v>0.6006779053648086</v>
       </c>
       <c r="O3" t="n">
-        <v>519433.3631066284</v>
+        <v>519435.4624742399</v>
       </c>
       <c r="P3" t="n">
         <v>483544</v>
@@ -1453,19 +1505,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>61232.57306759903</v>
+        <v>77826.32105141992</v>
       </c>
       <c r="S3" t="n">
-        <v>37361.47525518186</v>
+        <v>37361.47529024097</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0574007716140293</v>
+        <v>0.05740077167455349</v>
       </c>
       <c r="U3" t="n">
-        <v>21834.80587199015</v>
+        <v>21834.8056877053</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8254536656089055</v>
+        <v>0.8254536652813254</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1476,16 +1528,16 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>33321.70776124581</v>
+        <v>33319.69589732465</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04970898323942836</v>
+        <v>0.04970585358347717</v>
       </c>
       <c r="AE3" t="n">
-        <v>26355.68700509302</v>
+        <v>26353.85075341733</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6006296812770537</v>
+        <v>0.6006779053648086</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1546,10 +1598,10 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>35430.48282532166</v>
+        <v>48163.32524615815</v>
       </c>
       <c r="S4" t="n">
-        <v>20469.499490004</v>
+        <v>20469.49949000401</v>
       </c>
       <c r="T4" t="n">
         <v>0.03828858451786529</v>
@@ -1558,7 +1610,7 @@
         <v>15420.68337222628</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9476065318644356</v>
+        <v>0.9476065318644354</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1598,7 +1650,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1622,19 +1674,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>115426.7859831838</v>
+        <v>104669.3164270139</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1926343731266937</v>
+        <v>0.1733587630860489</v>
       </c>
       <c r="M5" t="n">
-        <v>104944.000771875</v>
+        <v>94579.49107849425</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.792195076082661</v>
+        <v>-2.940579178510053</v>
       </c>
       <c r="O5" t="n">
-        <v>504184.2859323025</v>
+        <v>544198.0234255791</v>
       </c>
       <c r="P5" t="n">
         <v>483544</v>
@@ -1643,19 +1695,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>67843.40313691788</v>
+        <v>66916.36254355003</v>
       </c>
       <c r="S5" t="n">
-        <v>42305.7142803379</v>
+        <v>42163.96798933207</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08052155602879049</v>
+        <v>0.08043988777361313</v>
       </c>
       <c r="U5" t="n">
-        <v>34210.47799670503</v>
+        <v>34205.47764987742</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7639199539510684</v>
+        <v>0.7654992872115007</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1718,115 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>115426.7859831838</v>
+        <v>104669.3164270139</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1926343731266937</v>
+        <v>0.1733587630860489</v>
       </c>
       <c r="AE5" t="n">
-        <v>104944.000771875</v>
+        <v>94579.49107849425</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.792195076082661</v>
+        <v>-2.940579178510053</v>
       </c>
       <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>230</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>122046.6404458411</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2073616670104964</v>
+      </c>
+      <c r="M6" t="n">
+        <v>112767.7495919777</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-4.357632751838165</v>
+      </c>
+      <c r="O6" t="n">
+        <v>489606.4514234066</v>
+      </c>
+      <c r="P6" t="n">
+        <v>483544</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>62993.52839779433</v>
+      </c>
+      <c r="S6" t="n">
+        <v>42407.82438654864</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.08169332993179451</v>
+      </c>
+      <c r="U6" t="n">
+        <v>34817.64127082319</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.7627789615062566</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>122046.6404458411</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.2073616670104964</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>112767.7495919777</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-4.357632751838165</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>580623.1766918809</v>
+        <v>574862.378356796</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4725,7 +4874,7 @@
         <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>566092.3689832084</v>
+        <v>562049.114356157</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4738,7 +4887,7 @@
         <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>591423.7024488284</v>
+        <v>584557.566253998</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4751,7 +4900,7 @@
         <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>617928.375549561</v>
+        <v>607917.2509240583</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4764,7 +4913,7 @@
         <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>620725.6660926383</v>
+        <v>611101.3475789041</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4777,7 +4926,7 @@
         <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>575255.3138174571</v>
+        <v>570920.2771873932</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4790,7 +4939,7 @@
         <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>529489.2439633106</v>
+        <v>532841.7208153034</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4803,7 +4952,7 @@
         <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>591666.2709933878</v>
+        <v>585330.3673175547</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4816,7 +4965,7 @@
         <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>585538.9572697396</v>
+        <v>580086.3765443196</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4829,7 +4978,7 @@
         <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>593794.9152784644</v>
+        <v>587952.2504640672</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4842,7 +4991,7 @@
         <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>545682.4471998275</v>
+        <v>546239.6975230598</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4855,7 +5004,7 @@
         <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>527717.9512786021</v>
+        <v>531029.0774782907</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4868,7 +5017,7 @@
         <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>601734.1745202536</v>
+        <v>594839.6225658449</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4881,7 +5030,7 @@
         <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>585505.5120569709</v>
+        <v>581701.323780969</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4894,7 +5043,7 @@
         <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>607492.4323685754</v>
+        <v>602155.0680404652</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4907,7 +5056,7 @@
         <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>631094.5859287975</v>
+        <v>621120.9241350221</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4920,7 +5069,7 @@
         <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>634543.3552791002</v>
+        <v>625501.096766611</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4933,7 +5082,7 @@
         <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>590514.2458559799</v>
+        <v>587694.4231791435</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4946,7 +5095,7 @@
         <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>548383.2055298254</v>
+        <v>552198.9717856006</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4959,7 +5108,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>604790.200435069</v>
+        <v>599953.9979236932</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4972,7 +5121,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>597913.2733349167</v>
+        <v>595759.7693469682</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4985,7 +5134,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>607567.5357632863</v>
+        <v>603039.2119738732</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4998,7 +5147,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>560896.564498973</v>
+        <v>562838.5407360478</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5011,7 +5160,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>544395.0282522389</v>
+        <v>548003.4371979428</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5024,7 +5173,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>614802.9443193651</v>
+        <v>608573.2164096246</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5037,7 +5186,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>599761.9798249501</v>
+        <v>597040.6599300919</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5050,7 +5199,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>621925.7144933789</v>
+        <v>616184.2172472894</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5063,7 +5212,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>643112.1499047719</v>
+        <v>635389.6258604492</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5076,7 +5225,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>646184.6259656055</v>
+        <v>639442.0281188426</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5089,7 +5238,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>604464.0782763908</v>
+        <v>601461.5850345347</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5102,7 +5251,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>566154.166349405</v>
+        <v>569889.9307040606</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5115,7 +5264,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>617409.6921761183</v>
+        <v>614393.6338960178</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5128,7 +5277,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>610339.0104626341</v>
+        <v>608305.7527298698</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5141,7 +5290,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>620898.2728228684</v>
+        <v>618797.4735719888</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5154,7 +5303,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>575162.6457610737</v>
+        <v>578540.8549923018</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5167,7 +5316,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>560690.5994567025</v>
+        <v>566668.0379928763</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5180,7 +5329,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>627375.7535946321</v>
+        <v>624309.7047324739</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5193,7 +5342,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>613043.6062192526</v>
+        <v>612038.0448833917</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5212,7 +5361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5251,6 +5400,11 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -5260,16 +5414,19 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>530930.0415348528</v>
+        <v>514746.7375633477</v>
       </c>
       <c r="D2" t="n">
-        <v>540671.5174722987</v>
+        <v>540672.731287163</v>
       </c>
       <c r="E2" t="n">
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>384371.6371154785</v>
+        <v>405308.8103504181</v>
+      </c>
+      <c r="G2" t="n">
+        <v>394792.8351700306</v>
       </c>
     </row>
     <row r="3">
@@ -5280,16 +5437,19 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>529604.6792385299</v>
+        <v>516696.7938145596</v>
       </c>
       <c r="D3" t="n">
-        <v>533542.9114601641</v>
+        <v>533543.9563418041</v>
       </c>
       <c r="E3" t="n">
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>389279.6158237457</v>
+        <v>426928.4908466339</v>
+      </c>
+      <c r="G3" t="n">
+        <v>403513.345341444</v>
       </c>
     </row>
     <row r="4">
@@ -5300,16 +5460,19 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>502423.0094126484</v>
+        <v>489712.2092176768</v>
       </c>
       <c r="D4" t="n">
-        <v>505771.8077431328</v>
+        <v>505771.3560588615</v>
       </c>
       <c r="E4" t="n">
-        <v>510331.3119691162</v>
+        <v>510331.3119691161</v>
       </c>
       <c r="F4" t="n">
-        <v>399251.3834764957</v>
+        <v>410462.8982102871</v>
+      </c>
+      <c r="G4" t="n">
+        <v>385253.2673046589</v>
       </c>
     </row>
     <row r="5">
@@ -5320,16 +5483,19 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>459283.6729827666</v>
+        <v>452998.4120904927</v>
       </c>
       <c r="D5" t="n">
-        <v>467975.7940520919</v>
+        <v>467973.1442135837</v>
       </c>
       <c r="E5" t="n">
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>394101.2315437794</v>
+        <v>414353.9383003712</v>
+      </c>
+      <c r="G5" t="n">
+        <v>387330.6146697998</v>
       </c>
     </row>
     <row r="6">
@@ -5340,16 +5506,19 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>498451.1223308977</v>
+        <v>489129.9195343013</v>
       </c>
       <c r="D6" t="n">
-        <v>503879.4678025942</v>
+        <v>503878.6047281298</v>
       </c>
       <c r="E6" t="n">
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>382977.3043088913</v>
+        <v>429736.6786584854</v>
+      </c>
+      <c r="G6" t="n">
+        <v>376543.489094615</v>
       </c>
     </row>
     <row r="7">
@@ -5360,16 +5529,19 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>487760.2056252891</v>
+        <v>476216.0534051085</v>
       </c>
       <c r="D7" t="n">
-        <v>492866.9200514383</v>
+        <v>492865.5604598087</v>
       </c>
       <c r="E7" t="n">
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>387632.6314799786</v>
+        <v>404194.365696907</v>
+      </c>
+      <c r="G7" t="n">
+        <v>375549.2389098406</v>
       </c>
     </row>
     <row r="8">
@@ -5380,16 +5552,19 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>496644.0747976541</v>
+        <v>485658.3514977255</v>
       </c>
       <c r="D8" t="n">
-        <v>501368.3065314216</v>
+        <v>501367.020386829</v>
       </c>
       <c r="E8" t="n">
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>392418.6139395237</v>
+        <v>416139.2748568058</v>
+      </c>
+      <c r="G8" t="n">
+        <v>383714.1973369122</v>
       </c>
     </row>
     <row r="9">
@@ -5400,16 +5575,19 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>461822.1461734401</v>
+        <v>454202.2568912456</v>
       </c>
       <c r="D9" t="n">
-        <v>464220.4404883942</v>
+        <v>464218.842461588</v>
       </c>
       <c r="E9" t="n">
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>397611.536280632</v>
+        <v>407308.5412321091</v>
+      </c>
+      <c r="G9" t="n">
+        <v>387350.1193754673</v>
       </c>
     </row>
     <row r="10">
@@ -5420,16 +5598,19 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>452662.828127285</v>
+        <v>447778.5759206791</v>
       </c>
       <c r="D10" t="n">
-        <v>451051.0130022227</v>
+        <v>451049.2232962177</v>
       </c>
       <c r="E10" t="n">
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>400543.0323169231</v>
+        <v>416290.3269944191</v>
+      </c>
+      <c r="G10" t="n">
+        <v>397162.4207530022</v>
       </c>
     </row>
     <row r="11">
@@ -5440,16 +5621,19 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>512574.7787021883</v>
+        <v>496803.0196981262</v>
       </c>
       <c r="D11" t="n">
-        <v>509819.0315832519</v>
+        <v>509819.7722750951</v>
       </c>
       <c r="E11" t="n">
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>396865.1970274448</v>
+        <v>394904.6155011654</v>
+      </c>
+      <c r="G11" t="n">
+        <v>388882.2970974445</v>
       </c>
     </row>
     <row r="12">
@@ -5460,16 +5644,19 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>498977.8751895558</v>
+        <v>485888.6550950715</v>
       </c>
       <c r="D12" t="n">
-        <v>495959.4807957555</v>
+        <v>495959.6089502975</v>
       </c>
       <c r="E12" t="n">
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>408218.282687664</v>
+        <v>403002.0596578121</v>
+      </c>
+      <c r="G12" t="n">
+        <v>396213.0926167965</v>
       </c>
     </row>
     <row r="13">
@@ -5480,16 +5667,19 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>523560.1121696763</v>
+        <v>507051.3295262837</v>
       </c>
       <c r="D13" t="n">
-        <v>518324.559369278</v>
+        <v>518325.4970104158</v>
       </c>
       <c r="E13" t="n">
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>397497.5168442726</v>
+        <v>396776.6998920441</v>
+      </c>
+      <c r="G13" t="n">
+        <v>399654.2125008106</v>
       </c>
     </row>
     <row r="14">
@@ -5500,16 +5690,19 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>538995.4937037784</v>
+        <v>522773.2553293756</v>
       </c>
       <c r="D14" t="n">
-        <v>533462.6912885965</v>
+        <v>533464.9456273328</v>
       </c>
       <c r="E14" t="n">
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>407204.2479090691</v>
+        <v>420232.7615466118</v>
+      </c>
+      <c r="G14" t="n">
+        <v>390581.8304419518</v>
       </c>
     </row>
     <row r="15">
@@ -5520,16 +5713,19 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>539101.2982367151</v>
+        <v>521169.8378329201</v>
       </c>
       <c r="D15" t="n">
-        <v>530336.8954178327</v>
+        <v>530339.3992496936</v>
       </c>
       <c r="E15" t="n">
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>402619.9248638153</v>
+        <v>401531.0025112629</v>
+      </c>
+      <c r="G15" t="n">
+        <v>403536.2961699963</v>
       </c>
     </row>
     <row r="16">
@@ -5540,16 +5736,19 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>514032.3882289412</v>
+        <v>498645.4731689281</v>
       </c>
       <c r="D16" t="n">
-        <v>507571.3283965437</v>
+        <v>507572.3455357717</v>
       </c>
       <c r="E16" t="n">
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>392106.0488445759</v>
+        <v>404049.4011266232</v>
+      </c>
+      <c r="G16" t="n">
+        <v>367642.6522340775</v>
       </c>
     </row>
     <row r="17">
@@ -5560,16 +5759,19 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>479045.6134835333</v>
+        <v>470276.6645384528</v>
       </c>
       <c r="D17" t="n">
-        <v>475050.3106654632</v>
+        <v>475048.9042597117</v>
       </c>
       <c r="E17" t="n">
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>404988.1459920406</v>
+        <v>413027.3384268284</v>
+      </c>
+      <c r="G17" t="n">
+        <v>401376.941576004</v>
       </c>
     </row>
     <row r="18">
@@ -5580,16 +5782,19 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>511864.393273396</v>
+        <v>496067.212284125</v>
       </c>
       <c r="D18" t="n">
-        <v>509664.7432722294</v>
+        <v>509665.6234660466</v>
       </c>
       <c r="E18" t="n">
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>395819.0275902748</v>
+        <v>397800.2508678436</v>
+      </c>
+      <c r="G18" t="n">
+        <v>376014.4917387962</v>
       </c>
     </row>
     <row r="19">
@@ -5600,16 +5805,19 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>504198.8109323962</v>
+        <v>490200.5983683848</v>
       </c>
       <c r="D19" t="n">
-        <v>500905.42532869</v>
+        <v>500905.7038331417</v>
       </c>
       <c r="E19" t="n">
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>411636.1543619633</v>
+        <v>405253.8473143578</v>
+      </c>
+      <c r="G19" t="n">
+        <v>387238.2165932655</v>
       </c>
     </row>
     <row r="20">
@@ -5620,16 +5828,19 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>512600.8369192621</v>
+        <v>497188.2616754125</v>
       </c>
       <c r="D20" t="n">
-        <v>509760.8247525753</v>
+        <v>509761.2883425799</v>
       </c>
       <c r="E20" t="n">
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>412533.4058086872</v>
+        <v>405480.3642952442</v>
+      </c>
+      <c r="G20" t="n">
+        <v>380222.7763038874</v>
       </c>
     </row>
     <row r="21">
@@ -5640,16 +5851,19 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>479466.6372373087</v>
+        <v>471231.7797862524</v>
       </c>
       <c r="D21" t="n">
-        <v>476535.9533815344</v>
+        <v>476535.5119207027</v>
       </c>
       <c r="E21" t="n">
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>386042.2895011902</v>
+        <v>413197.3879728317</v>
+      </c>
+      <c r="G21" t="n">
+        <v>395695.4744637012</v>
       </c>
     </row>
     <row r="22">
@@ -5660,16 +5874,19 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>473715.5482958502</v>
+        <v>466036.2733022801</v>
       </c>
       <c r="D22" t="n">
-        <v>465123.8928018872</v>
+        <v>465123.0169038718</v>
       </c>
       <c r="E22" t="n">
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>394492.0428705215</v>
+        <v>411324.0790712833</v>
+      </c>
+      <c r="G22" t="n">
+        <v>403727.7921457291</v>
       </c>
     </row>
     <row r="23">
@@ -5680,16 +5897,19 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>533442.9027622615</v>
+        <v>518657.6464361819</v>
       </c>
       <c r="D23" t="n">
-        <v>519538.4285381672</v>
+        <v>519540.7303624612</v>
       </c>
       <c r="E23" t="n">
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>388702.3814940453</v>
+        <v>416907.8827111721</v>
+      </c>
+      <c r="G23" t="n">
+        <v>396177.2844262123</v>
       </c>
     </row>
     <row r="24">
@@ -5700,16 +5920,19 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>518306.6566861671</v>
+        <v>502676.5477362684</v>
       </c>
       <c r="D24" t="n">
-        <v>507245.5528959208</v>
+        <v>507247.015976076</v>
       </c>
       <c r="E24" t="n">
-        <v>543960.5678097815</v>
+        <v>543960.5678097814</v>
       </c>
       <c r="F24" t="n">
-        <v>424793.7839031219</v>
+        <v>404850.0736675262</v>
+      </c>
+      <c r="G24" t="n">
+        <v>404860.6044592857</v>
       </c>
     </row>
     <row r="25">
@@ -5720,16 +5943,19 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>537736.2708194784</v>
+        <v>519943.8808640399</v>
       </c>
       <c r="D25" t="n">
-        <v>528083.1213564152</v>
+        <v>528085.6166253425</v>
       </c>
       <c r="E25" t="n">
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>395604.9306461811</v>
+        <v>399280.6842675209</v>
+      </c>
+      <c r="G25" t="n">
+        <v>402175.8998019695</v>
       </c>
     </row>
     <row r="26">
@@ -5740,16 +5966,19 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>556670.5700715188</v>
+        <v>537952.7494040065</v>
       </c>
       <c r="D26" t="n">
-        <v>542225.0963114933</v>
+        <v>542228.9798236936</v>
       </c>
       <c r="E26" t="n">
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>398080.9087133408</v>
+        <v>410690.3248276711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>404364.5901730061</v>
       </c>
     </row>
     <row r="27">
@@ -5760,16 +5989,19 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>558445.2259039326</v>
+        <v>538912.4131244164</v>
       </c>
       <c r="D27" t="n">
-        <v>539565.1248611339</v>
+        <v>539569.1377787277</v>
       </c>
       <c r="E27" t="n">
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>404170.4527528286</v>
+        <v>406350.4665911198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>409074.6529710293</v>
       </c>
     </row>
     <row r="28">
@@ -5780,16 +6012,19 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>533618.3459357483</v>
+        <v>517228.6793002889</v>
       </c>
       <c r="D28" t="n">
-        <v>518852.9167095724</v>
+        <v>518855.1657159033</v>
       </c>
       <c r="E28" t="n">
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>398433.1829400063</v>
+        <v>408166.3634352684</v>
+      </c>
+      <c r="G28" t="n">
+        <v>395893.3029088974</v>
       </c>
     </row>
     <row r="29">
@@ -5800,16 +6035,19 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>486609.8797865673</v>
+        <v>478774.7459832918</v>
       </c>
       <c r="D29" t="n">
-        <v>489161.1369062281</v>
+        <v>489160.615924223</v>
       </c>
       <c r="E29" t="n">
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>409548.5036141872</v>
+        <v>435149.295706749</v>
+      </c>
+      <c r="G29" t="n">
+        <v>384192.4737114906</v>
       </c>
     </row>
     <row r="30">
@@ -5820,16 +6058,19 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>534727.5956587569</v>
+        <v>519690.4206051895</v>
       </c>
       <c r="D30" t="n">
-        <v>521004.1069283766</v>
+        <v>521006.1875282039</v>
       </c>
       <c r="E30" t="n">
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>395223.5305585861</v>
+        <v>416055.83320117</v>
+      </c>
+      <c r="G30" t="n">
+        <v>403663.400377512</v>
       </c>
     </row>
     <row r="31">
@@ -5840,16 +6081,19 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>524350.4266528522</v>
+        <v>507801.7236159079</v>
       </c>
       <c r="D31" t="n">
-        <v>513052.9954864146</v>
+        <v>513054.3571184368</v>
       </c>
       <c r="E31" t="n">
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>420229.7352559566</v>
+        <v>407990.3137869835</v>
+      </c>
+      <c r="G31" t="n">
+        <v>387227.4234063625</v>
       </c>
     </row>
     <row r="32">
@@ -5860,16 +6104,19 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>532975.5285066251</v>
+        <v>517797.4414666375</v>
       </c>
       <c r="D32" t="n">
-        <v>521237.3005615115</v>
+        <v>521238.9437574365</v>
       </c>
       <c r="E32" t="n">
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>402033.8740572929</v>
+        <v>419297.83015728</v>
+      </c>
+      <c r="G32" t="n">
+        <v>392245.0657916069</v>
       </c>
     </row>
     <row r="33">
@@ -5880,16 +6127,19 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>499877.1667669472</v>
+        <v>491313.0004335475</v>
       </c>
       <c r="D33" t="n">
-        <v>490821.5817223216</v>
+        <v>490821.8541440781</v>
       </c>
       <c r="E33" t="n">
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>412101.6608395576</v>
+        <v>432326.2388367653</v>
+      </c>
+      <c r="G33" t="n">
+        <v>416164.7271857262</v>
       </c>
     </row>
     <row r="34">
@@ -5900,16 +6150,19 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>487050.8137945892</v>
+        <v>480797.3922309421</v>
       </c>
       <c r="D34" t="n">
-        <v>480397.141703499</v>
+        <v>480396.8185698022</v>
       </c>
       <c r="E34" t="n">
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>402514.8093693256</v>
+        <v>441369.722443819</v>
+      </c>
+      <c r="G34" t="n">
+        <v>393377.8781051636</v>
       </c>
     </row>
     <row r="35">
@@ -5920,16 +6173,19 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>550904.7418317236</v>
+        <v>533765.5296309884</v>
       </c>
       <c r="D35" t="n">
-        <v>530325.8356909686</v>
+        <v>530329.2592364355</v>
       </c>
       <c r="E35" t="n">
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>421787.0329396725</v>
+        <v>422437.4230353832</v>
+      </c>
+      <c r="G35" t="n">
+        <v>409239.6470372677</v>
       </c>
     </row>
     <row r="36">
@@ -5940,16 +6196,19 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>535615.1576651875</v>
+        <v>520786.4282400034</v>
       </c>
       <c r="D36" t="n">
-        <v>519078.7085594727</v>
+        <v>519081.157546744</v>
       </c>
       <c r="E36" t="n">
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>419973.3752007484</v>
+        <v>422464.7296233177</v>
+      </c>
+      <c r="G36" t="n">
+        <v>415732.3524682522</v>
       </c>
     </row>
     <row r="37">
@@ -5960,16 +6219,19 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>556615.1877122431</v>
+        <v>540259.447443157</v>
       </c>
       <c r="D37" t="n">
-        <v>538206.2070136727</v>
+        <v>538209.9161361665</v>
       </c>
       <c r="E37" t="n">
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>417805.2391159534</v>
+        <v>431697.5750589371</v>
+      </c>
+      <c r="G37" t="n">
+        <v>413098.9373149872</v>
       </c>
     </row>
     <row r="38">
@@ -5980,16 +6242,19 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>573603.4305541135</v>
+        <v>552953.7117439591</v>
       </c>
       <c r="D38" t="n">
-        <v>551189.8449374987</v>
+        <v>551195.038105195</v>
       </c>
       <c r="E38" t="n">
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>422872.0018720627</v>
+        <v>421669.8997476101</v>
+      </c>
+      <c r="G38" t="n">
+        <v>399657.6411306858</v>
       </c>
     </row>
     <row r="39">
@@ -6000,16 +6265,19 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>574557.3417929866</v>
+        <v>557584.8938266413</v>
       </c>
       <c r="D39" t="n">
-        <v>548763.1898663259</v>
+        <v>548768.452192354</v>
       </c>
       <c r="E39" t="n">
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>416448.4463078976</v>
+        <v>441746.6093349457</v>
+      </c>
+      <c r="G39" t="n">
+        <v>419048.5547709465</v>
       </c>
     </row>
     <row r="40">
@@ -6020,16 +6288,19 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>552167.7745892019</v>
+        <v>537932.8722482823</v>
       </c>
       <c r="D40" t="n">
-        <v>529780.4388736694</v>
+        <v>529783.7539073976</v>
       </c>
       <c r="E40" t="n">
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>434935.4611577988</v>
+        <v>446667.9527025223</v>
+      </c>
+      <c r="G40" t="n">
+        <v>418742.6894986629</v>
       </c>
     </row>
     <row r="41">
@@ -6040,16 +6311,19 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>510187.0035136018</v>
+        <v>498385.0604987275</v>
       </c>
       <c r="D41" t="n">
-        <v>502561.5637958674</v>
+        <v>502561.8700111181</v>
       </c>
       <c r="E41" t="n">
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>428569.7549762726</v>
+        <v>428841.8237540722</v>
+      </c>
+      <c r="G41" t="n">
+        <v>399791.9699511528</v>
       </c>
     </row>
     <row r="42">
@@ -6060,16 +6334,19 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>551843.5247189123</v>
+        <v>536042.6704005345</v>
       </c>
       <c r="D42" t="n">
-        <v>531767.0387393441</v>
+        <v>531770.2227897565</v>
       </c>
       <c r="E42" t="n">
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>425985.8275470734</v>
+        <v>432116.5151450634</v>
+      </c>
+      <c r="G42" t="n">
+        <v>417942.9790732861</v>
       </c>
     </row>
     <row r="43">
@@ -6080,16 +6357,19 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>541271.9299505905</v>
+        <v>525912.6786920499</v>
       </c>
       <c r="D43" t="n">
-        <v>524480.9470335129</v>
+        <v>524483.343959077</v>
       </c>
       <c r="E43" t="n">
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>416535.0017192364</v>
+        <v>426907.7966163158</v>
+      </c>
+      <c r="G43" t="n">
+        <v>403159.759139061</v>
       </c>
     </row>
     <row r="44">
@@ -6100,16 +6380,19 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>550220.6420327008</v>
+        <v>535150.5360624586</v>
       </c>
       <c r="D44" t="n">
-        <v>531989.6477680848</v>
+        <v>531992.4274423156</v>
       </c>
       <c r="E44" t="n">
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>423220.9174408913</v>
+        <v>433430.2926425934</v>
+      </c>
+      <c r="G44" t="n">
+        <v>423852.5900163651</v>
       </c>
     </row>
     <row r="45">
@@ -6120,16 +6403,19 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>519100.0208104705</v>
+        <v>509095.4838854801</v>
       </c>
       <c r="D45" t="n">
-        <v>504102.1875453966</v>
+        <v>504103.2331323071</v>
       </c>
       <c r="E45" t="n">
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>424266.5795807838</v>
+        <v>443365.7448074818</v>
+      </c>
+      <c r="G45" t="n">
+        <v>417784.2999835014</v>
       </c>
     </row>
     <row r="46">
@@ -6140,16 +6426,19 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>509647.2717211227</v>
+        <v>499114.6266837532</v>
       </c>
       <c r="D46" t="n">
-        <v>494545.6400323637</v>
+        <v>494545.9747458252</v>
       </c>
       <c r="E46" t="n">
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>427182.8392057419</v>
+        <v>433296.506105423</v>
+      </c>
+      <c r="G46" t="n">
+        <v>410417.9236826897</v>
       </c>
     </row>
     <row r="47">
@@ -6160,16 +6449,19 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>566085.9473057663</v>
+        <v>548375.1785541263</v>
       </c>
       <c r="D47" t="n">
-        <v>540331.0508832885</v>
+        <v>540335.5984782289</v>
       </c>
       <c r="E47" t="n">
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>417761.9789032936</v>
+        <v>429760.6090955734</v>
+      </c>
+      <c r="G47" t="n">
+        <v>414198.1630501747</v>
       </c>
     </row>
     <row r="48">
@@ -6180,16 +6472,19 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>553205.2710301855</v>
+        <v>539752.7108876639</v>
       </c>
       <c r="D48" t="n">
-        <v>530019.2105668101</v>
+        <v>530022.687601878</v>
       </c>
       <c r="E48" t="n">
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>430316.6244046688</v>
+        <v>447854.7834296227</v>
+      </c>
+      <c r="G48" t="n">
+        <v>431841.647485733</v>
       </c>
     </row>
     <row r="49">
@@ -6200,16 +6495,19 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>574407.1795717377</v>
+        <v>560721.976597723</v>
       </c>
       <c r="D49" t="n">
-        <v>547559.9006170026</v>
+        <v>547564.830427294</v>
       </c>
       <c r="E49" t="n">
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>426450.4418811798</v>
+        <v>461847.5292475224</v>
+      </c>
+      <c r="G49" t="n">
+        <v>443283.4052114487</v>
       </c>
     </row>
     <row r="50">
@@ -6220,16 +6518,19 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>589510.2655357128</v>
+        <v>573361.1095659024</v>
       </c>
       <c r="D50" t="n">
-        <v>559466.5577785867</v>
+        <v>559473.0500493904</v>
       </c>
       <c r="E50" t="n">
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>434781.1728134155</v>
+        <v>462082.5828170776</v>
+      </c>
+      <c r="G50" t="n">
+        <v>438698.9422221184</v>
       </c>
     </row>
     <row r="51">
@@ -6240,16 +6541,19 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>590270.4166871535</v>
+        <v>572668.5906419194</v>
       </c>
       <c r="D51" t="n">
-        <v>557242.1245085704</v>
+        <v>557248.6415551938</v>
       </c>
       <c r="E51" t="n">
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>428262.7001793385</v>
+        <v>455994.8055715561</v>
+      </c>
+      <c r="G51" t="n">
+        <v>418074.5439982414</v>
       </c>
     </row>
     <row r="52">
@@ -6260,16 +6564,19 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>568993.7180888242</v>
+        <v>554103.2218150762</v>
       </c>
       <c r="D52" t="n">
-        <v>539835.9667655325</v>
+        <v>539840.4013664008</v>
       </c>
       <c r="E52" t="n">
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>444610.6173403263</v>
+        <v>454333.5819180012</v>
+      </c>
+      <c r="G52" t="n">
+        <v>439353.985458374</v>
       </c>
     </row>
     <row r="53">
@@ -6280,16 +6587,19 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>533523.6314980277</v>
+        <v>521494.083304503</v>
       </c>
       <c r="D53" t="n">
-        <v>514877.3441640146</v>
+        <v>514878.594531847</v>
       </c>
       <c r="E53" t="n">
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>454609.8315250874</v>
+        <v>450696.1729736328</v>
+      </c>
+      <c r="G53" t="n">
+        <v>421640.756393671</v>
       </c>
     </row>
     <row r="54">
@@ -6300,16 +6610,19 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>568213.8406020075</v>
+        <v>552604.2948543093</v>
       </c>
       <c r="D54" t="n">
-        <v>541658.4813120329</v>
+        <v>541662.8258477986</v>
       </c>
       <c r="E54" t="n">
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>452551.8314285278</v>
+        <v>451612.8766469955</v>
+      </c>
+      <c r="G54" t="n">
+        <v>437403.4973986149</v>
       </c>
     </row>
     <row r="55">
@@ -6320,16 +6633,19 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>559047.5175909546</v>
+        <v>545861.6257655992</v>
       </c>
       <c r="D55" t="n">
-        <v>534977.5955775863</v>
+        <v>534981.1043074194</v>
       </c>
       <c r="E55" t="n">
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>440642.2931339741</v>
+        <v>455383.1799850464</v>
+      </c>
+      <c r="G55" t="n">
+        <v>443035.5292658806</v>
       </c>
     </row>
     <row r="56">
@@ -6340,16 +6656,19 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>567020.4467197036</v>
+        <v>554654.6082957821</v>
       </c>
       <c r="D56" t="n">
-        <v>541863.1395780526</v>
+        <v>541867.1161479257</v>
       </c>
       <c r="E56" t="n">
-        <v>614602.7683121645</v>
+        <v>614602.7683121646</v>
       </c>
       <c r="F56" t="n">
-        <v>444630.2969760895</v>
+        <v>466209.726057291</v>
+      </c>
+      <c r="G56" t="n">
+        <v>457054.5145981312</v>
       </c>
     </row>
     <row r="57">
@@ -6360,16 +6679,19 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>538992.9385355972</v>
+        <v>528145.0717280768</v>
       </c>
       <c r="D57" t="n">
-        <v>516291.1521900483</v>
+        <v>516293.1033084352</v>
       </c>
       <c r="E57" t="n">
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>461013.2001562119</v>
+        <v>455494.3655538559</v>
+      </c>
+      <c r="G57" t="n">
+        <v>456995.825551033</v>
       </c>
     </row>
     <row r="58">
@@ -6380,16 +6702,19 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>532598.3416379704</v>
+        <v>522537.18794024</v>
       </c>
       <c r="D58" t="n">
-        <v>507528.160259891</v>
+        <v>507529.3102328324</v>
       </c>
       <c r="E58" t="n">
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>471841.0407111645</v>
+        <v>465128.2382338047</v>
+      </c>
+      <c r="G58" t="n">
+        <v>435692.2437376976</v>
       </c>
     </row>
     <row r="59">
@@ -6400,16 +6725,19 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>583664.3238380125</v>
+        <v>569641.4578320942</v>
       </c>
       <c r="D59" t="n">
-        <v>549512.467255535</v>
+        <v>549518.19456457</v>
       </c>
       <c r="E59" t="n">
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>472432.4268856049</v>
+        <v>481541.8591387272</v>
+      </c>
+      <c r="G59" t="n">
+        <v>447007.9118504524</v>
       </c>
     </row>
     <row r="60">
@@ -6420,16 +6748,19 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>572070.817689577</v>
+        <v>559531.3999561215</v>
       </c>
       <c r="D60" t="n">
-        <v>540056.8339584076</v>
+        <v>540061.4185721624</v>
       </c>
       <c r="E60" t="n">
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>476187.6862354279</v>
+        <v>481411.5712034702</v>
+      </c>
+      <c r="G60" t="n">
+        <v>451007.9508831501</v>
       </c>
     </row>
     <row r="61">
@@ -6440,16 +6771,19 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>594565.9204505447</v>
+        <v>578303.651423446</v>
       </c>
       <c r="D61" t="n">
-        <v>556141.3245965317</v>
+        <v>556147.5149501024</v>
       </c>
       <c r="E61" t="n">
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>492000.8945729733</v>
+        <v>479051.3268876076</v>
+      </c>
+      <c r="G61" t="n">
+        <v>454460.5636744499</v>
       </c>
     </row>
     <row r="62">
@@ -6460,16 +6794,19 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>605568.2232848282</v>
+        <v>591434.6244222793</v>
       </c>
       <c r="D62" t="n">
-        <v>567059.5187603674</v>
+        <v>567067.3275559774</v>
       </c>
       <c r="E62" t="n">
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>457745.3310389519</v>
+        <v>488489.1029303074</v>
+      </c>
+      <c r="G62" t="n">
+        <v>474421.6094825268</v>
       </c>
     </row>
     <row r="63">
@@ -6480,16 +6817,19 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>607713.6928231716</v>
+        <v>594037.3560629283</v>
       </c>
       <c r="D63" t="n">
-        <v>565019.809197626</v>
+        <v>565027.6059433514</v>
       </c>
       <c r="E63" t="n">
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>482798.7493691444</v>
+        <v>500779.4465501308</v>
+      </c>
+      <c r="G63" t="n">
+        <v>477655.2622730732</v>
       </c>
     </row>
     <row r="64">
@@ -6500,16 +6840,19 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>586322.5112395756</v>
+        <v>577184.7772395127</v>
       </c>
       <c r="D64" t="n">
-        <v>549058.7906583664</v>
+        <v>549064.4062069372</v>
       </c>
       <c r="E64" t="n">
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>472416.3683028221</v>
+        <v>511687.8424141407</v>
+      </c>
+      <c r="G64" t="n">
+        <v>475357.8703405857</v>
       </c>
     </row>
     <row r="65">
@@ -6520,16 +6863,19 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>556627.0241715813</v>
+        <v>548066.5107561713</v>
       </c>
       <c r="D65" t="n">
-        <v>526172.3243872615</v>
+        <v>526174.6305904535</v>
       </c>
       <c r="E65" t="n">
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>487197.1742017269</v>
+        <v>497999.2125675678</v>
+      </c>
+      <c r="G65" t="n">
+        <v>456846.6451654434</v>
       </c>
     </row>
     <row r="66">
@@ -6540,16 +6886,19 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>584517.4490177771</v>
+        <v>573620.9079028104</v>
       </c>
       <c r="D66" t="n">
-        <v>550730.0466990217</v>
+        <v>550735.6080142081</v>
       </c>
       <c r="E66" t="n">
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>488172.5669221878</v>
+        <v>501967.4842948914</v>
+      </c>
+      <c r="G66" t="n">
+        <v>475884.1125473976</v>
       </c>
     </row>
     <row r="67">
@@ -6560,16 +6909,19 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>577339.1198197863</v>
+        <v>569125.4035042918</v>
       </c>
       <c r="D67" t="n">
-        <v>544603.8428502311</v>
+        <v>544608.5334797063</v>
       </c>
       <c r="E67" t="n">
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>484959.5558829308</v>
+        <v>511028.8457577229</v>
+      </c>
+      <c r="G67" t="n">
+        <v>485687.9997873306</v>
       </c>
     </row>
     <row r="68">
@@ -6580,16 +6932,19 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>585376.5129683763</v>
+        <v>573641.7242366931</v>
       </c>
       <c r="D68" t="n">
-        <v>550917.7458256328</v>
+        <v>550922.9728608044</v>
       </c>
       <c r="E68" t="n">
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>506379.1338427067</v>
+        <v>504792.8677351475</v>
+      </c>
+      <c r="G68" t="n">
+        <v>468235.976341486</v>
       </c>
     </row>
     <row r="69">
@@ -6600,16 +6955,19 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>558734.4513518915</v>
+        <v>555033.6774431582</v>
       </c>
       <c r="D69" t="n">
-        <v>527468.8204826671</v>
+        <v>527471.7912225157</v>
       </c>
       <c r="E69" t="n">
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>504714.3241221905</v>
+        <v>538633.6020402908</v>
+      </c>
+      <c r="G69" t="n">
+        <v>468530.5236365795</v>
       </c>
     </row>
     <row r="70">
@@ -6620,16 +6978,19 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>554364.7064976975</v>
+        <v>552934.6383122671</v>
       </c>
       <c r="D70" t="n">
-        <v>519433.3631066284</v>
+        <v>519435.4624742399</v>
       </c>
       <c r="E70" t="n">
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>504184.2859323025</v>
+        <v>544198.0234255791</v>
+      </c>
+      <c r="G70" t="n">
+        <v>489606.4514234066</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +7004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6682,6 +7043,11 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -6691,16 +7057,19 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>530930.0415348528</v>
+        <v>514746.7375633477</v>
       </c>
       <c r="D2" t="n">
-        <v>540671.5174722987</v>
+        <v>540672.731287163</v>
       </c>
       <c r="E2" t="n">
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>384371.6371154785</v>
+        <v>405308.8103504181</v>
+      </c>
+      <c r="G2" t="n">
+        <v>394792.8351700306</v>
       </c>
     </row>
     <row r="3">
@@ -6711,16 +7080,19 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>529604.6792385299</v>
+        <v>516696.7938145596</v>
       </c>
       <c r="D3" t="n">
-        <v>533542.9114601641</v>
+        <v>533543.9563418041</v>
       </c>
       <c r="E3" t="n">
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>389279.6158237457</v>
+        <v>426928.4908466339</v>
+      </c>
+      <c r="G3" t="n">
+        <v>403513.345341444</v>
       </c>
     </row>
     <row r="4">
@@ -6731,16 +7103,19 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>502423.0094126484</v>
+        <v>489712.2092176768</v>
       </c>
       <c r="D4" t="n">
-        <v>505771.8077431328</v>
+        <v>505771.3560588615</v>
       </c>
       <c r="E4" t="n">
-        <v>510331.3119691162</v>
+        <v>510331.3119691161</v>
       </c>
       <c r="F4" t="n">
-        <v>399251.3834764957</v>
+        <v>410462.8982102871</v>
+      </c>
+      <c r="G4" t="n">
+        <v>385253.2673046589</v>
       </c>
     </row>
     <row r="5">
@@ -6751,16 +7126,19 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>459283.6729827666</v>
+        <v>452998.4120904927</v>
       </c>
       <c r="D5" t="n">
-        <v>467975.7940520919</v>
+        <v>467973.1442135837</v>
       </c>
       <c r="E5" t="n">
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>394101.2315437794</v>
+        <v>414353.9383003712</v>
+      </c>
+      <c r="G5" t="n">
+        <v>387330.6146697998</v>
       </c>
     </row>
     <row r="6">
@@ -6771,16 +7149,19 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>498451.1223308977</v>
+        <v>489129.9195343013</v>
       </c>
       <c r="D6" t="n">
-        <v>503879.4678025942</v>
+        <v>503878.6047281298</v>
       </c>
       <c r="E6" t="n">
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>382977.3043088913</v>
+        <v>429736.6786584854</v>
+      </c>
+      <c r="G6" t="n">
+        <v>376543.489094615</v>
       </c>
     </row>
     <row r="7">
@@ -6791,16 +7172,19 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>487760.2056252891</v>
+        <v>476216.0534051085</v>
       </c>
       <c r="D7" t="n">
-        <v>492866.9200514383</v>
+        <v>492865.5604598087</v>
       </c>
       <c r="E7" t="n">
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>387632.6314799786</v>
+        <v>404194.365696907</v>
+      </c>
+      <c r="G7" t="n">
+        <v>375549.2389098406</v>
       </c>
     </row>
     <row r="8">
@@ -6811,16 +7195,19 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>496644.0747976541</v>
+        <v>485658.3514977255</v>
       </c>
       <c r="D8" t="n">
-        <v>501368.3065314216</v>
+        <v>501367.020386829</v>
       </c>
       <c r="E8" t="n">
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>392418.6139395237</v>
+        <v>416139.2748568058</v>
+      </c>
+      <c r="G8" t="n">
+        <v>383714.1973369122</v>
       </c>
     </row>
     <row r="9">
@@ -6831,16 +7218,19 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>461822.1461734401</v>
+        <v>454202.2568912456</v>
       </c>
       <c r="D9" t="n">
-        <v>464220.4404883942</v>
+        <v>464218.842461588</v>
       </c>
       <c r="E9" t="n">
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>397611.536280632</v>
+        <v>407308.5412321091</v>
+      </c>
+      <c r="G9" t="n">
+        <v>387350.1193754673</v>
       </c>
     </row>
     <row r="10">
@@ -6851,16 +7241,19 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>452662.828127285</v>
+        <v>447778.5759206791</v>
       </c>
       <c r="D10" t="n">
-        <v>451051.0130022227</v>
+        <v>451049.2232962177</v>
       </c>
       <c r="E10" t="n">
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>400543.0323169231</v>
+        <v>416290.3269944191</v>
+      </c>
+      <c r="G10" t="n">
+        <v>397162.4207530022</v>
       </c>
     </row>
     <row r="11">
@@ -6871,16 +7264,19 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>512574.7787021883</v>
+        <v>496803.0196981262</v>
       </c>
       <c r="D11" t="n">
-        <v>509819.0315832519</v>
+        <v>509819.7722750951</v>
       </c>
       <c r="E11" t="n">
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>396865.1970274448</v>
+        <v>394904.6155011654</v>
+      </c>
+      <c r="G11" t="n">
+        <v>388882.2970974445</v>
       </c>
     </row>
     <row r="12">
@@ -6891,16 +7287,19 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>498977.8751895558</v>
+        <v>485888.6550950715</v>
       </c>
       <c r="D12" t="n">
-        <v>495959.4807957555</v>
+        <v>495959.6089502975</v>
       </c>
       <c r="E12" t="n">
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>408218.282687664</v>
+        <v>403002.0596578121</v>
+      </c>
+      <c r="G12" t="n">
+        <v>396213.0926167965</v>
       </c>
     </row>
     <row r="13">
@@ -6911,16 +7310,19 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>523560.1121696763</v>
+        <v>507051.3295262837</v>
       </c>
       <c r="D13" t="n">
-        <v>518324.559369278</v>
+        <v>518325.4970104158</v>
       </c>
       <c r="E13" t="n">
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>397497.5168442726</v>
+        <v>396776.6998920441</v>
+      </c>
+      <c r="G13" t="n">
+        <v>399654.2125008106</v>
       </c>
     </row>
     <row r="14">
@@ -6931,16 +7333,19 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>538995.4937037784</v>
+        <v>522773.2553293756</v>
       </c>
       <c r="D14" t="n">
-        <v>533462.6912885965</v>
+        <v>533464.9456273328</v>
       </c>
       <c r="E14" t="n">
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>407204.2479090691</v>
+        <v>420232.7615466118</v>
+      </c>
+      <c r="G14" t="n">
+        <v>390581.8304419518</v>
       </c>
     </row>
     <row r="15">
@@ -6951,16 +7356,19 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>539101.2982367151</v>
+        <v>521169.8378329201</v>
       </c>
       <c r="D15" t="n">
-        <v>530336.8954178327</v>
+        <v>530339.3992496936</v>
       </c>
       <c r="E15" t="n">
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>402619.9248638153</v>
+        <v>401531.0025112629</v>
+      </c>
+      <c r="G15" t="n">
+        <v>403536.2961699963</v>
       </c>
     </row>
     <row r="16">
@@ -6971,16 +7379,19 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>514032.3882289412</v>
+        <v>498645.4731689281</v>
       </c>
       <c r="D16" t="n">
-        <v>507571.3283965437</v>
+        <v>507572.3455357717</v>
       </c>
       <c r="E16" t="n">
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>392106.0488445759</v>
+        <v>404049.4011266232</v>
+      </c>
+      <c r="G16" t="n">
+        <v>367642.6522340775</v>
       </c>
     </row>
     <row r="17">
@@ -6991,16 +7402,19 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>479045.6134835333</v>
+        <v>470276.6645384528</v>
       </c>
       <c r="D17" t="n">
-        <v>475050.3106654632</v>
+        <v>475048.9042597117</v>
       </c>
       <c r="E17" t="n">
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>404988.1459920406</v>
+        <v>413027.3384268284</v>
+      </c>
+      <c r="G17" t="n">
+        <v>401376.941576004</v>
       </c>
     </row>
     <row r="18">
@@ -7011,16 +7425,19 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>511864.393273396</v>
+        <v>496067.212284125</v>
       </c>
       <c r="D18" t="n">
-        <v>509664.7432722294</v>
+        <v>509665.6234660466</v>
       </c>
       <c r="E18" t="n">
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>395819.0275902748</v>
+        <v>397800.2508678436</v>
+      </c>
+      <c r="G18" t="n">
+        <v>376014.4917387962</v>
       </c>
     </row>
     <row r="19">
@@ -7031,16 +7448,19 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>504198.8109323962</v>
+        <v>490200.5983683848</v>
       </c>
       <c r="D19" t="n">
-        <v>500905.42532869</v>
+        <v>500905.7038331417</v>
       </c>
       <c r="E19" t="n">
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>411636.1543619633</v>
+        <v>405253.8473143578</v>
+      </c>
+      <c r="G19" t="n">
+        <v>387238.2165932655</v>
       </c>
     </row>
     <row r="20">
@@ -7051,16 +7471,19 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>512600.8369192621</v>
+        <v>497188.2616754125</v>
       </c>
       <c r="D20" t="n">
-        <v>509760.8247525753</v>
+        <v>509761.2883425799</v>
       </c>
       <c r="E20" t="n">
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>412533.4058086872</v>
+        <v>405480.3642952442</v>
+      </c>
+      <c r="G20" t="n">
+        <v>380222.7763038874</v>
       </c>
     </row>
     <row r="21">
@@ -7071,16 +7494,19 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>479466.6372373087</v>
+        <v>471231.7797862524</v>
       </c>
       <c r="D21" t="n">
-        <v>476535.9533815344</v>
+        <v>476535.5119207027</v>
       </c>
       <c r="E21" t="n">
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>386042.2895011902</v>
+        <v>413197.3879728317</v>
+      </c>
+      <c r="G21" t="n">
+        <v>395695.4744637012</v>
       </c>
     </row>
     <row r="22">
@@ -7091,16 +7517,19 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>473715.5482958502</v>
+        <v>466036.2733022801</v>
       </c>
       <c r="D22" t="n">
-        <v>465123.8928018872</v>
+        <v>465123.0169038718</v>
       </c>
       <c r="E22" t="n">
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>394492.0428705215</v>
+        <v>411324.0790712833</v>
+      </c>
+      <c r="G22" t="n">
+        <v>403727.7921457291</v>
       </c>
     </row>
     <row r="23">
@@ -7111,16 +7540,19 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>533442.9027622615</v>
+        <v>518657.6464361819</v>
       </c>
       <c r="D23" t="n">
-        <v>519538.4285381672</v>
+        <v>519540.7303624612</v>
       </c>
       <c r="E23" t="n">
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>388702.3814940453</v>
+        <v>416907.8827111721</v>
+      </c>
+      <c r="G23" t="n">
+        <v>396177.2844262123</v>
       </c>
     </row>
     <row r="24">
@@ -7131,16 +7563,19 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>518306.6566861671</v>
+        <v>502676.5477362684</v>
       </c>
       <c r="D24" t="n">
-        <v>507245.5528959208</v>
+        <v>507247.015976076</v>
       </c>
       <c r="E24" t="n">
-        <v>543960.5678097815</v>
+        <v>543960.5678097814</v>
       </c>
       <c r="F24" t="n">
-        <v>424793.7839031219</v>
+        <v>404850.0736675262</v>
+      </c>
+      <c r="G24" t="n">
+        <v>404860.6044592857</v>
       </c>
     </row>
     <row r="25">
@@ -7151,16 +7586,19 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>537736.2708194784</v>
+        <v>519943.8808640399</v>
       </c>
       <c r="D25" t="n">
-        <v>528083.1213564152</v>
+        <v>528085.6166253425</v>
       </c>
       <c r="E25" t="n">
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>395604.9306461811</v>
+        <v>399280.6842675209</v>
+      </c>
+      <c r="G25" t="n">
+        <v>402175.8998019695</v>
       </c>
     </row>
     <row r="26">
@@ -7171,16 +7609,19 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>556670.5700715188</v>
+        <v>537952.7494040065</v>
       </c>
       <c r="D26" t="n">
-        <v>542225.0963114933</v>
+        <v>542228.9798236936</v>
       </c>
       <c r="E26" t="n">
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>398080.9087133408</v>
+        <v>410690.3248276711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>404364.5901730061</v>
       </c>
     </row>
     <row r="27">
@@ -7191,16 +7632,19 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>558445.2259039326</v>
+        <v>538912.4131244164</v>
       </c>
       <c r="D27" t="n">
-        <v>539565.1248611339</v>
+        <v>539569.1377787277</v>
       </c>
       <c r="E27" t="n">
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>404170.4527528286</v>
+        <v>406350.4665911198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>409074.6529710293</v>
       </c>
     </row>
     <row r="28">
@@ -7211,16 +7655,19 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>533618.3459357483</v>
+        <v>517228.6793002889</v>
       </c>
       <c r="D28" t="n">
-        <v>518852.9167095724</v>
+        <v>518855.1657159033</v>
       </c>
       <c r="E28" t="n">
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>398433.1829400063</v>
+        <v>408166.3634352684</v>
+      </c>
+      <c r="G28" t="n">
+        <v>395893.3029088974</v>
       </c>
     </row>
     <row r="29">
@@ -7231,16 +7678,19 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>486609.8797865673</v>
+        <v>478774.7459832918</v>
       </c>
       <c r="D29" t="n">
-        <v>489161.1369062281</v>
+        <v>489160.615924223</v>
       </c>
       <c r="E29" t="n">
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>409548.5036141872</v>
+        <v>435149.295706749</v>
+      </c>
+      <c r="G29" t="n">
+        <v>384192.4737114906</v>
       </c>
     </row>
     <row r="30">
@@ -7251,16 +7701,19 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>534727.5956587569</v>
+        <v>519690.4206051895</v>
       </c>
       <c r="D30" t="n">
-        <v>521004.1069283766</v>
+        <v>521006.1875282039</v>
       </c>
       <c r="E30" t="n">
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>395223.5305585861</v>
+        <v>416055.83320117</v>
+      </c>
+      <c r="G30" t="n">
+        <v>403663.400377512</v>
       </c>
     </row>
     <row r="31">
@@ -7271,16 +7724,19 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>524350.4266528522</v>
+        <v>507801.7236159079</v>
       </c>
       <c r="D31" t="n">
-        <v>513052.9954864146</v>
+        <v>513054.3571184368</v>
       </c>
       <c r="E31" t="n">
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>420229.7352559566</v>
+        <v>407990.3137869835</v>
+      </c>
+      <c r="G31" t="n">
+        <v>387227.4234063625</v>
       </c>
     </row>
     <row r="32">
@@ -7291,16 +7747,19 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>532975.5285066251</v>
+        <v>517797.4414666375</v>
       </c>
       <c r="D32" t="n">
-        <v>521237.3005615115</v>
+        <v>521238.9437574365</v>
       </c>
       <c r="E32" t="n">
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>402033.8740572929</v>
+        <v>419297.83015728</v>
+      </c>
+      <c r="G32" t="n">
+        <v>392245.0657916069</v>
       </c>
     </row>
     <row r="33">
@@ -7311,16 +7770,19 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>499877.1667669472</v>
+        <v>491313.0004335475</v>
       </c>
       <c r="D33" t="n">
-        <v>490821.5817223216</v>
+        <v>490821.8541440781</v>
       </c>
       <c r="E33" t="n">
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>412101.6608395576</v>
+        <v>432326.2388367653</v>
+      </c>
+      <c r="G33" t="n">
+        <v>416164.7271857262</v>
       </c>
     </row>
     <row r="34">
@@ -7331,16 +7793,19 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>487050.8137945892</v>
+        <v>480797.3922309421</v>
       </c>
       <c r="D34" t="n">
-        <v>480397.141703499</v>
+        <v>480396.8185698022</v>
       </c>
       <c r="E34" t="n">
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>402514.8093693256</v>
+        <v>441369.722443819</v>
+      </c>
+      <c r="G34" t="n">
+        <v>393377.8781051636</v>
       </c>
     </row>
     <row r="35">
@@ -7351,16 +7816,19 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>550904.7418317236</v>
+        <v>533765.5296309884</v>
       </c>
       <c r="D35" t="n">
-        <v>530325.8356909686</v>
+        <v>530329.2592364355</v>
       </c>
       <c r="E35" t="n">
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>421787.0329396725</v>
+        <v>422437.4230353832</v>
+      </c>
+      <c r="G35" t="n">
+        <v>409239.6470372677</v>
       </c>
     </row>
     <row r="36">
@@ -7371,16 +7839,19 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>535615.1576651875</v>
+        <v>520786.4282400034</v>
       </c>
       <c r="D36" t="n">
-        <v>519078.7085594727</v>
+        <v>519081.157546744</v>
       </c>
       <c r="E36" t="n">
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>419973.3752007484</v>
+        <v>422464.7296233177</v>
+      </c>
+      <c r="G36" t="n">
+        <v>415732.3524682522</v>
       </c>
     </row>
     <row r="37">
@@ -7391,16 +7862,19 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>556615.1877122431</v>
+        <v>540259.447443157</v>
       </c>
       <c r="D37" t="n">
-        <v>538206.2070136727</v>
+        <v>538209.9161361665</v>
       </c>
       <c r="E37" t="n">
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>417805.2391159534</v>
+        <v>431697.5750589371</v>
+      </c>
+      <c r="G37" t="n">
+        <v>413098.9373149872</v>
       </c>
     </row>
     <row r="38">
@@ -7411,16 +7885,19 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>573603.4305541135</v>
+        <v>552953.7117439591</v>
       </c>
       <c r="D38" t="n">
-        <v>551189.8449374987</v>
+        <v>551195.038105195</v>
       </c>
       <c r="E38" t="n">
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>422872.0018720627</v>
+        <v>421669.8997476101</v>
+      </c>
+      <c r="G38" t="n">
+        <v>399657.6411306858</v>
       </c>
     </row>
     <row r="39">
@@ -7431,16 +7908,19 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>574557.3417929866</v>
+        <v>557584.8938266413</v>
       </c>
       <c r="D39" t="n">
-        <v>548763.1898663259</v>
+        <v>548768.452192354</v>
       </c>
       <c r="E39" t="n">
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>416448.4463078976</v>
+        <v>441746.6093349457</v>
+      </c>
+      <c r="G39" t="n">
+        <v>419048.5547709465</v>
       </c>
     </row>
     <row r="40">
@@ -7451,16 +7931,19 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>552167.7745892019</v>
+        <v>537932.8722482823</v>
       </c>
       <c r="D40" t="n">
-        <v>529780.4388736694</v>
+        <v>529783.7539073976</v>
       </c>
       <c r="E40" t="n">
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>434935.4611577988</v>
+        <v>446667.9527025223</v>
+      </c>
+      <c r="G40" t="n">
+        <v>418742.6894986629</v>
       </c>
     </row>
     <row r="41">
@@ -7471,16 +7954,19 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>510187.0035136018</v>
+        <v>498385.0604987275</v>
       </c>
       <c r="D41" t="n">
-        <v>502561.5637958674</v>
+        <v>502561.8700111181</v>
       </c>
       <c r="E41" t="n">
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>428569.7549762726</v>
+        <v>428841.8237540722</v>
+      </c>
+      <c r="G41" t="n">
+        <v>399791.9699511528</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7977,19 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>551843.5247189123</v>
+        <v>536042.6704005345</v>
       </c>
       <c r="D42" t="n">
-        <v>531767.0387393441</v>
+        <v>531770.2227897565</v>
       </c>
       <c r="E42" t="n">
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>425985.8275470734</v>
+        <v>432116.5151450634</v>
+      </c>
+      <c r="G42" t="n">
+        <v>417942.9790732861</v>
       </c>
     </row>
     <row r="43">
@@ -7511,16 +8000,19 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>541271.9299505905</v>
+        <v>525912.6786920499</v>
       </c>
       <c r="D43" t="n">
-        <v>524480.9470335129</v>
+        <v>524483.343959077</v>
       </c>
       <c r="E43" t="n">
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>416535.0017192364</v>
+        <v>426907.7966163158</v>
+      </c>
+      <c r="G43" t="n">
+        <v>403159.759139061</v>
       </c>
     </row>
     <row r="44">
@@ -7531,16 +8023,19 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>550220.6420327008</v>
+        <v>535150.5360624586</v>
       </c>
       <c r="D44" t="n">
-        <v>531989.6477680848</v>
+        <v>531992.4274423156</v>
       </c>
       <c r="E44" t="n">
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>423220.9174408913</v>
+        <v>433430.2926425934</v>
+      </c>
+      <c r="G44" t="n">
+        <v>423852.5900163651</v>
       </c>
     </row>
     <row r="45">
@@ -7551,16 +8046,19 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>519100.0208104705</v>
+        <v>509095.4838854801</v>
       </c>
       <c r="D45" t="n">
-        <v>504102.1875453966</v>
+        <v>504103.2331323071</v>
       </c>
       <c r="E45" t="n">
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>424266.5795807838</v>
+        <v>443365.7448074818</v>
+      </c>
+      <c r="G45" t="n">
+        <v>417784.2999835014</v>
       </c>
     </row>
     <row r="46">
@@ -7571,16 +8069,19 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>509647.2717211227</v>
+        <v>499114.6266837532</v>
       </c>
       <c r="D46" t="n">
-        <v>494545.6400323637</v>
+        <v>494545.9747458252</v>
       </c>
       <c r="E46" t="n">
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>427182.8392057419</v>
+        <v>433296.506105423</v>
+      </c>
+      <c r="G46" t="n">
+        <v>410417.9236826897</v>
       </c>
     </row>
     <row r="47">
@@ -7591,16 +8092,19 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>566085.9473057663</v>
+        <v>548375.1785541263</v>
       </c>
       <c r="D47" t="n">
-        <v>540331.0508832885</v>
+        <v>540335.5984782289</v>
       </c>
       <c r="E47" t="n">
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>417761.9789032936</v>
+        <v>429760.6090955734</v>
+      </c>
+      <c r="G47" t="n">
+        <v>414198.1630501747</v>
       </c>
     </row>
     <row r="48">
@@ -7611,16 +8115,19 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>553205.2710301855</v>
+        <v>539752.7108876639</v>
       </c>
       <c r="D48" t="n">
-        <v>530019.2105668101</v>
+        <v>530022.687601878</v>
       </c>
       <c r="E48" t="n">
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>430316.6244046688</v>
+        <v>447854.7834296227</v>
+      </c>
+      <c r="G48" t="n">
+        <v>431841.647485733</v>
       </c>
     </row>
     <row r="49">
@@ -7631,16 +8138,19 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>574407.1795717377</v>
+        <v>560721.976597723</v>
       </c>
       <c r="D49" t="n">
-        <v>547559.9006170026</v>
+        <v>547564.830427294</v>
       </c>
       <c r="E49" t="n">
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>426450.4418811798</v>
+        <v>461847.5292475224</v>
+      </c>
+      <c r="G49" t="n">
+        <v>443283.4052114487</v>
       </c>
     </row>
     <row r="50">
@@ -7651,16 +8161,19 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>589510.2655357128</v>
+        <v>573361.1095659024</v>
       </c>
       <c r="D50" t="n">
-        <v>559466.5577785867</v>
+        <v>559473.0500493904</v>
       </c>
       <c r="E50" t="n">
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>434781.1728134155</v>
+        <v>462082.5828170776</v>
+      </c>
+      <c r="G50" t="n">
+        <v>438698.9422221184</v>
       </c>
     </row>
     <row r="51">
@@ -7671,16 +8184,19 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>590270.4166871535</v>
+        <v>572668.5906419194</v>
       </c>
       <c r="D51" t="n">
-        <v>557242.1245085704</v>
+        <v>557248.6415551938</v>
       </c>
       <c r="E51" t="n">
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>428262.7001793385</v>
+        <v>455994.8055715561</v>
+      </c>
+      <c r="G51" t="n">
+        <v>418074.5439982414</v>
       </c>
     </row>
     <row r="52">
@@ -7691,16 +8207,19 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>568993.7180888242</v>
+        <v>554103.2218150762</v>
       </c>
       <c r="D52" t="n">
-        <v>539835.9667655325</v>
+        <v>539840.4013664008</v>
       </c>
       <c r="E52" t="n">
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>444610.6173403263</v>
+        <v>454333.5819180012</v>
+      </c>
+      <c r="G52" t="n">
+        <v>439353.985458374</v>
       </c>
     </row>
     <row r="53">
@@ -7711,16 +8230,19 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>533523.6314980277</v>
+        <v>521494.083304503</v>
       </c>
       <c r="D53" t="n">
-        <v>514877.3441640146</v>
+        <v>514878.594531847</v>
       </c>
       <c r="E53" t="n">
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>454609.8315250874</v>
+        <v>450696.1729736328</v>
+      </c>
+      <c r="G53" t="n">
+        <v>421640.756393671</v>
       </c>
     </row>
     <row r="54">
@@ -7731,16 +8253,19 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>568213.8406020075</v>
+        <v>552604.2948543093</v>
       </c>
       <c r="D54" t="n">
-        <v>541658.4813120329</v>
+        <v>541662.8258477986</v>
       </c>
       <c r="E54" t="n">
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>452551.8314285278</v>
+        <v>451612.8766469955</v>
+      </c>
+      <c r="G54" t="n">
+        <v>437403.4973986149</v>
       </c>
     </row>
     <row r="55">
@@ -7751,16 +8276,19 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>559047.5175909546</v>
+        <v>545861.6257655992</v>
       </c>
       <c r="D55" t="n">
-        <v>534977.5955775863</v>
+        <v>534981.1043074194</v>
       </c>
       <c r="E55" t="n">
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>440642.2931339741</v>
+        <v>455383.1799850464</v>
+      </c>
+      <c r="G55" t="n">
+        <v>443035.5292658806</v>
       </c>
     </row>
     <row r="56">
@@ -7771,16 +8299,19 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>567020.4467197036</v>
+        <v>554654.6082957821</v>
       </c>
       <c r="D56" t="n">
-        <v>541863.1395780526</v>
+        <v>541867.1161479257</v>
       </c>
       <c r="E56" t="n">
-        <v>614602.7683121645</v>
+        <v>614602.7683121646</v>
       </c>
       <c r="F56" t="n">
-        <v>444630.2969760895</v>
+        <v>466209.726057291</v>
+      </c>
+      <c r="G56" t="n">
+        <v>457054.5145981312</v>
       </c>
     </row>
     <row r="57">
@@ -7791,16 +8322,19 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>538992.9385355972</v>
+        <v>528145.0717280768</v>
       </c>
       <c r="D57" t="n">
-        <v>516291.1521900483</v>
+        <v>516293.1033084352</v>
       </c>
       <c r="E57" t="n">
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>461013.2001562119</v>
+        <v>455494.3655538559</v>
+      </c>
+      <c r="G57" t="n">
+        <v>456995.825551033</v>
       </c>
     </row>
     <row r="58">
@@ -7811,16 +8345,19 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>532598.3416379704</v>
+        <v>522537.18794024</v>
       </c>
       <c r="D58" t="n">
-        <v>507528.160259891</v>
+        <v>507529.3102328324</v>
       </c>
       <c r="E58" t="n">
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>471841.0407111645</v>
+        <v>465128.2382338047</v>
+      </c>
+      <c r="G58" t="n">
+        <v>435692.2437376976</v>
       </c>
     </row>
     <row r="59">
@@ -7831,16 +8368,19 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>583664.3238380125</v>
+        <v>569641.4578320942</v>
       </c>
       <c r="D59" t="n">
-        <v>549512.467255535</v>
+        <v>549518.19456457</v>
       </c>
       <c r="E59" t="n">
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>472432.4268856049</v>
+        <v>481541.8591387272</v>
+      </c>
+      <c r="G59" t="n">
+        <v>447007.9118504524</v>
       </c>
     </row>
     <row r="60">
@@ -7851,16 +8391,19 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>572070.817689577</v>
+        <v>559531.3999561215</v>
       </c>
       <c r="D60" t="n">
-        <v>540056.8339584076</v>
+        <v>540061.4185721624</v>
       </c>
       <c r="E60" t="n">
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>476187.6862354279</v>
+        <v>481411.5712034702</v>
+      </c>
+      <c r="G60" t="n">
+        <v>451007.9508831501</v>
       </c>
     </row>
     <row r="61">
@@ -7871,16 +8414,19 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>594565.9204505447</v>
+        <v>578303.651423446</v>
       </c>
       <c r="D61" t="n">
-        <v>556141.3245965317</v>
+        <v>556147.5149501024</v>
       </c>
       <c r="E61" t="n">
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>492000.8945729733</v>
+        <v>479051.3268876076</v>
+      </c>
+      <c r="G61" t="n">
+        <v>454460.5636744499</v>
       </c>
     </row>
     <row r="62">
@@ -7891,16 +8437,19 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>605568.2232848282</v>
+        <v>591434.6244222793</v>
       </c>
       <c r="D62" t="n">
-        <v>567059.5187603674</v>
+        <v>567067.3275559774</v>
       </c>
       <c r="E62" t="n">
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>457745.3310389519</v>
+        <v>488489.1029303074</v>
+      </c>
+      <c r="G62" t="n">
+        <v>474421.6094825268</v>
       </c>
     </row>
     <row r="63">
@@ -7911,16 +8460,19 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>607713.6928231716</v>
+        <v>594037.3560629283</v>
       </c>
       <c r="D63" t="n">
-        <v>565019.809197626</v>
+        <v>565027.6059433514</v>
       </c>
       <c r="E63" t="n">
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>482798.7493691444</v>
+        <v>500779.4465501308</v>
+      </c>
+      <c r="G63" t="n">
+        <v>477655.2622730732</v>
       </c>
     </row>
     <row r="64">
@@ -7931,16 +8483,19 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>586322.5112395756</v>
+        <v>577184.7772395127</v>
       </c>
       <c r="D64" t="n">
-        <v>549058.7906583664</v>
+        <v>549064.4062069372</v>
       </c>
       <c r="E64" t="n">
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>472416.3683028221</v>
+        <v>511687.8424141407</v>
+      </c>
+      <c r="G64" t="n">
+        <v>475357.8703405857</v>
       </c>
     </row>
     <row r="65">
@@ -7951,16 +8506,19 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>556627.0241715813</v>
+        <v>548066.5107561713</v>
       </c>
       <c r="D65" t="n">
-        <v>526172.3243872615</v>
+        <v>526174.6305904535</v>
       </c>
       <c r="E65" t="n">
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>487197.1742017269</v>
+        <v>497999.2125675678</v>
+      </c>
+      <c r="G65" t="n">
+        <v>456846.6451654434</v>
       </c>
     </row>
     <row r="66">
@@ -7971,16 +8529,19 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>584517.4490177771</v>
+        <v>573620.9079028104</v>
       </c>
       <c r="D66" t="n">
-        <v>550730.0466990217</v>
+        <v>550735.6080142081</v>
       </c>
       <c r="E66" t="n">
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>488172.5669221878</v>
+        <v>501967.4842948914</v>
+      </c>
+      <c r="G66" t="n">
+        <v>475884.1125473976</v>
       </c>
     </row>
     <row r="67">
@@ -7991,16 +8552,19 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>577339.1198197863</v>
+        <v>569125.4035042918</v>
       </c>
       <c r="D67" t="n">
-        <v>544603.8428502311</v>
+        <v>544608.5334797063</v>
       </c>
       <c r="E67" t="n">
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>484959.5558829308</v>
+        <v>511028.8457577229</v>
+      </c>
+      <c r="G67" t="n">
+        <v>485687.9997873306</v>
       </c>
     </row>
     <row r="68">
@@ -8011,16 +8575,19 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>585376.5129683763</v>
+        <v>573641.7242366931</v>
       </c>
       <c r="D68" t="n">
-        <v>550917.7458256328</v>
+        <v>550922.9728608044</v>
       </c>
       <c r="E68" t="n">
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>506379.1338427067</v>
+        <v>504792.8677351475</v>
+      </c>
+      <c r="G68" t="n">
+        <v>468235.976341486</v>
       </c>
     </row>
     <row r="69">
@@ -8031,16 +8598,19 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>558734.4513518915</v>
+        <v>555033.6774431582</v>
       </c>
       <c r="D69" t="n">
-        <v>527468.8204826671</v>
+        <v>527471.7912225157</v>
       </c>
       <c r="E69" t="n">
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>504714.3241221905</v>
+        <v>538633.6020402908</v>
+      </c>
+      <c r="G69" t="n">
+        <v>468530.5236365795</v>
       </c>
     </row>
     <row r="70">
@@ -8051,16 +8621,19 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>554364.7064976975</v>
+        <v>552934.6383122671</v>
       </c>
       <c r="D70" t="n">
-        <v>519433.3631066284</v>
+        <v>519435.4624742399</v>
       </c>
       <c r="E70" t="n">
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>504184.2859323025</v>
+        <v>544198.0234255791</v>
+      </c>
+      <c r="G70" t="n">
+        <v>489606.4514234066</v>
       </c>
     </row>
   </sheetData>
@@ -8074,7 +8647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8108,22 +8681,30 @@
           <t>lstm</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>580623.1766918809</v>
+        <v>574862.378356796</v>
       </c>
       <c r="C2" t="n">
-        <v>567597.7512207057</v>
+        <v>567597.758341391</v>
       </c>
       <c r="D2" t="n">
         <v>602686.2626755536</v>
       </c>
       <c r="E2" t="n">
-        <v>538837.6847885847</v>
+        <v>537244.1186179519</v>
+      </c>
+      <c r="F2" t="n">
+        <v>533354.161544621</v>
       </c>
     </row>
     <row r="3">
@@ -8131,16 +8712,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>566092.3689832084</v>
+        <v>562049.114356157</v>
       </c>
       <c r="C3" t="n">
-        <v>559137.6109765585</v>
+        <v>559137.6192011492</v>
       </c>
       <c r="D3" t="n">
         <v>580422.211595117</v>
       </c>
       <c r="E3" t="n">
-        <v>522395.9827752709</v>
+        <v>532425.9760482907</v>
+      </c>
+      <c r="F3" t="n">
+        <v>528995.4689385295</v>
       </c>
     </row>
     <row r="4">
@@ -8148,16 +8732,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>591423.7024488284</v>
+        <v>584557.566253998</v>
       </c>
       <c r="C4" t="n">
-        <v>586003.6385417941</v>
+        <v>586003.6468173779</v>
       </c>
       <c r="D4" t="n">
         <v>605607.626946749</v>
       </c>
       <c r="E4" t="n">
-        <v>532069.6423305869</v>
+        <v>535949.060282886</v>
+      </c>
+      <c r="F4" t="n">
+        <v>540396.0818659067</v>
       </c>
     </row>
     <row r="5">
@@ -8165,16 +8752,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>617928.375549561</v>
+        <v>607917.2509240583</v>
       </c>
       <c r="C5" t="n">
-        <v>611278.4532062508</v>
+        <v>611278.4626222842</v>
       </c>
       <c r="D5" t="n">
         <v>636509.341252004</v>
       </c>
       <c r="E5" t="n">
-        <v>535220.375240624</v>
+        <v>540465.9557740688</v>
+      </c>
+      <c r="F5" t="n">
+        <v>537070.1999070048</v>
       </c>
     </row>
     <row r="6">
@@ -8182,16 +8772,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>620725.6660926383</v>
+        <v>611101.3475789041</v>
       </c>
       <c r="C6" t="n">
-        <v>613413.3564009352</v>
+        <v>613413.3658206322</v>
       </c>
       <c r="D6" t="n">
         <v>640178.4494989081</v>
       </c>
       <c r="E6" t="n">
-        <v>537991.1194454432</v>
+        <v>549460.097375989</v>
+      </c>
+      <c r="F6" t="n">
+        <v>529267.8378968239</v>
       </c>
     </row>
     <row r="7">
@@ -8199,16 +8792,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>575255.3138174571</v>
+        <v>570920.2771873932</v>
       </c>
       <c r="C7" t="n">
-        <v>564553.5379777277</v>
+        <v>564553.5435004764</v>
       </c>
       <c r="D7" t="n">
         <v>594482.0496377712</v>
       </c>
       <c r="E7" t="n">
-        <v>531700.9820197821</v>
+        <v>538182.6575239301</v>
+      </c>
+      <c r="F7" t="n">
+        <v>540918.1165658236</v>
       </c>
     </row>
     <row r="8">
@@ -8216,16 +8812,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>529489.2439633106</v>
+        <v>532841.7208153034</v>
       </c>
       <c r="C8" t="n">
-        <v>529683.5387219149</v>
+        <v>529683.5402103409</v>
       </c>
       <c r="D8" t="n">
         <v>527985.1887606144</v>
       </c>
       <c r="E8" t="n">
-        <v>539968.0171262026</v>
+        <v>553837.3843343854</v>
+      </c>
+      <c r="F8" t="n">
+        <v>543223.8626794815</v>
       </c>
     </row>
     <row r="9">
@@ -8233,16 +8832,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>591666.2709933878</v>
+        <v>585330.3673175547</v>
       </c>
       <c r="C9" t="n">
-        <v>588667.7945361527</v>
+        <v>588667.795209059</v>
       </c>
       <c r="D9" t="n">
         <v>600445.4681529488</v>
       </c>
       <c r="E9" t="n">
-        <v>551009.6035208106</v>
+        <v>547822.0765428543</v>
+      </c>
+      <c r="F9" t="n">
+        <v>536552.8079916835</v>
       </c>
     </row>
     <row r="10">
@@ -8250,16 +8852,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>585538.9572697396</v>
+        <v>580086.3765443196</v>
       </c>
       <c r="C10" t="n">
-        <v>583408.0094640368</v>
+        <v>583408.0101097104</v>
       </c>
       <c r="D10" t="n">
         <v>592851.4776734043</v>
       </c>
       <c r="E10" t="n">
-        <v>547641.9597144723</v>
+        <v>547169.8581628799</v>
+      </c>
+      <c r="F10" t="n">
+        <v>537272.1842508316</v>
       </c>
     </row>
     <row r="11">
@@ -8267,16 +8872,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>593794.9152784644</v>
+        <v>587952.2504640672</v>
       </c>
       <c r="C11" t="n">
-        <v>594694.9810091069</v>
+        <v>594694.9802024941</v>
       </c>
       <c r="D11" t="n">
         <v>597517.3928751803</v>
       </c>
       <c r="E11" t="n">
-        <v>552670.0490035415</v>
+        <v>552396.8907718658</v>
+      </c>
+      <c r="F11" t="n">
+        <v>543457.8125952482</v>
       </c>
     </row>
     <row r="12">
@@ -8284,16 +8892,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>545682.4471998275</v>
+        <v>546239.6975230598</v>
       </c>
       <c r="C12" t="n">
-        <v>541183.7074414761</v>
+        <v>541183.7063887551</v>
       </c>
       <c r="D12" t="n">
         <v>551359.5456701583</v>
       </c>
       <c r="E12" t="n">
-        <v>547549.0808086395</v>
+        <v>550149.7830276489</v>
+      </c>
+      <c r="F12" t="n">
+        <v>545318.5478054285</v>
       </c>
     </row>
     <row r="13">
@@ -8301,16 +8912,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>527717.9512786021</v>
+        <v>531029.0774782907</v>
       </c>
       <c r="C13" t="n">
-        <v>521728.8675261118</v>
+        <v>521728.866295176</v>
       </c>
       <c r="D13" t="n">
         <v>533143.9267627357</v>
       </c>
       <c r="E13" t="n">
-        <v>548084.7885091901</v>
+        <v>554034.354470849</v>
+      </c>
+      <c r="F13" t="n">
+        <v>542453.7175707817</v>
       </c>
     </row>
     <row r="14">
@@ -8318,16 +8932,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>601734.1745202536</v>
+        <v>594839.6225658449</v>
       </c>
       <c r="C14" t="n">
-        <v>591325.9766114871</v>
+        <v>591325.9817241835</v>
       </c>
       <c r="D14" t="n">
         <v>619419.1044056325</v>
       </c>
       <c r="E14" t="n">
-        <v>567883.1541432738</v>
+        <v>557575.6152071357</v>
+      </c>
+      <c r="F14" t="n">
+        <v>538957.5382729173</v>
       </c>
     </row>
     <row r="15">
@@ -8335,16 +8952,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>585505.5120569709</v>
+        <v>581701.323780969</v>
       </c>
       <c r="C15" t="n">
-        <v>578375.334432641</v>
+        <v>578375.3376677106</v>
       </c>
       <c r="D15" t="n">
         <v>597814.2095437858</v>
       </c>
       <c r="E15" t="n">
-        <v>560692.107580781</v>
+        <v>562755.894975245</v>
+      </c>
+      <c r="F15" t="n">
+        <v>539009.6999578476</v>
       </c>
     </row>
     <row r="16">
@@ -8352,16 +8972,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>607492.4323685754</v>
+        <v>602155.0680404652</v>
       </c>
       <c r="C16" t="n">
-        <v>600621.7378011533</v>
+        <v>600621.7422701889</v>
       </c>
       <c r="D16" t="n">
         <v>623734.4912420533</v>
       </c>
       <c r="E16" t="n">
-        <v>546831.6777329445</v>
+        <v>560978.4048928618</v>
+      </c>
+      <c r="F16" t="n">
+        <v>562736.9756280184</v>
       </c>
     </row>
     <row r="17">
@@ -8369,16 +8992,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>631094.5859287975</v>
+        <v>621120.9241350221</v>
       </c>
       <c r="C17" t="n">
-        <v>622579.2434896932</v>
+        <v>622579.2510582452</v>
       </c>
       <c r="D17" t="n">
         <v>651473.0272178927</v>
       </c>
       <c r="E17" t="n">
-        <v>553828.9808942676</v>
+        <v>554216.6766219139</v>
+      </c>
+      <c r="F17" t="n">
+        <v>554286.527316153</v>
       </c>
     </row>
     <row r="18">
@@ -8386,16 +9012,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>634543.3552791002</v>
+        <v>625501.096766611</v>
       </c>
       <c r="C18" t="n">
-        <v>623524.687035834</v>
+        <v>623524.695809538</v>
       </c>
       <c r="D18" t="n">
         <v>656482.533015279</v>
       </c>
       <c r="E18" t="n">
-        <v>571722.8762872815</v>
+        <v>569485.2398236394</v>
+      </c>
+      <c r="F18" t="n">
+        <v>556644.1333337426</v>
       </c>
     </row>
     <row r="19">
@@ -8403,16 +9032,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>590514.2458559799</v>
+        <v>587694.4231791435</v>
       </c>
       <c r="C19" t="n">
-        <v>577009.7209059424</v>
+        <v>577009.7249039919</v>
       </c>
       <c r="D19" t="n">
         <v>610776.604753688</v>
       </c>
       <c r="E19" t="n">
-        <v>569103.3475767374</v>
+        <v>569009.9347506762</v>
+      </c>
+      <c r="F19" t="n">
+        <v>564966.9747110009</v>
       </c>
     </row>
     <row r="20">
@@ -8420,16 +9052,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>548383.2055298254</v>
+        <v>552198.9717856006</v>
       </c>
       <c r="C20" t="n">
-        <v>543887.518020688</v>
+        <v>543887.517512445</v>
       </c>
       <c r="D20" t="n">
         <v>551298.4640300716</v>
       </c>
       <c r="E20" t="n">
-        <v>573382.5789244771</v>
+        <v>577637.89993155</v>
+      </c>
+      <c r="F20" t="n">
+        <v>571092.8968455195</v>
       </c>
     </row>
     <row r="21">
@@ -8437,16 +9072,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>604790.200435069</v>
+        <v>599953.9979236932</v>
       </c>
       <c r="C21" t="n">
-        <v>599054.6614166819</v>
+        <v>599054.6632677552</v>
       </c>
       <c r="D21" t="n">
         <v>616576.5087140256</v>
       </c>
       <c r="E21" t="n">
-        <v>569017.5721313357</v>
+        <v>565568.1224604249</v>
+      </c>
+      <c r="F21" t="n">
+        <v>574912.306806922</v>
       </c>
     </row>
     <row r="22">
@@ -8454,16 +9092,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>597913.2733349167</v>
+        <v>595759.7693469682</v>
       </c>
       <c r="C22" t="n">
-        <v>593981.6504537372</v>
+        <v>593981.6524699468</v>
       </c>
       <c r="D22" t="n">
         <v>606885.9353365311</v>
       </c>
       <c r="E22" t="n">
-        <v>565898.433370471</v>
+        <v>579352.4570687413</v>
+      </c>
+      <c r="F22" t="n">
+        <v>571073.931070447</v>
       </c>
     </row>
     <row r="23">
@@ -8471,16 +9112,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>607567.5357632863</v>
+        <v>603039.2119738732</v>
       </c>
       <c r="C23" t="n">
-        <v>604501.4747514646</v>
+        <v>604501.4761801459</v>
       </c>
       <c r="D23" t="n">
         <v>615356.1129595938</v>
       </c>
       <c r="E23" t="n">
-        <v>575963.6189507246</v>
+        <v>573204.7138466239</v>
+      </c>
+      <c r="F23" t="n">
+        <v>574817.617215097</v>
       </c>
     </row>
     <row r="24">
@@ -8488,16 +9132,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>560896.564498973</v>
+        <v>562838.5407360478</v>
       </c>
       <c r="C24" t="n">
-        <v>554202.2761356608</v>
+        <v>554202.2752252378</v>
       </c>
       <c r="D24" t="n">
         <v>567722.9101940858</v>
       </c>
       <c r="E24" t="n">
-        <v>577274.3466838002</v>
+        <v>578460.8102871776</v>
+      </c>
+      <c r="F24" t="n">
+        <v>566360.2279402614</v>
       </c>
     </row>
     <row r="25">
@@ -8505,16 +9152,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>544395.0282522389</v>
+        <v>548003.4371979428</v>
       </c>
       <c r="C25" t="n">
-        <v>535904.2089833217</v>
+        <v>535904.2071997051</v>
       </c>
       <c r="D25" t="n">
         <v>551901.5242830559</v>
       </c>
       <c r="E25" t="n">
-        <v>574829.5491715074</v>
+        <v>571824.7621952295</v>
+      </c>
+      <c r="F25" t="n">
+        <v>572248.5555731058</v>
       </c>
     </row>
     <row r="26">
@@ -8522,16 +9172,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>614802.9443193651</v>
+        <v>608573.2164096246</v>
       </c>
       <c r="C26" t="n">
-        <v>601245.1056104415</v>
+        <v>601245.1128701341</v>
       </c>
       <c r="D26" t="n">
         <v>636113.5735861117</v>
       </c>
       <c r="E26" t="n">
-        <v>585185.6052066684</v>
+        <v>572696.3521473408</v>
+      </c>
+      <c r="F26" t="n">
+        <v>564713.4786720872</v>
       </c>
     </row>
     <row r="27">
@@ -8539,16 +9192,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>599761.9798249501</v>
+        <v>597040.6599300919</v>
       </c>
       <c r="C27" t="n">
-        <v>589073.2820333408</v>
+        <v>589073.2870292448</v>
       </c>
       <c r="D27" t="n">
         <v>615210.3708068638</v>
       </c>
       <c r="E27" t="n">
-        <v>587756.5471764207</v>
+        <v>580217.1524857283</v>
+      </c>
+      <c r="F27" t="n">
+        <v>580951.6410087347</v>
       </c>
     </row>
     <row r="28">
@@ -8556,16 +9212,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>621925.7144933789</v>
+        <v>616184.2172472894</v>
       </c>
       <c r="C28" t="n">
-        <v>609958.6081479054</v>
+        <v>609958.6152983853</v>
       </c>
       <c r="D28" t="n">
         <v>641818.2372142585</v>
       </c>
       <c r="E28" t="n">
-        <v>586705.3975300789</v>
+        <v>580200.6706004143</v>
+      </c>
+      <c r="F28" t="n">
+        <v>576988.9547147155</v>
       </c>
     </row>
     <row r="29">
@@ -8573,16 +9232,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>643112.1499047719</v>
+        <v>635389.6258604492</v>
       </c>
       <c r="C29" t="n">
-        <v>630575.0523559012</v>
+        <v>630575.0633871934</v>
       </c>
       <c r="D29" t="n">
         <v>666403.3454424358</v>
       </c>
       <c r="E29" t="n">
-        <v>585653.6675356627</v>
+        <v>587255.1728679538</v>
+      </c>
+      <c r="F29" t="n">
+        <v>572593.9091052413</v>
       </c>
     </row>
     <row r="30">
@@ -8590,16 +9252,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>646184.6259656055</v>
+        <v>639442.0281188426</v>
       </c>
       <c r="C30" t="n">
-        <v>631460.7808672757</v>
+        <v>631460.793086505</v>
       </c>
       <c r="D30" t="n">
         <v>672819.9574355934</v>
       </c>
       <c r="E30" t="n">
-        <v>584729.7534011602</v>
+        <v>588628.7174766064</v>
+      </c>
+      <c r="F30" t="n">
+        <v>599528.7685828209</v>
       </c>
     </row>
     <row r="31">
@@ -8607,16 +9272,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>604464.0782763908</v>
+        <v>601461.5850345347</v>
       </c>
       <c r="C31" t="n">
-        <v>587777.9090706997</v>
+        <v>587777.9148110269</v>
       </c>
       <c r="D31" t="n">
         <v>627176.7671117317</v>
       </c>
       <c r="E31" t="n">
-        <v>597497.8985311389</v>
+        <v>583728.1422664523</v>
+      </c>
+      <c r="F31" t="n">
+        <v>585992.9158060551</v>
       </c>
     </row>
     <row r="32">
@@ -8624,16 +9292,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>566154.166349405</v>
+        <v>569889.9307040606</v>
       </c>
       <c r="C32" t="n">
-        <v>556672.5204154879</v>
+        <v>556672.5205032746</v>
       </c>
       <c r="D32" t="n">
         <v>574636.9453647494</v>
       </c>
       <c r="E32" t="n">
-        <v>599298.7186061144</v>
+        <v>595918.6321370602</v>
+      </c>
+      <c r="F32" t="n">
+        <v>592139.0108396411</v>
       </c>
     </row>
     <row r="33">
@@ -8641,16 +9312,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>617409.6921761183</v>
+        <v>614393.6338960178</v>
       </c>
       <c r="C33" t="n">
-        <v>608478.8240227761</v>
+        <v>608478.8287069208</v>
       </c>
       <c r="D33" t="n">
         <v>632568.3248061528</v>
       </c>
       <c r="E33" t="n">
-        <v>588498.6266522408</v>
+        <v>594505.9488542676</v>
+      </c>
+      <c r="F33" t="n">
+        <v>585356.3203962445</v>
       </c>
     </row>
     <row r="34">
@@ -8658,16 +9332,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>610339.0104626341</v>
+        <v>608305.7527298698</v>
       </c>
       <c r="C34" t="n">
-        <v>603714.5567553629</v>
+        <v>603714.5613785295</v>
       </c>
       <c r="D34" t="n">
         <v>620908.6794797002</v>
       </c>
       <c r="E34" t="n">
-        <v>594549.6142433882</v>
+        <v>595089.2218829989</v>
+      </c>
+      <c r="F34" t="n">
+        <v>591743.9562984109</v>
       </c>
     </row>
     <row r="35">
@@ -8675,16 +9352,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>620898.2728228684</v>
+        <v>618797.4735719888</v>
       </c>
       <c r="C35" t="n">
-        <v>613593.4284415703</v>
+        <v>613593.4329678018</v>
       </c>
       <c r="D35" t="n">
         <v>633222.4200233145</v>
       </c>
       <c r="E35" t="n">
-        <v>597876.610470593</v>
+        <v>602056.6022976041</v>
+      </c>
+      <c r="F35" t="n">
+        <v>604375.1857106686</v>
       </c>
     </row>
     <row r="36">
@@ -8692,16 +9372,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>575162.6457610737</v>
+        <v>578540.8549923018</v>
       </c>
       <c r="C36" t="n">
-        <v>566358.0040497578</v>
+        <v>566358.0042133005</v>
       </c>
       <c r="D36" t="n">
         <v>584129.6342546437</v>
       </c>
       <c r="E36" t="n">
-        <v>596798.6023153663</v>
+        <v>601218.2546831965</v>
+      </c>
+      <c r="F36" t="n">
+        <v>592723.1195695996</v>
       </c>
     </row>
     <row r="37">
@@ -8709,16 +9392,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>560690.5994567025</v>
+        <v>566668.0379928763</v>
       </c>
       <c r="C37" t="n">
-        <v>549174.4682710741</v>
+        <v>549174.4668268898</v>
       </c>
       <c r="D37" t="n">
         <v>570700.9080906152</v>
       </c>
       <c r="E37" t="n">
-        <v>603401.5705670714</v>
+        <v>602789.60512954</v>
+      </c>
+      <c r="F37" t="n">
+        <v>610258.3134247661</v>
       </c>
     </row>
     <row r="38">
@@ -8726,16 +9412,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>627375.7535946321</v>
+        <v>624309.7047324739</v>
       </c>
       <c r="C38" t="n">
-        <v>610535.228417561</v>
+        <v>610535.2382813192</v>
       </c>
       <c r="D38" t="n">
         <v>652769.2824203734</v>
       </c>
       <c r="E38" t="n">
-        <v>599620.6028621197</v>
+        <v>604713.435782373</v>
+      </c>
+      <c r="F38" t="n">
+        <v>592031.1125256419</v>
       </c>
     </row>
     <row r="39">
@@ -8743,16 +9432,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>613043.6062192526</v>
+        <v>612038.0448833917</v>
       </c>
       <c r="C39" t="n">
-        <v>599104.8056120734</v>
+        <v>599104.8128257752</v>
       </c>
       <c r="D39" t="n">
         <v>632610.2746277921</v>
       </c>
       <c r="E39" t="n">
-        <v>602245.1922078729</v>
+        <v>604458.15227139</v>
+      </c>
+      <c r="F39" t="n">
+        <v>600655.2241953015</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/no_covid_series_HOU-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Dom_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>533354.161544621</v>
+        <v>543291.7634041905</v>
       </c>
       <c r="C2" t="n">
-        <v>537244.1186179519</v>
+        <v>545423.8693739772</v>
       </c>
       <c r="D2" t="n">
-        <v>567597.758341391</v>
+        <v>567597.7512207057</v>
       </c>
       <c r="E2" t="n">
         <v>602686.2626755536</v>
       </c>
       <c r="F2" t="n">
-        <v>574862.378356796</v>
+        <v>576806.5010037232</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>528995.4689385295</v>
+        <v>529838.6218349934</v>
       </c>
       <c r="C3" t="n">
-        <v>532425.9760482907</v>
+        <v>532332.5400083065</v>
       </c>
       <c r="D3" t="n">
-        <v>559137.6192011492</v>
+        <v>559137.6109765585</v>
       </c>
       <c r="E3" t="n">
         <v>580422.211595117</v>
       </c>
       <c r="F3" t="n">
-        <v>562049.114356157</v>
+        <v>562544.9073001784</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>540396.0818659067</v>
+        <v>545883.6443324685</v>
       </c>
       <c r="C4" t="n">
-        <v>535949.060282886</v>
+        <v>539627.4224482775</v>
       </c>
       <c r="D4" t="n">
-        <v>586003.6468173779</v>
+        <v>586003.6385417941</v>
       </c>
       <c r="E4" t="n">
         <v>605607.626946749</v>
       </c>
       <c r="F4" t="n">
-        <v>584557.566253998</v>
+        <v>586057.2359880426</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>537070.1999070048</v>
+        <v>541001.8723999262</v>
       </c>
       <c r="C5" t="n">
-        <v>540465.9557740688</v>
+        <v>543595.2390192747</v>
       </c>
       <c r="D5" t="n">
-        <v>611278.4626222842</v>
+        <v>611278.4532062508</v>
       </c>
       <c r="E5" t="n">
         <v>636509.341252004</v>
       </c>
       <c r="F5" t="n">
-        <v>607917.2509240583</v>
+        <v>609614.3105974013</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>529267.8378968239</v>
+        <v>546038.4579848051</v>
       </c>
       <c r="C6" t="n">
-        <v>549460.097375989</v>
+        <v>547710.185434103</v>
       </c>
       <c r="D6" t="n">
-        <v>613413.3658206322</v>
+        <v>613413.3564009352</v>
       </c>
       <c r="E6" t="n">
         <v>640178.4494989081</v>
       </c>
       <c r="F6" t="n">
-        <v>611101.3475789041</v>
+        <v>612665.4374112234</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>540918.1165658236</v>
+        <v>557616.6574229598</v>
       </c>
       <c r="C7" t="n">
-        <v>538182.6575239301</v>
+        <v>560568.8880776167</v>
       </c>
       <c r="D7" t="n">
-        <v>564553.5435004764</v>
+        <v>564553.5379777277</v>
       </c>
       <c r="E7" t="n">
         <v>594482.0496377712</v>
       </c>
       <c r="F7" t="n">
-        <v>570920.2771873932</v>
+        <v>574736.6575146563</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>543223.8626794815</v>
+        <v>557046.8020417094</v>
       </c>
       <c r="C8" t="n">
-        <v>553837.3843343854</v>
+        <v>559571.5483047366</v>
       </c>
       <c r="D8" t="n">
-        <v>529683.5402103409</v>
+        <v>529683.5387219149</v>
       </c>
       <c r="E8" t="n">
         <v>527985.1887606144</v>
       </c>
       <c r="F8" t="n">
-        <v>532841.7208153034</v>
+        <v>533713.4371729933</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>536552.8079916835</v>
+        <v>553058.4179349542</v>
       </c>
       <c r="C9" t="n">
-        <v>547822.0765428543</v>
+        <v>549277.3573743105</v>
       </c>
       <c r="D9" t="n">
-        <v>588667.795209059</v>
+        <v>588667.7945361527</v>
       </c>
       <c r="E9" t="n">
         <v>600445.4681529488</v>
       </c>
       <c r="F9" t="n">
-        <v>585330.3673175547</v>
+        <v>586864.8990289646</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>537272.1842508316</v>
+        <v>560266.3410194516</v>
       </c>
       <c r="C10" t="n">
-        <v>547169.8581628799</v>
+        <v>552734.2355005741</v>
       </c>
       <c r="D10" t="n">
-        <v>583408.0101097104</v>
+        <v>583408.0094640368</v>
       </c>
       <c r="E10" t="n">
         <v>592851.4776734043</v>
       </c>
       <c r="F10" t="n">
-        <v>580086.3765443196</v>
+        <v>582301.6890799581</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>543457.8125952482</v>
+        <v>555577.5232146978</v>
       </c>
       <c r="C11" t="n">
-        <v>552396.8907718658</v>
+        <v>560866.1655752659</v>
       </c>
       <c r="D11" t="n">
-        <v>594694.9802024941</v>
+        <v>594694.9810091069</v>
       </c>
       <c r="E11" t="n">
         <v>597517.3928751803</v>
       </c>
       <c r="F11" t="n">
-        <v>587952.2504640672</v>
+        <v>590111.1288453082</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>545318.5478054285</v>
+        <v>568557.8436006904</v>
       </c>
       <c r="C12" t="n">
-        <v>550149.7830276489</v>
+        <v>567272.3029740453</v>
       </c>
       <c r="D12" t="n">
-        <v>541183.7063887551</v>
+        <v>541183.7074414761</v>
       </c>
       <c r="E12" t="n">
         <v>551359.5456701583</v>
       </c>
       <c r="F12" t="n">
-        <v>546239.6975230598</v>
+        <v>549115.5786432379</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>542453.7175707817</v>
+        <v>563300.2382551432</v>
       </c>
       <c r="C13" t="n">
-        <v>554034.354470849</v>
+        <v>560872.1547673941</v>
       </c>
       <c r="D13" t="n">
-        <v>521728.866295176</v>
+        <v>521728.8675261118</v>
       </c>
       <c r="E13" t="n">
         <v>533143.9267627357</v>
       </c>
       <c r="F13" t="n">
-        <v>531029.0774782907</v>
+        <v>532242.3971317213</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>538957.5382729173</v>
+        <v>557286.8340052962</v>
       </c>
       <c r="C14" t="n">
-        <v>557575.6152071357</v>
+        <v>562469.6673049331</v>
       </c>
       <c r="D14" t="n">
-        <v>591325.9817241835</v>
+        <v>591325.9766114871</v>
       </c>
       <c r="E14" t="n">
         <v>619419.1044056325</v>
       </c>
       <c r="F14" t="n">
-        <v>594839.6225658449</v>
+        <v>596780.429006236</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>539009.6999578476</v>
+        <v>555759.543584764</v>
       </c>
       <c r="C15" t="n">
-        <v>562755.894975245</v>
+        <v>562088.9821820259</v>
       </c>
       <c r="D15" t="n">
-        <v>578375.3376677106</v>
+        <v>578375.334432641</v>
       </c>
       <c r="E15" t="n">
         <v>597814.2095437858</v>
       </c>
       <c r="F15" t="n">
-        <v>581701.323780969</v>
+        <v>582617.2289531195</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>562736.9756280184</v>
+        <v>562671.3498677611</v>
       </c>
       <c r="C16" t="n">
-        <v>560978.4048928618</v>
+        <v>558093.2856895328</v>
       </c>
       <c r="D16" t="n">
-        <v>600621.7422701889</v>
+        <v>600621.7378011533</v>
       </c>
       <c r="E16" t="n">
         <v>623734.4912420533</v>
       </c>
       <c r="F16" t="n">
-        <v>602155.0680404652</v>
+        <v>602498.8665527719</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>554286.527316153</v>
+        <v>568215.6703760028</v>
       </c>
       <c r="C17" t="n">
-        <v>554216.6766219139</v>
+        <v>563868.8865123987</v>
       </c>
       <c r="D17" t="n">
-        <v>622579.2510582452</v>
+        <v>622579.2434896932</v>
       </c>
       <c r="E17" t="n">
         <v>651473.0272178927</v>
       </c>
       <c r="F17" t="n">
-        <v>621120.9241350221</v>
+        <v>623983.40831676</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>556644.1333337426</v>
+        <v>570394.2970474362</v>
       </c>
       <c r="C18" t="n">
-        <v>569485.2398236394</v>
+        <v>568286.8442638516</v>
       </c>
       <c r="D18" t="n">
-        <v>623524.695809538</v>
+        <v>623524.687035834</v>
       </c>
       <c r="E18" t="n">
         <v>656482.533015279</v>
       </c>
       <c r="F18" t="n">
-        <v>625501.096766611</v>
+        <v>626871.4650286532</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>564966.9747110009</v>
+        <v>551729.3512027264</v>
       </c>
       <c r="C19" t="n">
-        <v>569009.9347506762</v>
+        <v>579802.1803985834</v>
       </c>
       <c r="D19" t="n">
-        <v>577009.7249039919</v>
+        <v>577009.7209059424</v>
       </c>
       <c r="E19" t="n">
         <v>610776.604753688</v>
       </c>
       <c r="F19" t="n">
-        <v>587694.4231791435</v>
+        <v>588591.1053699944</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>571092.8968455195</v>
+        <v>571874.672129631</v>
       </c>
       <c r="C20" t="n">
-        <v>577637.89993155</v>
+        <v>578561.3033597469</v>
       </c>
       <c r="D20" t="n">
-        <v>543887.517512445</v>
+        <v>543887.518020688</v>
       </c>
       <c r="E20" t="n">
         <v>551298.4640300716</v>
       </c>
       <c r="F20" t="n">
-        <v>552198.9717856006</v>
+        <v>551831.2610420772</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>574912.306806922</v>
+        <v>571331.8377547264</v>
       </c>
       <c r="C21" t="n">
-        <v>565568.1224604249</v>
+        <v>585451.4974804521</v>
       </c>
       <c r="D21" t="n">
-        <v>599054.6632677552</v>
+        <v>599054.6614166819</v>
       </c>
       <c r="E21" t="n">
         <v>616576.5087140256</v>
       </c>
       <c r="F21" t="n">
-        <v>599953.9979236932</v>
+        <v>602686.3927082673</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>571073.931070447</v>
+        <v>564360.0931226015</v>
       </c>
       <c r="C22" t="n">
-        <v>579352.4570687413</v>
+        <v>584444.0596510768</v>
       </c>
       <c r="D22" t="n">
-        <v>593981.6524699468</v>
+        <v>593981.6504537372</v>
       </c>
       <c r="E22" t="n">
         <v>606885.9353365311</v>
       </c>
       <c r="F22" t="n">
-        <v>595759.7693469682</v>
+        <v>596314.6132043819</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>574817.617215097</v>
+        <v>581868.9856030345</v>
       </c>
       <c r="C23" t="n">
-        <v>573204.7138466239</v>
+        <v>582044.6685721278</v>
       </c>
       <c r="D23" t="n">
-        <v>604501.4761801459</v>
+        <v>604501.4747514646</v>
       </c>
       <c r="E23" t="n">
         <v>615356.1129595938</v>
       </c>
       <c r="F23" t="n">
-        <v>603039.2119738732</v>
+        <v>604887.0352375187</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>566360.2279402614</v>
+        <v>583569.8465256691</v>
       </c>
       <c r="C24" t="n">
-        <v>578460.8102871776</v>
+        <v>575287.1884490848</v>
       </c>
       <c r="D24" t="n">
-        <v>554202.2752252378</v>
+        <v>554202.2761356608</v>
       </c>
       <c r="E24" t="n">
         <v>567722.9101940858</v>
       </c>
       <c r="F24" t="n">
-        <v>562838.5407360478</v>
+        <v>562862.6454029677</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>572248.5555731058</v>
+        <v>582115.2621119022</v>
       </c>
       <c r="C25" t="n">
-        <v>571824.7621952295</v>
+        <v>586964.9988307357</v>
       </c>
       <c r="D25" t="n">
-        <v>535904.2071997051</v>
+        <v>535904.2089833217</v>
       </c>
       <c r="E25" t="n">
         <v>551901.5242830559</v>
       </c>
       <c r="F25" t="n">
-        <v>548003.4371979428</v>
+        <v>549677.2471191795</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>564713.4786720872</v>
+        <v>570227.9925032258</v>
       </c>
       <c r="C26" t="n">
-        <v>572696.3521473408</v>
+        <v>589520.3178303242</v>
       </c>
       <c r="D26" t="n">
-        <v>601245.1128701341</v>
+        <v>601245.1056104415</v>
       </c>
       <c r="E26" t="n">
         <v>636113.5735861117</v>
       </c>
       <c r="F26" t="n">
-        <v>608573.2164096246</v>
+        <v>611296.4804261279</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>580951.6410087347</v>
+        <v>584709.7197856307</v>
       </c>
       <c r="C27" t="n">
-        <v>580217.1524857283</v>
+        <v>580403.4906454682</v>
       </c>
       <c r="D27" t="n">
-        <v>589073.2870292448</v>
+        <v>589073.2820333408</v>
       </c>
       <c r="E27" t="n">
         <v>615210.3708068638</v>
       </c>
       <c r="F27" t="n">
-        <v>597040.6599300919</v>
+        <v>597437.1168583407</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>576988.9547147155</v>
+        <v>592362.2591369152</v>
       </c>
       <c r="C28" t="n">
-        <v>580200.6706004143</v>
+        <v>588701.7716922164</v>
       </c>
       <c r="D28" t="n">
-        <v>609958.6152983853</v>
+        <v>609958.6081479054</v>
       </c>
       <c r="E28" t="n">
         <v>641818.2372142585</v>
       </c>
       <c r="F28" t="n">
-        <v>616184.2172472894</v>
+        <v>618382.7161763482</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>572593.9091052413</v>
+        <v>598030.1705710888</v>
       </c>
       <c r="C29" t="n">
-        <v>587255.1728679538</v>
+        <v>592397.3818023801</v>
       </c>
       <c r="D29" t="n">
-        <v>630575.0633871934</v>
+        <v>630575.0523559012</v>
       </c>
       <c r="E29" t="n">
         <v>666403.3454424358</v>
       </c>
       <c r="F29" t="n">
-        <v>635389.6258604492</v>
+        <v>637840.8687098051</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>599528.7685828209</v>
+        <v>593587.8846283555</v>
       </c>
       <c r="C30" t="n">
-        <v>588628.7174766064</v>
+        <v>601882.4050195813</v>
       </c>
       <c r="D30" t="n">
-        <v>631460.793086505</v>
+        <v>631460.7808672757</v>
       </c>
       <c r="E30" t="n">
         <v>672819.9574355934</v>
       </c>
       <c r="F30" t="n">
-        <v>639442.0281188426</v>
+        <v>641517.4119866419</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>585992.9158060551</v>
+        <v>596639.1923062801</v>
       </c>
       <c r="C31" t="n">
-        <v>583728.1422664523</v>
+        <v>598130.3154348135</v>
       </c>
       <c r="D31" t="n">
-        <v>587777.9148110269</v>
+        <v>587777.9090706997</v>
       </c>
       <c r="E31" t="n">
         <v>627176.7671117317</v>
       </c>
       <c r="F31" t="n">
-        <v>601461.5850345347</v>
+        <v>603770.8970931694</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>592139.0108396411</v>
+        <v>592577.4057750702</v>
       </c>
       <c r="C32" t="n">
-        <v>595918.6321370602</v>
+        <v>606425.7643829584</v>
       </c>
       <c r="D32" t="n">
-        <v>556672.5205032746</v>
+        <v>556672.5204154879</v>
       </c>
       <c r="E32" t="n">
         <v>574636.9453647494</v>
       </c>
       <c r="F32" t="n">
-        <v>569889.9307040606</v>
+        <v>570568.11330175</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>585356.3203962445</v>
+        <v>596650.636770308</v>
       </c>
       <c r="C33" t="n">
-        <v>594505.9488542676</v>
+        <v>603207.478957057</v>
       </c>
       <c r="D33" t="n">
-        <v>608478.8287069208</v>
+        <v>608478.8240227761</v>
       </c>
       <c r="E33" t="n">
         <v>632568.3248061528</v>
       </c>
       <c r="F33" t="n">
-        <v>614393.6338960178</v>
+        <v>616165.9634224436</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>591743.9562984109</v>
+        <v>590766.7429967523</v>
       </c>
       <c r="C34" t="n">
-        <v>595089.2218829989</v>
+        <v>608802.2897477746</v>
       </c>
       <c r="D34" t="n">
-        <v>603714.5613785295</v>
+        <v>603714.5567553629</v>
       </c>
       <c r="E34" t="n">
         <v>620908.6794797002</v>
       </c>
       <c r="F34" t="n">
-        <v>608305.7527298698</v>
+        <v>610034.0869552732</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>604375.1857106686</v>
+        <v>618715.2152072191</v>
       </c>
       <c r="C35" t="n">
-        <v>602056.6022976041</v>
+        <v>602793.690779984</v>
       </c>
       <c r="D35" t="n">
-        <v>613593.4329678018</v>
+        <v>613593.4284415703</v>
       </c>
       <c r="E35" t="n">
         <v>633222.4200233145</v>
       </c>
       <c r="F35" t="n">
-        <v>618797.4735719888</v>
+        <v>619739.5509850922</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>592723.1195695996</v>
+        <v>604581.4878441691</v>
       </c>
       <c r="C36" t="n">
-        <v>601218.2546831965</v>
+        <v>601257.0451484919</v>
       </c>
       <c r="D36" t="n">
-        <v>566358.0042133005</v>
+        <v>566358.0040497578</v>
       </c>
       <c r="E36" t="n">
         <v>584129.6342546437</v>
       </c>
       <c r="F36" t="n">
-        <v>578540.8549923018</v>
+        <v>578558.9674457152</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>610258.3134247661</v>
+        <v>607937.3389776349</v>
       </c>
       <c r="C37" t="n">
-        <v>602789.60512954</v>
+        <v>610926.7119090557</v>
       </c>
       <c r="D37" t="n">
-        <v>549174.4668268898</v>
+        <v>549174.4682710741</v>
       </c>
       <c r="E37" t="n">
         <v>570700.9080906152</v>
       </c>
       <c r="F37" t="n">
-        <v>566668.0379928763</v>
+        <v>566752.6574001781</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>592031.1125256419</v>
+        <v>587933.7854783535</v>
       </c>
       <c r="C38" t="n">
-        <v>604713.435782373</v>
+        <v>615508.2581757307</v>
       </c>
       <c r="D38" t="n">
-        <v>610535.2382813192</v>
+        <v>610535.228417561</v>
       </c>
       <c r="E38" t="n">
         <v>652769.2824203734</v>
       </c>
       <c r="F38" t="n">
-        <v>624309.7047324739</v>
+        <v>625581.9618580708</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>600655.2241953015</v>
+        <v>599125.7748799324</v>
       </c>
       <c r="C39" t="n">
-        <v>604458.15227139</v>
+        <v>607500.8940117359</v>
       </c>
       <c r="D39" t="n">
-        <v>599104.8128257752</v>
+        <v>599104.8056120734</v>
       </c>
       <c r="E39" t="n">
         <v>632610.2746277921</v>
       </c>
       <c r="F39" t="n">
-        <v>612038.0448833917</v>
+        <v>612333.6636113646</v>
       </c>
     </row>
   </sheetData>
@@ -1385,19 +1452,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>32382.46432824216</v>
+        <v>31580.70184781211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04868549904022722</v>
+        <v>0.04716082615302049</v>
       </c>
       <c r="M2" t="n">
-        <v>25406.08331742392</v>
+        <v>24510.50514825035</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6228265849333228</v>
+        <v>0.6412723623879265</v>
       </c>
       <c r="O2" t="n">
-        <v>552934.6383122671</v>
+        <v>549136.3907002175</v>
       </c>
       <c r="P2" t="n">
         <v>483544</v>
@@ -1406,19 +1473,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>35233.37120717215</v>
+        <v>41790.46646009292</v>
       </c>
       <c r="S2" t="n">
-        <v>21163.25421396169</v>
+        <v>20802.47603549185</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03686747537149199</v>
+        <v>0.03590646789577915</v>
       </c>
       <c r="U2" t="n">
-        <v>15734.17805708752</v>
+        <v>15240.720463643</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9409219550771291</v>
+        <v>0.9429190387608813</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1431,20 +1498,20 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>(0.4624057329635104, 0.3628561492566948, 0.1327012329649302, 0.04203688481486458)</t>
+          <t>(0.4750257291688496, 0.3657119311459828, 0.11607818248799938, 0.043184157197168144)</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>32382.46432824216</v>
+        <v>31580.70184781211</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04868549904022722</v>
+        <v>0.04716082615302049</v>
       </c>
       <c r="AE2" t="n">
-        <v>25406.08331742392</v>
+        <v>24510.50514825035</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6228265849333228</v>
+        <v>0.6412723623879265</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1484,19 +1551,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>33319.69589732465</v>
+        <v>33321.70776124581</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04970585358347717</v>
+        <v>0.04970898323942836</v>
       </c>
       <c r="M3" t="n">
-        <v>26353.85075341733</v>
+        <v>26355.68700509302</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6006779053648086</v>
+        <v>0.6006296812770537</v>
       </c>
       <c r="O3" t="n">
-        <v>519435.4624742399</v>
+        <v>519433.3631066284</v>
       </c>
       <c r="P3" t="n">
         <v>483544</v>
@@ -1505,19 +1572,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>77826.32105141992</v>
+        <v>81494.98267611302</v>
       </c>
       <c r="S3" t="n">
-        <v>37361.47529024097</v>
+        <v>37361.47525518186</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05740077167455349</v>
+        <v>0.0574007716140293</v>
       </c>
       <c r="U3" t="n">
-        <v>21834.8056877053</v>
+        <v>21834.80587199015</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8254536652813254</v>
+        <v>0.8254536656089055</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1528,16 +1595,16 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>33319.69589732465</v>
+        <v>33321.70776124581</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04970585358347717</v>
+        <v>0.04970898323942836</v>
       </c>
       <c r="AE3" t="n">
-        <v>26353.85075341733</v>
+        <v>26355.68700509302</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6006779053648086</v>
+        <v>0.6006296812770537</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1598,10 +1665,10 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>48163.32524615815</v>
+        <v>36949.3914265682</v>
       </c>
       <c r="S4" t="n">
-        <v>20469.49949000401</v>
+        <v>20469.499490004</v>
       </c>
       <c r="T4" t="n">
         <v>0.03828858451786529</v>
@@ -1610,7 +1677,7 @@
         <v>15420.68337222628</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9476065318644354</v>
+        <v>0.9476065318644356</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1674,19 +1741,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>104669.3164270139</v>
+        <v>103538.2401819803</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1733587630860489</v>
+        <v>0.1722943165204444</v>
       </c>
       <c r="M5" t="n">
-        <v>94579.49107849425</v>
+        <v>93806.12610097899</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.940579178510053</v>
+        <v>-2.855874060577442</v>
       </c>
       <c r="O5" t="n">
-        <v>544198.0234255791</v>
+        <v>516545.5811989307</v>
       </c>
       <c r="P5" t="n">
         <v>483544</v>
@@ -1695,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>66916.36254355003</v>
+        <v>82583.60960442312</v>
       </c>
       <c r="S5" t="n">
-        <v>42163.96798933207</v>
+        <v>41530.19938916712</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08043988777361313</v>
+        <v>0.07906406398198094</v>
       </c>
       <c r="U5" t="n">
-        <v>34205.47764987742</v>
+        <v>33292.95088040767</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7654992872115007</v>
+        <v>0.7724958885507235</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1718,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>104669.3164270139</v>
+        <v>103538.2401819803</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1733587630860489</v>
+        <v>0.1722943165204444</v>
       </c>
       <c r="AE5" t="n">
-        <v>94579.49107849425</v>
+        <v>93806.12610097899</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2.940579178510053</v>
+        <v>-2.855874060577442</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1771,19 +1838,19 @@
         <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>122046.6404458411</v>
+        <v>116213.9119782315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2073616670104964</v>
+        <v>0.1971885899793361</v>
       </c>
       <c r="M6" t="n">
-        <v>112767.7495919777</v>
+        <v>107048.0139576076</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.357632751838165</v>
+        <v>-3.857776433665328</v>
       </c>
       <c r="O6" t="n">
-        <v>489606.4514234066</v>
+        <v>480593.685541153</v>
       </c>
       <c r="P6" t="n">
         <v>483544</v>
@@ -1792,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>62993.52839779433</v>
+        <v>85594.89700556837</v>
       </c>
       <c r="S6" t="n">
-        <v>42407.82438654864</v>
+        <v>42339.2597775386</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08169332993179451</v>
+        <v>0.08047508273973604</v>
       </c>
       <c r="U6" t="n">
-        <v>34817.64127082319</v>
+        <v>32720.38438676691</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7627789615062566</v>
+        <v>0.7635454153132016</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1815,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>122046.6404458411</v>
+        <v>116213.9119782315</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2073616670104964</v>
+        <v>0.1971885899793361</v>
       </c>
       <c r="AE6" t="n">
-        <v>112767.7495919777</v>
+        <v>107048.0139576076</v>
       </c>
       <c r="AF6" t="n">
-        <v>-4.357632751838165</v>
+        <v>-3.857776433665328</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -4861,7 +4928,7 @@
         <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>574862.378356796</v>
+        <v>576806.5010037232</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4874,7 +4941,7 @@
         <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>562049.114356157</v>
+        <v>562544.9073001784</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4887,7 +4954,7 @@
         <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>584557.566253998</v>
+        <v>586057.2359880426</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4900,7 +4967,7 @@
         <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>607917.2509240583</v>
+        <v>609614.3105974013</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4913,7 +4980,7 @@
         <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>611101.3475789041</v>
+        <v>612665.4374112234</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4926,7 +4993,7 @@
         <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>570920.2771873932</v>
+        <v>574736.6575146563</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4939,7 +5006,7 @@
         <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>532841.7208153034</v>
+        <v>533713.4371729933</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4952,7 +5019,7 @@
         <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>585330.3673175547</v>
+        <v>586864.8990289646</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4965,7 +5032,7 @@
         <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>580086.3765443196</v>
+        <v>582301.6890799581</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4978,7 +5045,7 @@
         <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>587952.2504640672</v>
+        <v>590111.1288453082</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4991,7 +5058,7 @@
         <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>546239.6975230598</v>
+        <v>549115.5786432379</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5004,7 +5071,7 @@
         <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>531029.0774782907</v>
+        <v>532242.3971317213</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5017,7 +5084,7 @@
         <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>594839.6225658449</v>
+        <v>596780.429006236</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5030,7 +5097,7 @@
         <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>581701.323780969</v>
+        <v>582617.2289531195</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5043,7 +5110,7 @@
         <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>602155.0680404652</v>
+        <v>602498.8665527719</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5056,7 +5123,7 @@
         <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>621120.9241350221</v>
+        <v>623983.40831676</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5069,7 +5136,7 @@
         <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>625501.096766611</v>
+        <v>626871.4650286532</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5082,7 +5149,7 @@
         <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>587694.4231791435</v>
+        <v>588591.1053699944</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5095,7 +5162,7 @@
         <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>552198.9717856006</v>
+        <v>551831.2610420772</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5108,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>599953.9979236932</v>
+        <v>602686.3927082673</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5121,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>595759.7693469682</v>
+        <v>596314.6132043819</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5134,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>603039.2119738732</v>
+        <v>604887.0352375187</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5147,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>562838.5407360478</v>
+        <v>562862.6454029677</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5160,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>548003.4371979428</v>
+        <v>549677.2471191795</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5173,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>608573.2164096246</v>
+        <v>611296.4804261279</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5186,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>597040.6599300919</v>
+        <v>597437.1168583407</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5199,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>616184.2172472894</v>
+        <v>618382.7161763482</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5212,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>635389.6258604492</v>
+        <v>637840.8687098051</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5225,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>639442.0281188426</v>
+        <v>641517.4119866419</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5238,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>601461.5850345347</v>
+        <v>603770.8970931694</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5251,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>569889.9307040606</v>
+        <v>570568.11330175</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5264,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>614393.6338960178</v>
+        <v>616165.9634224436</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5277,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>608305.7527298698</v>
+        <v>610034.0869552732</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5290,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>618797.4735719888</v>
+        <v>619739.5509850922</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5303,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>578540.8549923018</v>
+        <v>578558.9674457152</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5316,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>566668.0379928763</v>
+        <v>566752.6574001781</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5329,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>624309.7047324739</v>
+        <v>625581.9618580708</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5342,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>612038.0448833917</v>
+        <v>612333.6636113646</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5414,19 +5481,19 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>514746.7375633477</v>
+        <v>517526.9488405508</v>
       </c>
       <c r="D2" t="n">
-        <v>540672.731287163</v>
+        <v>540671.5174722987</v>
       </c>
       <c r="E2" t="n">
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>405308.8103504181</v>
+        <v>410526.4678070545</v>
       </c>
       <c r="G2" t="n">
-        <v>394792.8351700306</v>
+        <v>397264.6324079037</v>
       </c>
     </row>
     <row r="3">
@@ -5437,19 +5504,19 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>516696.7938145596</v>
+        <v>515228.4060232668</v>
       </c>
       <c r="D3" t="n">
-        <v>533543.9563418041</v>
+        <v>533542.9114601641</v>
       </c>
       <c r="E3" t="n">
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>426928.4908466339</v>
+        <v>397440.8045072556</v>
       </c>
       <c r="G3" t="n">
-        <v>403513.345341444</v>
+        <v>410694.5756289959</v>
       </c>
     </row>
     <row r="4">
@@ -5460,19 +5527,19 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>489712.2092176768</v>
+        <v>490100.3398405383</v>
       </c>
       <c r="D4" t="n">
-        <v>505771.3560588615</v>
+        <v>505771.8077431328</v>
       </c>
       <c r="E4" t="n">
-        <v>510331.3119691161</v>
+        <v>510331.3119691162</v>
       </c>
       <c r="F4" t="n">
-        <v>410462.8982102871</v>
+        <v>392661.5393633842</v>
       </c>
       <c r="G4" t="n">
-        <v>385253.2673046589</v>
+        <v>408298.5930945873</v>
       </c>
     </row>
     <row r="5">
@@ -5483,19 +5550,19 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>452998.4120904927</v>
+        <v>453024.2061630118</v>
       </c>
       <c r="D5" t="n">
-        <v>467973.1442135837</v>
+        <v>467975.7940520919</v>
       </c>
       <c r="E5" t="n">
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>414353.9383003712</v>
+        <v>403160.7737336159</v>
       </c>
       <c r="G5" t="n">
-        <v>387330.6146697998</v>
+        <v>400302.9057745934</v>
       </c>
     </row>
     <row r="6">
@@ -5506,19 +5573,19 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>489129.9195343013</v>
+        <v>487614.2425530994</v>
       </c>
       <c r="D6" t="n">
-        <v>503878.6047281298</v>
+        <v>503879.4678025942</v>
       </c>
       <c r="E6" t="n">
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>429736.6786584854</v>
+        <v>405016.2922444344</v>
       </c>
       <c r="G6" t="n">
-        <v>376543.489094615</v>
+        <v>382646.3890469074</v>
       </c>
     </row>
     <row r="7">
@@ -5529,19 +5596,19 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>476216.0534051085</v>
+        <v>478109.3991759208</v>
       </c>
       <c r="D7" t="n">
-        <v>492865.5604598087</v>
+        <v>492866.9200514383</v>
       </c>
       <c r="E7" t="n">
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>404194.365696907</v>
+        <v>407167.42512393</v>
       </c>
       <c r="G7" t="n">
-        <v>375549.2389098406</v>
+        <v>380361.5570952892</v>
       </c>
     </row>
     <row r="8">
@@ -5552,19 +5619,19 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>485658.3514977255</v>
+        <v>487111.8999305262</v>
       </c>
       <c r="D8" t="n">
-        <v>501367.020386829</v>
+        <v>501368.3065314216</v>
       </c>
       <c r="E8" t="n">
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>416139.2748568058</v>
+        <v>417249.8535552025</v>
       </c>
       <c r="G8" t="n">
-        <v>383714.1973369122</v>
+        <v>384593.0811235905</v>
       </c>
     </row>
     <row r="9">
@@ -5575,19 +5642,19 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>454202.2568912456</v>
+        <v>454238.4840199869</v>
       </c>
       <c r="D9" t="n">
-        <v>464218.842461588</v>
+        <v>464220.4404883942</v>
       </c>
       <c r="E9" t="n">
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>407308.5412321091</v>
+        <v>397563.4479973316</v>
       </c>
       <c r="G9" t="n">
-        <v>387350.1193754673</v>
+        <v>394361.7724282742</v>
       </c>
     </row>
     <row r="10">
@@ -5598,19 +5665,19 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>447778.5759206791</v>
+        <v>448185.488899502</v>
       </c>
       <c r="D10" t="n">
-        <v>451049.2232962177</v>
+        <v>451051.0130022227</v>
       </c>
       <c r="E10" t="n">
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>416290.3269944191</v>
+        <v>417743.611243248</v>
       </c>
       <c r="G10" t="n">
-        <v>397162.4207530022</v>
+        <v>390053.4016089439</v>
       </c>
     </row>
     <row r="11">
@@ -5621,19 +5688,19 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>496803.0196981262</v>
+        <v>500497.8102668697</v>
       </c>
       <c r="D11" t="n">
-        <v>509819.7722750951</v>
+        <v>509819.0315832519</v>
       </c>
       <c r="E11" t="n">
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>394904.6155011654</v>
+        <v>409730.6758158207</v>
       </c>
       <c r="G11" t="n">
-        <v>388882.2970974445</v>
+        <v>392241.9870219231</v>
       </c>
     </row>
     <row r="12">
@@ -5644,19 +5711,19 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>485888.6550950715</v>
+        <v>487681.0761772438</v>
       </c>
       <c r="D12" t="n">
-        <v>495959.6089502975</v>
+        <v>495959.4807957555</v>
       </c>
       <c r="E12" t="n">
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>403002.0596578121</v>
+        <v>404993.4288809299</v>
       </c>
       <c r="G12" t="n">
-        <v>396213.0926167965</v>
+        <v>398058.7275772095</v>
       </c>
     </row>
     <row r="13">
@@ -5667,19 +5734,19 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>507051.3295262837</v>
+        <v>508718.3618450286</v>
       </c>
       <c r="D13" t="n">
-        <v>518325.4970104158</v>
+        <v>518324.559369278</v>
       </c>
       <c r="E13" t="n">
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>396776.6998920441</v>
+        <v>397638.5454874039</v>
       </c>
       <c r="G13" t="n">
-        <v>399654.2125008106</v>
+        <v>390521.1646847725</v>
       </c>
     </row>
     <row r="14">
@@ -5690,19 +5757,19 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>522773.2553293756</v>
+        <v>523856.4295197302</v>
       </c>
       <c r="D14" t="n">
-        <v>533464.9456273328</v>
+        <v>533462.6912885965</v>
       </c>
       <c r="E14" t="n">
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>420232.7615466118</v>
+        <v>416217.1187493801</v>
       </c>
       <c r="G14" t="n">
-        <v>390581.8304419518</v>
+        <v>384807.7378439903</v>
       </c>
     </row>
     <row r="15">
@@ -5713,19 +5780,19 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>521169.8378329201</v>
+        <v>523335.84576029</v>
       </c>
       <c r="D15" t="n">
-        <v>530339.3992496936</v>
+        <v>530336.8954178327</v>
       </c>
       <c r="E15" t="n">
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>401531.0025112629</v>
+        <v>403149.6481795311</v>
       </c>
       <c r="G15" t="n">
-        <v>403536.2961699963</v>
+        <v>400740.9482271671</v>
       </c>
     </row>
     <row r="16">
@@ -5736,19 +5803,19 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>498645.4731689281</v>
+        <v>501353.6824311748</v>
       </c>
       <c r="D16" t="n">
-        <v>507572.3455357717</v>
+        <v>507571.3283965437</v>
       </c>
       <c r="E16" t="n">
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>404049.4011266232</v>
+        <v>403186.4534716606</v>
       </c>
       <c r="G16" t="n">
-        <v>367642.6522340775</v>
+        <v>394605.6774606705</v>
       </c>
     </row>
     <row r="17">
@@ -5759,19 +5826,19 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>470276.6645384528</v>
+        <v>469680.2478302259</v>
       </c>
       <c r="D17" t="n">
-        <v>475048.9042597117</v>
+        <v>475050.3106654632</v>
       </c>
       <c r="E17" t="n">
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>413027.3384268284</v>
+        <v>407250.7093424797</v>
       </c>
       <c r="G17" t="n">
-        <v>401376.941576004</v>
+        <v>379966.3112906218</v>
       </c>
     </row>
     <row r="18">
@@ -5782,19 +5849,19 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>496067.212284125</v>
+        <v>501154.9890976611</v>
       </c>
       <c r="D18" t="n">
-        <v>509665.6234660466</v>
+        <v>509664.7432722294</v>
       </c>
       <c r="E18" t="n">
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>397800.2508678436</v>
+        <v>417498.2018120289</v>
       </c>
       <c r="G18" t="n">
-        <v>376014.4917387962</v>
+        <v>400131.1419136524</v>
       </c>
     </row>
     <row r="19">
@@ -5805,19 +5872,19 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>490200.5983683848</v>
+        <v>491988.1810158348</v>
       </c>
       <c r="D19" t="n">
-        <v>500905.7038331417</v>
+        <v>500905.42532869</v>
       </c>
       <c r="E19" t="n">
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>405253.8473143578</v>
+        <v>402560.3261802197</v>
       </c>
       <c r="G19" t="n">
-        <v>387238.2165932655</v>
+        <v>400842.8275148869</v>
       </c>
     </row>
     <row r="20">
@@ -5828,19 +5895,19 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>497188.2616754125</v>
+        <v>501124.9756923753</v>
       </c>
       <c r="D20" t="n">
-        <v>509761.2883425799</v>
+        <v>509760.8247525753</v>
       </c>
       <c r="E20" t="n">
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>405480.3642952442</v>
+        <v>423132.1229243279</v>
       </c>
       <c r="G20" t="n">
-        <v>380222.7763038874</v>
+        <v>386018.5339941978</v>
       </c>
     </row>
     <row r="21">
@@ -5851,19 +5918,19 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>471231.7797862524</v>
+        <v>470094.5695339414</v>
       </c>
       <c r="D21" t="n">
-        <v>476535.5119207027</v>
+        <v>476535.9533815344</v>
       </c>
       <c r="E21" t="n">
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>413197.3879728317</v>
+        <v>396603.3616602421</v>
       </c>
       <c r="G21" t="n">
-        <v>395695.4744637012</v>
+        <v>390543.2058768272</v>
       </c>
     </row>
     <row r="22">
@@ -5874,19 +5941,19 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>466036.2733022801</v>
+        <v>465081.7808632504</v>
       </c>
       <c r="D22" t="n">
-        <v>465123.0169038718</v>
+        <v>465123.8928018872</v>
       </c>
       <c r="E22" t="n">
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>411324.0790712833</v>
+        <v>402413.1749837399</v>
       </c>
       <c r="G22" t="n">
-        <v>403727.7921457291</v>
+        <v>384551.788874507</v>
       </c>
     </row>
     <row r="23">
@@ -5897,19 +5964,19 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>518657.6464361819</v>
+        <v>520363.4595567161</v>
       </c>
       <c r="D23" t="n">
-        <v>519540.7303624612</v>
+        <v>519538.4285381672</v>
       </c>
       <c r="E23" t="n">
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>416907.8827111721</v>
+        <v>418789.2034111023</v>
       </c>
       <c r="G23" t="n">
-        <v>396177.2844262123</v>
+        <v>391150.7555921078</v>
       </c>
     </row>
     <row r="24">
@@ -5920,19 +5987,19 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>502676.5477362684</v>
+        <v>506797.5392201818</v>
       </c>
       <c r="D24" t="n">
-        <v>507247.015976076</v>
+        <v>507245.5528959208</v>
       </c>
       <c r="E24" t="n">
-        <v>543960.5678097814</v>
+        <v>543960.5678097815</v>
       </c>
       <c r="F24" t="n">
-        <v>404850.0736675262</v>
+        <v>425963.6114249229</v>
       </c>
       <c r="G24" t="n">
-        <v>404860.6044592857</v>
+        <v>404428.3871788979</v>
       </c>
     </row>
     <row r="25">
@@ -5943,19 +6010,19 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>519943.8808640399</v>
+        <v>524379.2687041259</v>
       </c>
       <c r="D25" t="n">
-        <v>528085.6166253425</v>
+        <v>528083.1213564152</v>
       </c>
       <c r="E25" t="n">
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>399280.6842675209</v>
+        <v>415546.8391017914</v>
       </c>
       <c r="G25" t="n">
-        <v>402175.8998019695</v>
+        <v>412356.6564400196</v>
       </c>
     </row>
     <row r="26">
@@ -5966,19 +6033,19 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>537952.7494040065</v>
+        <v>541443.2785768656</v>
       </c>
       <c r="D26" t="n">
-        <v>542228.9798236936</v>
+        <v>542225.0963114933</v>
       </c>
       <c r="E26" t="n">
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>410690.3248276711</v>
+        <v>421353.7135996819</v>
       </c>
       <c r="G26" t="n">
-        <v>404364.5901730061</v>
+        <v>406144.1015572548</v>
       </c>
     </row>
     <row r="27">
@@ -5989,19 +6056,19 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>538912.4131244164</v>
+        <v>541408.4128376974</v>
       </c>
       <c r="D27" t="n">
-        <v>539569.1377787277</v>
+        <v>539565.1248611339</v>
       </c>
       <c r="E27" t="n">
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>406350.4665911198</v>
+        <v>411985.227367878</v>
       </c>
       <c r="G27" t="n">
-        <v>409074.6529710293</v>
+        <v>399856.1692962646</v>
       </c>
     </row>
     <row r="28">
@@ -6012,19 +6079,19 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>517228.6793002889</v>
+        <v>521676.3719194988</v>
       </c>
       <c r="D28" t="n">
-        <v>518855.1657159033</v>
+        <v>518852.9167095724</v>
       </c>
       <c r="E28" t="n">
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>408166.3634352684</v>
+        <v>426307.8388671875</v>
       </c>
       <c r="G28" t="n">
-        <v>395893.3029088974</v>
+        <v>407483.9786250591</v>
       </c>
     </row>
     <row r="29">
@@ -6035,19 +6102,19 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>478774.7459832918</v>
+        <v>479495.2185012074</v>
       </c>
       <c r="D29" t="n">
-        <v>489160.615924223</v>
+        <v>489161.1369062281</v>
       </c>
       <c r="E29" t="n">
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>435149.295706749</v>
+        <v>425919.2141666412</v>
       </c>
       <c r="G29" t="n">
-        <v>384192.4737114906</v>
+        <v>407461.0277965069</v>
       </c>
     </row>
     <row r="30">
@@ -6058,19 +6125,19 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>519690.4206051895</v>
+        <v>521523.4958093378</v>
       </c>
       <c r="D30" t="n">
-        <v>521006.1875282039</v>
+        <v>521004.1069283766</v>
       </c>
       <c r="E30" t="n">
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>416055.83320117</v>
+        <v>417070.6201791763</v>
       </c>
       <c r="G30" t="n">
-        <v>403663.400377512</v>
+        <v>402927.521944046</v>
       </c>
     </row>
     <row r="31">
@@ -6081,19 +6148,19 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>507801.7236159079</v>
+        <v>509601.2885978185</v>
       </c>
       <c r="D31" t="n">
-        <v>513054.3571184368</v>
+        <v>513052.9954864146</v>
       </c>
       <c r="E31" t="n">
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>407990.3137869835</v>
+        <v>401581.8197040558</v>
       </c>
       <c r="G31" t="n">
-        <v>387227.4234063625</v>
+        <v>406492.667265892</v>
       </c>
     </row>
     <row r="32">
@@ -6104,19 +6171,19 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>517797.4414666375</v>
+        <v>517784.9518694951</v>
       </c>
       <c r="D32" t="n">
-        <v>521238.9437574365</v>
+        <v>521237.3005615115</v>
       </c>
       <c r="E32" t="n">
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>419297.83015728</v>
+        <v>402715.8040492535</v>
       </c>
       <c r="G32" t="n">
-        <v>392245.0657916069</v>
+        <v>397906.0136036873</v>
       </c>
     </row>
     <row r="33">
@@ -6127,19 +6194,19 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>491313.0004335475</v>
+        <v>490392.8928053434</v>
       </c>
       <c r="D33" t="n">
-        <v>490821.8541440781</v>
+        <v>490821.5817223216</v>
       </c>
       <c r="E33" t="n">
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>432326.2388367653</v>
+        <v>421080.0004789829</v>
       </c>
       <c r="G33" t="n">
-        <v>416164.7271857262</v>
+        <v>402481.08284688</v>
       </c>
     </row>
     <row r="34">
@@ -6150,19 +6217,19 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>480797.3922309421</v>
+        <v>480879.8741432714</v>
       </c>
       <c r="D34" t="n">
-        <v>480396.8185698022</v>
+        <v>480397.141703499</v>
       </c>
       <c r="E34" t="n">
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>441369.722443819</v>
+        <v>428906.6353545189</v>
       </c>
       <c r="G34" t="n">
-        <v>393377.8781051636</v>
+        <v>414390.3062672615</v>
       </c>
     </row>
     <row r="35">
@@ -6173,19 +6240,19 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>533765.5296309884</v>
+        <v>536407.0178467857</v>
       </c>
       <c r="D35" t="n">
-        <v>530329.2592364355</v>
+        <v>530325.8356909686</v>
       </c>
       <c r="E35" t="n">
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>422437.4230353832</v>
+        <v>427777.4091079235</v>
       </c>
       <c r="G35" t="n">
-        <v>409239.6470372677</v>
+        <v>413613.983995676</v>
       </c>
     </row>
     <row r="36">
@@ -6196,19 +6263,19 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>520786.4282400034</v>
+        <v>524771.995041947</v>
       </c>
       <c r="D36" t="n">
-        <v>519081.157546744</v>
+        <v>519078.7085594727</v>
       </c>
       <c r="E36" t="n">
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>422464.7296233177</v>
+        <v>446047.9129784107</v>
       </c>
       <c r="G36" t="n">
-        <v>415732.3524682522</v>
+        <v>406776.001541853</v>
       </c>
     </row>
     <row r="37">
@@ -6219,19 +6286,19 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>540259.447443157</v>
+        <v>541112.036185988</v>
       </c>
       <c r="D37" t="n">
-        <v>538209.9161361665</v>
+        <v>538206.2070136727</v>
       </c>
       <c r="E37" t="n">
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>431697.5750589371</v>
+        <v>427769.2398724556</v>
       </c>
       <c r="G37" t="n">
-        <v>413098.9373149872</v>
+        <v>401857.7194509506</v>
       </c>
     </row>
     <row r="38">
@@ -6242,19 +6309,19 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>552953.7117439591</v>
+        <v>558984.90968344</v>
       </c>
       <c r="D38" t="n">
-        <v>551195.038105195</v>
+        <v>551189.8449374987</v>
       </c>
       <c r="E38" t="n">
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>421669.8997476101</v>
+        <v>442654.4090664387</v>
       </c>
       <c r="G38" t="n">
-        <v>399657.6411306858</v>
+        <v>432524.3471701145</v>
       </c>
     </row>
     <row r="39">
@@ -6265,19 +6332,19 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>557584.8938266413</v>
+        <v>558414.9337626683</v>
       </c>
       <c r="D39" t="n">
-        <v>548768.452192354</v>
+        <v>548763.1898663259</v>
       </c>
       <c r="E39" t="n">
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>441746.6093349457</v>
+        <v>430660.2046055794</v>
       </c>
       <c r="G39" t="n">
-        <v>419048.5547709465</v>
+        <v>425188.4436919689</v>
       </c>
     </row>
     <row r="40">
@@ -6288,19 +6355,19 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>537932.8722482823</v>
+        <v>534833.6462754366</v>
       </c>
       <c r="D40" t="n">
-        <v>529783.7539073976</v>
+        <v>529780.4388736694</v>
       </c>
       <c r="E40" t="n">
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>446667.9527025223</v>
+        <v>409726.1626193523</v>
       </c>
       <c r="G40" t="n">
-        <v>418742.6894986629</v>
+        <v>412920.228729248</v>
       </c>
     </row>
     <row r="41">
@@ -6311,19 +6378,19 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>498385.0604987275</v>
+        <v>502325.5579548397</v>
       </c>
       <c r="D41" t="n">
-        <v>502561.8700111181</v>
+        <v>502561.5637958674</v>
       </c>
       <c r="E41" t="n">
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>428841.8237540722</v>
+        <v>438774.9668416977</v>
       </c>
       <c r="G41" t="n">
-        <v>399791.9699511528</v>
+        <v>436887.8384625912</v>
       </c>
     </row>
     <row r="42">
@@ -6334,19 +6401,19 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>536042.6704005345</v>
+        <v>537977.6702219694</v>
       </c>
       <c r="D42" t="n">
-        <v>531770.2227897565</v>
+        <v>531767.0387393441</v>
       </c>
       <c r="E42" t="n">
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>432116.5151450634</v>
+        <v>430892.61673069</v>
       </c>
       <c r="G42" t="n">
-        <v>417942.9790732861</v>
+        <v>426679.0580232143</v>
       </c>
     </row>
     <row r="43">
@@ -6357,19 +6424,19 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>525912.6786920499</v>
+        <v>532163.5748406011</v>
       </c>
       <c r="D43" t="n">
-        <v>524483.343959077</v>
+        <v>524480.9470335129</v>
       </c>
       <c r="E43" t="n">
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>426907.7966163158</v>
+        <v>457229.9344980717</v>
       </c>
       <c r="G43" t="n">
-        <v>403159.759139061</v>
+        <v>428543.7953500748</v>
       </c>
     </row>
     <row r="44">
@@ -6380,19 +6447,19 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>535150.5360624586</v>
+        <v>541048.7390199502</v>
       </c>
       <c r="D44" t="n">
-        <v>531992.4274423156</v>
+        <v>531989.6477680848</v>
       </c>
       <c r="E44" t="n">
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>433430.2926425934</v>
+        <v>467451.065002203</v>
       </c>
       <c r="G44" t="n">
-        <v>423852.5900163651</v>
+        <v>430163.8404591084</v>
       </c>
     </row>
     <row r="45">
@@ -6403,19 +6470,19 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>509095.4838854801</v>
+        <v>509557.9327965016</v>
       </c>
       <c r="D45" t="n">
-        <v>504103.2331323071</v>
+        <v>504102.1875453966</v>
       </c>
       <c r="E45" t="n">
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>443365.7448074818</v>
+        <v>443859.4500164986</v>
       </c>
       <c r="G45" t="n">
-        <v>417784.2999835014</v>
+        <v>403050.7427034378</v>
       </c>
     </row>
     <row r="46">
@@ -6426,19 +6493,19 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>499114.6266837532</v>
+        <v>501309.0117814992</v>
       </c>
       <c r="D46" t="n">
-        <v>494545.9747458252</v>
+        <v>494545.6400323637</v>
       </c>
       <c r="E46" t="n">
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>433296.506105423</v>
+        <v>439933.8262465</v>
       </c>
       <c r="G46" t="n">
-        <v>410417.9236826897</v>
+        <v>419094.7713022232</v>
       </c>
     </row>
     <row r="47">
@@ -6449,19 +6516,19 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>548375.1785541263</v>
+        <v>552668.1649238004</v>
       </c>
       <c r="D47" t="n">
-        <v>540335.5984782289</v>
+        <v>540331.0508832885</v>
       </c>
       <c r="E47" t="n">
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>429760.6090955734</v>
+        <v>446210.8953485489</v>
       </c>
       <c r="G47" t="n">
-        <v>414198.1630501747</v>
+        <v>425122.4950459003</v>
       </c>
     </row>
     <row r="48">
@@ -6472,19 +6539,19 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>539752.7108876639</v>
+        <v>541709.0257006126</v>
       </c>
       <c r="D48" t="n">
-        <v>530022.687601878</v>
+        <v>530019.2105668101</v>
       </c>
       <c r="E48" t="n">
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>447854.7834296227</v>
+        <v>453981.3426773548</v>
       </c>
       <c r="G48" t="n">
-        <v>431841.647485733</v>
+        <v>427179.9703521729</v>
       </c>
     </row>
     <row r="49">
@@ -6495,19 +6562,19 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>560721.976597723</v>
+        <v>561093.5401989263</v>
       </c>
       <c r="D49" t="n">
-        <v>547564.830427294</v>
+        <v>547559.9006170026</v>
       </c>
       <c r="E49" t="n">
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>461847.5292475224</v>
+        <v>450611.559286356</v>
       </c>
       <c r="G49" t="n">
-        <v>443283.4052114487</v>
+        <v>446648.9552941322</v>
       </c>
     </row>
     <row r="50">
@@ -6518,19 +6585,19 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>573361.1095659024</v>
+        <v>571908.716301729</v>
       </c>
       <c r="D50" t="n">
-        <v>559473.0500493904</v>
+        <v>559466.5577785867</v>
       </c>
       <c r="E50" t="n">
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>462082.5828170776</v>
+        <v>434324.6752357483</v>
       </c>
       <c r="G50" t="n">
-        <v>438698.9422221184</v>
+        <v>439658.5037689209</v>
       </c>
     </row>
     <row r="51">
@@ -6541,19 +6608,19 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>572668.5906419194</v>
+        <v>575047.3729732761</v>
       </c>
       <c r="D51" t="n">
-        <v>557248.6415551938</v>
+        <v>557242.1245085704</v>
       </c>
       <c r="E51" t="n">
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>455994.8055715561</v>
+        <v>458105.7919940948</v>
       </c>
       <c r="G51" t="n">
-        <v>418074.5439982414</v>
+        <v>425952.6258149147</v>
       </c>
     </row>
     <row r="52">
@@ -6564,19 +6631,19 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>554103.2218150762</v>
+        <v>556455.6002863639</v>
       </c>
       <c r="D52" t="n">
-        <v>539840.4013664008</v>
+        <v>539835.9667655325</v>
       </c>
       <c r="E52" t="n">
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>454333.5819180012</v>
+        <v>455547.9116561413</v>
       </c>
       <c r="G52" t="n">
-        <v>439353.985458374</v>
+        <v>454929.7961630821</v>
       </c>
     </row>
     <row r="53">
@@ -6587,19 +6654,19 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>521494.083304503</v>
+        <v>523278.6179773395</v>
       </c>
       <c r="D53" t="n">
-        <v>514878.594531847</v>
+        <v>514877.3441640146</v>
       </c>
       <c r="E53" t="n">
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>450696.1729736328</v>
+        <v>447478.2988777161</v>
       </c>
       <c r="G53" t="n">
-        <v>421640.756393671</v>
+        <v>445926.7563941479</v>
       </c>
     </row>
     <row r="54">
@@ -6610,19 +6677,19 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>552604.2948543093</v>
+        <v>557961.5830772596</v>
       </c>
       <c r="D54" t="n">
-        <v>541662.8258477986</v>
+        <v>541658.4813120329</v>
       </c>
       <c r="E54" t="n">
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>451612.8766469955</v>
+        <v>476599.804047823</v>
       </c>
       <c r="G54" t="n">
-        <v>437403.4973986149</v>
+        <v>457479.6122236252</v>
       </c>
     </row>
     <row r="55">
@@ -6633,19 +6700,19 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>545861.6257655992</v>
+        <v>546382.8774354211</v>
       </c>
       <c r="D55" t="n">
-        <v>534981.1043074194</v>
+        <v>534977.5955775863</v>
       </c>
       <c r="E55" t="n">
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>455383.1799850464</v>
+        <v>447410.3385355473</v>
       </c>
       <c r="G55" t="n">
-        <v>443035.5292658806</v>
+        <v>443765.7399642467</v>
       </c>
     </row>
     <row r="56">
@@ -6656,19 +6723,19 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>554654.6082957821</v>
+        <v>556030.39849693</v>
       </c>
       <c r="D56" t="n">
-        <v>541867.1161479257</v>
+        <v>541863.1395780526</v>
       </c>
       <c r="E56" t="n">
-        <v>614602.7683121646</v>
+        <v>614602.7683121645</v>
       </c>
       <c r="F56" t="n">
-        <v>466209.726057291</v>
+        <v>462524.5087177753</v>
       </c>
       <c r="G56" t="n">
-        <v>457054.5145981312</v>
+        <v>467182.809700489</v>
       </c>
     </row>
     <row r="57">
@@ -6679,19 +6746,19 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>528145.0717280768</v>
+        <v>530371.864844723</v>
       </c>
       <c r="D57" t="n">
-        <v>516293.1033084352</v>
+        <v>516291.1521900483</v>
       </c>
       <c r="E57" t="n">
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>455494.3655538559</v>
+        <v>466638.3922567368</v>
       </c>
       <c r="G57" t="n">
-        <v>456995.825551033</v>
+        <v>452714.5514035225</v>
       </c>
     </row>
     <row r="58">
@@ -6702,19 +6769,19 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>522537.18794024</v>
+        <v>526594.0630448222</v>
       </c>
       <c r="D58" t="n">
-        <v>507529.3102328324</v>
+        <v>507528.160259891</v>
       </c>
       <c r="E58" t="n">
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>465128.2382338047</v>
+        <v>483450.6963427067</v>
       </c>
       <c r="G58" t="n">
-        <v>435692.2437376976</v>
+        <v>461673.963606596</v>
       </c>
     </row>
     <row r="59">
@@ -6725,19 +6792,19 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>569641.4578320942</v>
+        <v>571408.370857024</v>
       </c>
       <c r="D59" t="n">
-        <v>549518.19456457</v>
+        <v>549512.467255535</v>
       </c>
       <c r="E59" t="n">
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>481541.8591387272</v>
+        <v>479945.9893689156</v>
       </c>
       <c r="G59" t="n">
-        <v>447007.9118504524</v>
+        <v>462736.5414867401</v>
       </c>
     </row>
     <row r="60">
@@ -6748,19 +6815,19 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>559531.3999561215</v>
+        <v>560516.5573752191</v>
       </c>
       <c r="D60" t="n">
-        <v>540061.4185721624</v>
+        <v>540056.8339584076</v>
       </c>
       <c r="E60" t="n">
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>481411.5712034702</v>
+        <v>475139.5400881767</v>
       </c>
       <c r="G60" t="n">
-        <v>451007.9508831501</v>
+        <v>464870.8985700607</v>
       </c>
     </row>
     <row r="61">
@@ -6771,19 +6838,19 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>578303.651423446</v>
+        <v>582197.6360295988</v>
       </c>
       <c r="D61" t="n">
-        <v>556147.5149501024</v>
+        <v>556141.3245965317</v>
       </c>
       <c r="E61" t="n">
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>479051.3268876076</v>
+        <v>490739.7535412312</v>
       </c>
       <c r="G61" t="n">
-        <v>454460.5636744499</v>
+        <v>479625.0276293755</v>
       </c>
     </row>
     <row r="62">
@@ -6794,19 +6861,19 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>591434.6244222793</v>
+        <v>592572.7264118658</v>
       </c>
       <c r="D62" t="n">
-        <v>567067.3275559774</v>
+        <v>567059.5187603674</v>
       </c>
       <c r="E62" t="n">
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>488489.1029303074</v>
+        <v>486593.1230883598</v>
       </c>
       <c r="G62" t="n">
-        <v>474421.6094825268</v>
+        <v>471121.27333951</v>
       </c>
     </row>
     <row r="63">
@@ -6817,19 +6884,19 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>594037.3560629283</v>
+        <v>594315.0339477643</v>
       </c>
       <c r="D63" t="n">
-        <v>565027.6059433514</v>
+        <v>565019.809197626</v>
       </c>
       <c r="E63" t="n">
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>500779.4465501308</v>
+        <v>495773.2271001339</v>
       </c>
       <c r="G63" t="n">
-        <v>477655.2622730732</v>
+        <v>467707.4425504208</v>
       </c>
     </row>
     <row r="64">
@@ -6840,19 +6907,19 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>577184.7772395127</v>
+        <v>576053.2633354879</v>
       </c>
       <c r="D64" t="n">
-        <v>549064.4062069372</v>
+        <v>549058.7906583664</v>
       </c>
       <c r="E64" t="n">
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>511687.8424141407</v>
+        <v>493642.036251545</v>
       </c>
       <c r="G64" t="n">
-        <v>475357.8703405857</v>
+        <v>478701.4666962624</v>
       </c>
     </row>
     <row r="65">
@@ -6863,19 +6930,19 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>548066.5107561713</v>
+        <v>548588.9756047826</v>
       </c>
       <c r="D65" t="n">
-        <v>526174.6305904535</v>
+        <v>526172.3243872615</v>
       </c>
       <c r="E65" t="n">
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>497999.2125675678</v>
+        <v>485957.5145857334</v>
       </c>
       <c r="G65" t="n">
-        <v>456846.6451654434</v>
+        <v>487132.2226572037</v>
       </c>
     </row>
     <row r="66">
@@ -6886,19 +6953,19 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>573620.9079028104</v>
+        <v>575046.400454762</v>
       </c>
       <c r="D66" t="n">
-        <v>550735.6080142081</v>
+        <v>550730.0466990217</v>
       </c>
       <c r="E66" t="n">
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>501967.4842948914</v>
+        <v>505516.9034011364</v>
       </c>
       <c r="G66" t="n">
-        <v>475884.1125473976</v>
+        <v>476706.4764201641</v>
       </c>
     </row>
     <row r="67">
@@ -6909,19 +6976,19 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>569125.4035042918</v>
+        <v>570138.2106388634</v>
       </c>
       <c r="D67" t="n">
-        <v>544608.5334797063</v>
+        <v>544603.8428502311</v>
       </c>
       <c r="E67" t="n">
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>511028.8457577229</v>
+        <v>510027.8257782459</v>
       </c>
       <c r="G67" t="n">
-        <v>485687.9997873306</v>
+        <v>494791.204529047</v>
       </c>
     </row>
     <row r="68">
@@ -6932,19 +6999,19 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>573641.7242366931</v>
+        <v>574671.0654631135</v>
       </c>
       <c r="D68" t="n">
-        <v>550922.9728608044</v>
+        <v>550917.7458256328</v>
       </c>
       <c r="E68" t="n">
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>504792.8677351475</v>
+        <v>501055.0664088726</v>
       </c>
       <c r="G68" t="n">
-        <v>468235.976341486</v>
+        <v>480726.7898509502</v>
       </c>
     </row>
     <row r="69">
@@ -6955,19 +7022,19 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>555033.6774431582</v>
+        <v>553062.1899325806</v>
       </c>
       <c r="D69" t="n">
-        <v>527471.7912225157</v>
+        <v>527468.8204826671</v>
       </c>
       <c r="E69" t="n">
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>538633.6020402908</v>
+        <v>509777.1334581375</v>
       </c>
       <c r="G69" t="n">
-        <v>468530.5236365795</v>
+        <v>501133.5050637722</v>
       </c>
     </row>
     <row r="70">
@@ -6978,19 +7045,19 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>552934.6383122671</v>
+        <v>549136.3907002175</v>
       </c>
       <c r="D70" t="n">
-        <v>519435.4624742399</v>
+        <v>519433.3631066284</v>
       </c>
       <c r="E70" t="n">
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>544198.0234255791</v>
+        <v>516545.5811989307</v>
       </c>
       <c r="G70" t="n">
-        <v>489606.4514234066</v>
+        <v>480593.685541153</v>
       </c>
     </row>
   </sheetData>
@@ -7057,19 +7124,19 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>514746.7375633477</v>
+        <v>517526.9488405508</v>
       </c>
       <c r="D2" t="n">
-        <v>540672.731287163</v>
+        <v>540671.5174722987</v>
       </c>
       <c r="E2" t="n">
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>405308.8103504181</v>
+        <v>410526.4678070545</v>
       </c>
       <c r="G2" t="n">
-        <v>394792.8351700306</v>
+        <v>397264.6324079037</v>
       </c>
     </row>
     <row r="3">
@@ -7080,19 +7147,19 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>516696.7938145596</v>
+        <v>515228.4060232668</v>
       </c>
       <c r="D3" t="n">
-        <v>533543.9563418041</v>
+        <v>533542.9114601641</v>
       </c>
       <c r="E3" t="n">
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>426928.4908466339</v>
+        <v>397440.8045072556</v>
       </c>
       <c r="G3" t="n">
-        <v>403513.345341444</v>
+        <v>410694.5756289959</v>
       </c>
     </row>
     <row r="4">
@@ -7103,19 +7170,19 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>489712.2092176768</v>
+        <v>490100.3398405383</v>
       </c>
       <c r="D4" t="n">
-        <v>505771.3560588615</v>
+        <v>505771.8077431328</v>
       </c>
       <c r="E4" t="n">
-        <v>510331.3119691161</v>
+        <v>510331.3119691162</v>
       </c>
       <c r="F4" t="n">
-        <v>410462.8982102871</v>
+        <v>392661.5393633842</v>
       </c>
       <c r="G4" t="n">
-        <v>385253.2673046589</v>
+        <v>408298.5930945873</v>
       </c>
     </row>
     <row r="5">
@@ -7126,19 +7193,19 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>452998.4120904927</v>
+        <v>453024.2061630118</v>
       </c>
       <c r="D5" t="n">
-        <v>467973.1442135837</v>
+        <v>467975.7940520919</v>
       </c>
       <c r="E5" t="n">
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>414353.9383003712</v>
+        <v>403160.7737336159</v>
       </c>
       <c r="G5" t="n">
-        <v>387330.6146697998</v>
+        <v>400302.9057745934</v>
       </c>
     </row>
     <row r="6">
@@ -7149,19 +7216,19 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>489129.9195343013</v>
+        <v>487614.2425530994</v>
       </c>
       <c r="D6" t="n">
-        <v>503878.6047281298</v>
+        <v>503879.4678025942</v>
       </c>
       <c r="E6" t="n">
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>429736.6786584854</v>
+        <v>405016.2922444344</v>
       </c>
       <c r="G6" t="n">
-        <v>376543.489094615</v>
+        <v>382646.3890469074</v>
       </c>
     </row>
     <row r="7">
@@ -7172,19 +7239,19 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>476216.0534051085</v>
+        <v>478109.3991759208</v>
       </c>
       <c r="D7" t="n">
-        <v>492865.5604598087</v>
+        <v>492866.9200514383</v>
       </c>
       <c r="E7" t="n">
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>404194.365696907</v>
+        <v>407167.42512393</v>
       </c>
       <c r="G7" t="n">
-        <v>375549.2389098406</v>
+        <v>380361.5570952892</v>
       </c>
     </row>
     <row r="8">
@@ -7195,19 +7262,19 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>485658.3514977255</v>
+        <v>487111.8999305262</v>
       </c>
       <c r="D8" t="n">
-        <v>501367.020386829</v>
+        <v>501368.3065314216</v>
       </c>
       <c r="E8" t="n">
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>416139.2748568058</v>
+        <v>417249.8535552025</v>
       </c>
       <c r="G8" t="n">
-        <v>383714.1973369122</v>
+        <v>384593.0811235905</v>
       </c>
     </row>
     <row r="9">
@@ -7218,19 +7285,19 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>454202.2568912456</v>
+        <v>454238.4840199869</v>
       </c>
       <c r="D9" t="n">
-        <v>464218.842461588</v>
+        <v>464220.4404883942</v>
       </c>
       <c r="E9" t="n">
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>407308.5412321091</v>
+        <v>397563.4479973316</v>
       </c>
       <c r="G9" t="n">
-        <v>387350.1193754673</v>
+        <v>394361.7724282742</v>
       </c>
     </row>
     <row r="10">
@@ -7241,19 +7308,19 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>447778.5759206791</v>
+        <v>448185.488899502</v>
       </c>
       <c r="D10" t="n">
-        <v>451049.2232962177</v>
+        <v>451051.0130022227</v>
       </c>
       <c r="E10" t="n">
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>416290.3269944191</v>
+        <v>417743.611243248</v>
       </c>
       <c r="G10" t="n">
-        <v>397162.4207530022</v>
+        <v>390053.4016089439</v>
       </c>
     </row>
     <row r="11">
@@ -7264,19 +7331,19 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>496803.0196981262</v>
+        <v>500497.8102668697</v>
       </c>
       <c r="D11" t="n">
-        <v>509819.7722750951</v>
+        <v>509819.0315832519</v>
       </c>
       <c r="E11" t="n">
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>394904.6155011654</v>
+        <v>409730.6758158207</v>
       </c>
       <c r="G11" t="n">
-        <v>388882.2970974445</v>
+        <v>392241.9870219231</v>
       </c>
     </row>
     <row r="12">
@@ -7287,19 +7354,19 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>485888.6550950715</v>
+        <v>487681.0761772438</v>
       </c>
       <c r="D12" t="n">
-        <v>495959.6089502975</v>
+        <v>495959.4807957555</v>
       </c>
       <c r="E12" t="n">
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>403002.0596578121</v>
+        <v>404993.4288809299</v>
       </c>
       <c r="G12" t="n">
-        <v>396213.0926167965</v>
+        <v>398058.7275772095</v>
       </c>
     </row>
     <row r="13">
@@ -7310,19 +7377,19 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>507051.3295262837</v>
+        <v>508718.3618450286</v>
       </c>
       <c r="D13" t="n">
-        <v>518325.4970104158</v>
+        <v>518324.559369278</v>
       </c>
       <c r="E13" t="n">
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>396776.6998920441</v>
+        <v>397638.5454874039</v>
       </c>
       <c r="G13" t="n">
-        <v>399654.2125008106</v>
+        <v>390521.1646847725</v>
       </c>
     </row>
     <row r="14">
@@ -7333,19 +7400,19 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>522773.2553293756</v>
+        <v>523856.4295197302</v>
       </c>
       <c r="D14" t="n">
-        <v>533464.9456273328</v>
+        <v>533462.6912885965</v>
       </c>
       <c r="E14" t="n">
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>420232.7615466118</v>
+        <v>416217.1187493801</v>
       </c>
       <c r="G14" t="n">
-        <v>390581.8304419518</v>
+        <v>384807.7378439903</v>
       </c>
     </row>
     <row r="15">
@@ -7356,19 +7423,19 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>521169.8378329201</v>
+        <v>523335.84576029</v>
       </c>
       <c r="D15" t="n">
-        <v>530339.3992496936</v>
+        <v>530336.8954178327</v>
       </c>
       <c r="E15" t="n">
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>401531.0025112629</v>
+        <v>403149.6481795311</v>
       </c>
       <c r="G15" t="n">
-        <v>403536.2961699963</v>
+        <v>400740.9482271671</v>
       </c>
     </row>
     <row r="16">
@@ -7379,19 +7446,19 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>498645.4731689281</v>
+        <v>501353.6824311748</v>
       </c>
       <c r="D16" t="n">
-        <v>507572.3455357717</v>
+        <v>507571.3283965437</v>
       </c>
       <c r="E16" t="n">
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>404049.4011266232</v>
+        <v>403186.4534716606</v>
       </c>
       <c r="G16" t="n">
-        <v>367642.6522340775</v>
+        <v>394605.6774606705</v>
       </c>
     </row>
     <row r="17">
@@ -7402,19 +7469,19 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>470276.6645384528</v>
+        <v>469680.2478302259</v>
       </c>
       <c r="D17" t="n">
-        <v>475048.9042597117</v>
+        <v>475050.3106654632</v>
       </c>
       <c r="E17" t="n">
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>413027.3384268284</v>
+        <v>407250.7093424797</v>
       </c>
       <c r="G17" t="n">
-        <v>401376.941576004</v>
+        <v>379966.3112906218</v>
       </c>
     </row>
     <row r="18">
@@ -7425,19 +7492,19 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>496067.212284125</v>
+        <v>501154.9890976611</v>
       </c>
       <c r="D18" t="n">
-        <v>509665.6234660466</v>
+        <v>509664.7432722294</v>
       </c>
       <c r="E18" t="n">
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>397800.2508678436</v>
+        <v>417498.2018120289</v>
       </c>
       <c r="G18" t="n">
-        <v>376014.4917387962</v>
+        <v>400131.1419136524</v>
       </c>
     </row>
     <row r="19">
@@ -7448,19 +7515,19 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>490200.5983683848</v>
+        <v>491988.1810158348</v>
       </c>
       <c r="D19" t="n">
-        <v>500905.7038331417</v>
+        <v>500905.42532869</v>
       </c>
       <c r="E19" t="n">
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>405253.8473143578</v>
+        <v>402560.3261802197</v>
       </c>
       <c r="G19" t="n">
-        <v>387238.2165932655</v>
+        <v>400842.8275148869</v>
       </c>
     </row>
     <row r="20">
@@ -7471,19 +7538,19 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>497188.2616754125</v>
+        <v>501124.9756923753</v>
       </c>
       <c r="D20" t="n">
-        <v>509761.2883425799</v>
+        <v>509760.8247525753</v>
       </c>
       <c r="E20" t="n">
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>405480.3642952442</v>
+        <v>423132.1229243279</v>
       </c>
       <c r="G20" t="n">
-        <v>380222.7763038874</v>
+        <v>386018.5339941978</v>
       </c>
     </row>
     <row r="21">
@@ -7494,19 +7561,19 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>471231.7797862524</v>
+        <v>470094.5695339414</v>
       </c>
       <c r="D21" t="n">
-        <v>476535.5119207027</v>
+        <v>476535.9533815344</v>
       </c>
       <c r="E21" t="n">
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>413197.3879728317</v>
+        <v>396603.3616602421</v>
       </c>
       <c r="G21" t="n">
-        <v>395695.4744637012</v>
+        <v>390543.2058768272</v>
       </c>
     </row>
     <row r="22">
@@ -7517,19 +7584,19 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>466036.2733022801</v>
+        <v>465081.7808632504</v>
       </c>
       <c r="D22" t="n">
-        <v>465123.0169038718</v>
+        <v>465123.8928018872</v>
       </c>
       <c r="E22" t="n">
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>411324.0790712833</v>
+        <v>402413.1749837399</v>
       </c>
       <c r="G22" t="n">
-        <v>403727.7921457291</v>
+        <v>384551.788874507</v>
       </c>
     </row>
     <row r="23">
@@ -7540,19 +7607,19 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>518657.6464361819</v>
+        <v>520363.4595567161</v>
       </c>
       <c r="D23" t="n">
-        <v>519540.7303624612</v>
+        <v>519538.4285381672</v>
       </c>
       <c r="E23" t="n">
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>416907.8827111721</v>
+        <v>418789.2034111023</v>
       </c>
       <c r="G23" t="n">
-        <v>396177.2844262123</v>
+        <v>391150.7555921078</v>
       </c>
     </row>
     <row r="24">
@@ -7563,19 +7630,19 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>502676.5477362684</v>
+        <v>506797.5392201818</v>
       </c>
       <c r="D24" t="n">
-        <v>507247.015976076</v>
+        <v>507245.5528959208</v>
       </c>
       <c r="E24" t="n">
-        <v>543960.5678097814</v>
+        <v>543960.5678097815</v>
       </c>
       <c r="F24" t="n">
-        <v>404850.0736675262</v>
+        <v>425963.6114249229</v>
       </c>
       <c r="G24" t="n">
-        <v>404860.6044592857</v>
+        <v>404428.3871788979</v>
       </c>
     </row>
     <row r="25">
@@ -7586,19 +7653,19 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>519943.8808640399</v>
+        <v>524379.2687041259</v>
       </c>
       <c r="D25" t="n">
-        <v>528085.6166253425</v>
+        <v>528083.1213564152</v>
       </c>
       <c r="E25" t="n">
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>399280.6842675209</v>
+        <v>415546.8391017914</v>
       </c>
       <c r="G25" t="n">
-        <v>402175.8998019695</v>
+        <v>412356.6564400196</v>
       </c>
     </row>
     <row r="26">
@@ -7609,19 +7676,19 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>537952.7494040065</v>
+        <v>541443.2785768656</v>
       </c>
       <c r="D26" t="n">
-        <v>542228.9798236936</v>
+        <v>542225.0963114933</v>
       </c>
       <c r="E26" t="n">
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>410690.3248276711</v>
+        <v>421353.7135996819</v>
       </c>
       <c r="G26" t="n">
-        <v>404364.5901730061</v>
+        <v>406144.1015572548</v>
       </c>
     </row>
     <row r="27">
@@ -7632,19 +7699,19 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>538912.4131244164</v>
+        <v>541408.4128376974</v>
       </c>
       <c r="D27" t="n">
-        <v>539569.1377787277</v>
+        <v>539565.1248611339</v>
       </c>
       <c r="E27" t="n">
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>406350.4665911198</v>
+        <v>411985.227367878</v>
       </c>
       <c r="G27" t="n">
-        <v>409074.6529710293</v>
+        <v>399856.1692962646</v>
       </c>
     </row>
     <row r="28">
@@ -7655,19 +7722,19 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>517228.6793002889</v>
+        <v>521676.3719194988</v>
       </c>
       <c r="D28" t="n">
-        <v>518855.1657159033</v>
+        <v>518852.9167095724</v>
       </c>
       <c r="E28" t="n">
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>408166.3634352684</v>
+        <v>426307.8388671875</v>
       </c>
       <c r="G28" t="n">
-        <v>395893.3029088974</v>
+        <v>407483.9786250591</v>
       </c>
     </row>
     <row r="29">
@@ -7678,19 +7745,19 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>478774.7459832918</v>
+        <v>479495.2185012074</v>
       </c>
       <c r="D29" t="n">
-        <v>489160.615924223</v>
+        <v>489161.1369062281</v>
       </c>
       <c r="E29" t="n">
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>435149.295706749</v>
+        <v>425919.2141666412</v>
       </c>
       <c r="G29" t="n">
-        <v>384192.4737114906</v>
+        <v>407461.0277965069</v>
       </c>
     </row>
     <row r="30">
@@ -7701,19 +7768,19 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>519690.4206051895</v>
+        <v>521523.4958093378</v>
       </c>
       <c r="D30" t="n">
-        <v>521006.1875282039</v>
+        <v>521004.1069283766</v>
       </c>
       <c r="E30" t="n">
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>416055.83320117</v>
+        <v>417070.6201791763</v>
       </c>
       <c r="G30" t="n">
-        <v>403663.400377512</v>
+        <v>402927.521944046</v>
       </c>
     </row>
     <row r="31">
@@ -7724,19 +7791,19 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>507801.7236159079</v>
+        <v>509601.2885978185</v>
       </c>
       <c r="D31" t="n">
-        <v>513054.3571184368</v>
+        <v>513052.9954864146</v>
       </c>
       <c r="E31" t="n">
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>407990.3137869835</v>
+        <v>401581.8197040558</v>
       </c>
       <c r="G31" t="n">
-        <v>387227.4234063625</v>
+        <v>406492.667265892</v>
       </c>
     </row>
     <row r="32">
@@ -7747,19 +7814,19 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>517797.4414666375</v>
+        <v>517784.9518694951</v>
       </c>
       <c r="D32" t="n">
-        <v>521238.9437574365</v>
+        <v>521237.3005615115</v>
       </c>
       <c r="E32" t="n">
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>419297.83015728</v>
+        <v>402715.8040492535</v>
       </c>
       <c r="G32" t="n">
-        <v>392245.0657916069</v>
+        <v>397906.0136036873</v>
       </c>
     </row>
     <row r="33">
@@ -7770,19 +7837,19 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>491313.0004335475</v>
+        <v>490392.8928053434</v>
       </c>
       <c r="D33" t="n">
-        <v>490821.8541440781</v>
+        <v>490821.5817223216</v>
       </c>
       <c r="E33" t="n">
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>432326.2388367653</v>
+        <v>421080.0004789829</v>
       </c>
       <c r="G33" t="n">
-        <v>416164.7271857262</v>
+        <v>402481.08284688</v>
       </c>
     </row>
     <row r="34">
@@ -7793,19 +7860,19 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>480797.3922309421</v>
+        <v>480879.8741432714</v>
       </c>
       <c r="D34" t="n">
-        <v>480396.8185698022</v>
+        <v>480397.141703499</v>
       </c>
       <c r="E34" t="n">
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>441369.722443819</v>
+        <v>428906.6353545189</v>
       </c>
       <c r="G34" t="n">
-        <v>393377.8781051636</v>
+        <v>414390.3062672615</v>
       </c>
     </row>
     <row r="35">
@@ -7816,19 +7883,19 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>533765.5296309884</v>
+        <v>536407.0178467857</v>
       </c>
       <c r="D35" t="n">
-        <v>530329.2592364355</v>
+        <v>530325.8356909686</v>
       </c>
       <c r="E35" t="n">
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>422437.4230353832</v>
+        <v>427777.4091079235</v>
       </c>
       <c r="G35" t="n">
-        <v>409239.6470372677</v>
+        <v>413613.983995676</v>
       </c>
     </row>
     <row r="36">
@@ -7839,19 +7906,19 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>520786.4282400034</v>
+        <v>524771.995041947</v>
       </c>
       <c r="D36" t="n">
-        <v>519081.157546744</v>
+        <v>519078.7085594727</v>
       </c>
       <c r="E36" t="n">
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>422464.7296233177</v>
+        <v>446047.9129784107</v>
       </c>
       <c r="G36" t="n">
-        <v>415732.3524682522</v>
+        <v>406776.001541853</v>
       </c>
     </row>
     <row r="37">
@@ -7862,19 +7929,19 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>540259.447443157</v>
+        <v>541112.036185988</v>
       </c>
       <c r="D37" t="n">
-        <v>538209.9161361665</v>
+        <v>538206.2070136727</v>
       </c>
       <c r="E37" t="n">
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>431697.5750589371</v>
+        <v>427769.2398724556</v>
       </c>
       <c r="G37" t="n">
-        <v>413098.9373149872</v>
+        <v>401857.7194509506</v>
       </c>
     </row>
     <row r="38">
@@ -7885,19 +7952,19 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>552953.7117439591</v>
+        <v>558984.90968344</v>
       </c>
       <c r="D38" t="n">
-        <v>551195.038105195</v>
+        <v>551189.8449374987</v>
       </c>
       <c r="E38" t="n">
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>421669.8997476101</v>
+        <v>442654.4090664387</v>
       </c>
       <c r="G38" t="n">
-        <v>399657.6411306858</v>
+        <v>432524.3471701145</v>
       </c>
     </row>
     <row r="39">
@@ -7908,19 +7975,19 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>557584.8938266413</v>
+        <v>558414.9337626683</v>
       </c>
       <c r="D39" t="n">
-        <v>548768.452192354</v>
+        <v>548763.1898663259</v>
       </c>
       <c r="E39" t="n">
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>441746.6093349457</v>
+        <v>430660.2046055794</v>
       </c>
       <c r="G39" t="n">
-        <v>419048.5547709465</v>
+        <v>425188.4436919689</v>
       </c>
     </row>
     <row r="40">
@@ -7931,19 +7998,19 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>537932.8722482823</v>
+        <v>534833.6462754366</v>
       </c>
       <c r="D40" t="n">
-        <v>529783.7539073976</v>
+        <v>529780.4388736694</v>
       </c>
       <c r="E40" t="n">
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>446667.9527025223</v>
+        <v>409726.1626193523</v>
       </c>
       <c r="G40" t="n">
-        <v>418742.6894986629</v>
+        <v>412920.228729248</v>
       </c>
     </row>
     <row r="41">
@@ -7954,19 +8021,19 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>498385.0604987275</v>
+        <v>502325.5579548397</v>
       </c>
       <c r="D41" t="n">
-        <v>502561.8700111181</v>
+        <v>502561.5637958674</v>
       </c>
       <c r="E41" t="n">
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>428841.8237540722</v>
+        <v>438774.9668416977</v>
       </c>
       <c r="G41" t="n">
-        <v>399791.9699511528</v>
+        <v>436887.8384625912</v>
       </c>
     </row>
     <row r="42">
@@ -7977,19 +8044,19 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>536042.6704005345</v>
+        <v>537977.6702219694</v>
       </c>
       <c r="D42" t="n">
-        <v>531770.2227897565</v>
+        <v>531767.0387393441</v>
       </c>
       <c r="E42" t="n">
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>432116.5151450634</v>
+        <v>430892.61673069</v>
       </c>
       <c r="G42" t="n">
-        <v>417942.9790732861</v>
+        <v>426679.0580232143</v>
       </c>
     </row>
     <row r="43">
@@ -8000,19 +8067,19 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>525912.6786920499</v>
+        <v>532163.5748406011</v>
       </c>
       <c r="D43" t="n">
-        <v>524483.343959077</v>
+        <v>524480.9470335129</v>
       </c>
       <c r="E43" t="n">
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>426907.7966163158</v>
+        <v>457229.9344980717</v>
       </c>
       <c r="G43" t="n">
-        <v>403159.759139061</v>
+        <v>428543.7953500748</v>
       </c>
     </row>
     <row r="44">
@@ -8023,19 +8090,19 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>535150.5360624586</v>
+        <v>541048.7390199502</v>
       </c>
       <c r="D44" t="n">
-        <v>531992.4274423156</v>
+        <v>531989.6477680848</v>
       </c>
       <c r="E44" t="n">
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>433430.2926425934</v>
+        <v>467451.065002203</v>
       </c>
       <c r="G44" t="n">
-        <v>423852.5900163651</v>
+        <v>430163.8404591084</v>
       </c>
     </row>
     <row r="45">
@@ -8046,19 +8113,19 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>509095.4838854801</v>
+        <v>509557.9327965016</v>
       </c>
       <c r="D45" t="n">
-        <v>504103.2331323071</v>
+        <v>504102.1875453966</v>
       </c>
       <c r="E45" t="n">
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>443365.7448074818</v>
+        <v>443859.4500164986</v>
       </c>
       <c r="G45" t="n">
-        <v>417784.2999835014</v>
+        <v>403050.7427034378</v>
       </c>
     </row>
     <row r="46">
@@ -8069,19 +8136,19 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>499114.6266837532</v>
+        <v>501309.0117814992</v>
       </c>
       <c r="D46" t="n">
-        <v>494545.9747458252</v>
+        <v>494545.6400323637</v>
       </c>
       <c r="E46" t="n">
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>433296.506105423</v>
+        <v>439933.8262465</v>
       </c>
       <c r="G46" t="n">
-        <v>410417.9236826897</v>
+        <v>419094.7713022232</v>
       </c>
     </row>
     <row r="47">
@@ -8092,19 +8159,19 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>548375.1785541263</v>
+        <v>552668.1649238004</v>
       </c>
       <c r="D47" t="n">
-        <v>540335.5984782289</v>
+        <v>540331.0508832885</v>
       </c>
       <c r="E47" t="n">
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>429760.6090955734</v>
+        <v>446210.8953485489</v>
       </c>
       <c r="G47" t="n">
-        <v>414198.1630501747</v>
+        <v>425122.4950459003</v>
       </c>
     </row>
     <row r="48">
@@ -8115,19 +8182,19 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>539752.7108876639</v>
+        <v>541709.0257006126</v>
       </c>
       <c r="D48" t="n">
-        <v>530022.687601878</v>
+        <v>530019.2105668101</v>
       </c>
       <c r="E48" t="n">
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>447854.7834296227</v>
+        <v>453981.3426773548</v>
       </c>
       <c r="G48" t="n">
-        <v>431841.647485733</v>
+        <v>427179.9703521729</v>
       </c>
     </row>
     <row r="49">
@@ -8138,19 +8205,19 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>560721.976597723</v>
+        <v>561093.5401989263</v>
       </c>
       <c r="D49" t="n">
-        <v>547564.830427294</v>
+        <v>547559.9006170026</v>
       </c>
       <c r="E49" t="n">
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>461847.5292475224</v>
+        <v>450611.559286356</v>
       </c>
       <c r="G49" t="n">
-        <v>443283.4052114487</v>
+        <v>446648.9552941322</v>
       </c>
     </row>
     <row r="50">
@@ -8161,19 +8228,19 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>573361.1095659024</v>
+        <v>571908.716301729</v>
       </c>
       <c r="D50" t="n">
-        <v>559473.0500493904</v>
+        <v>559466.5577785867</v>
       </c>
       <c r="E50" t="n">
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>462082.5828170776</v>
+        <v>434324.6752357483</v>
       </c>
       <c r="G50" t="n">
-        <v>438698.9422221184</v>
+        <v>439658.5037689209</v>
       </c>
     </row>
     <row r="51">
@@ -8184,19 +8251,19 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>572668.5906419194</v>
+        <v>575047.3729732761</v>
       </c>
       <c r="D51" t="n">
-        <v>557248.6415551938</v>
+        <v>557242.1245085704</v>
       </c>
       <c r="E51" t="n">
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>455994.8055715561</v>
+        <v>458105.7919940948</v>
       </c>
       <c r="G51" t="n">
-        <v>418074.5439982414</v>
+        <v>425952.6258149147</v>
       </c>
     </row>
     <row r="52">
@@ -8207,19 +8274,19 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>554103.2218150762</v>
+        <v>556455.6002863639</v>
       </c>
       <c r="D52" t="n">
-        <v>539840.4013664008</v>
+        <v>539835.9667655325</v>
       </c>
       <c r="E52" t="n">
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>454333.5819180012</v>
+        <v>455547.9116561413</v>
       </c>
       <c r="G52" t="n">
-        <v>439353.985458374</v>
+        <v>454929.7961630821</v>
       </c>
     </row>
     <row r="53">
@@ -8230,19 +8297,19 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>521494.083304503</v>
+        <v>523278.6179773395</v>
       </c>
       <c r="D53" t="n">
-        <v>514878.594531847</v>
+        <v>514877.3441640146</v>
       </c>
       <c r="E53" t="n">
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>450696.1729736328</v>
+        <v>447478.2988777161</v>
       </c>
       <c r="G53" t="n">
-        <v>421640.756393671</v>
+        <v>445926.7563941479</v>
       </c>
     </row>
     <row r="54">
@@ -8253,19 +8320,19 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>552604.2948543093</v>
+        <v>557961.5830772596</v>
       </c>
       <c r="D54" t="n">
-        <v>541662.8258477986</v>
+        <v>541658.4813120329</v>
       </c>
       <c r="E54" t="n">
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>451612.8766469955</v>
+        <v>476599.804047823</v>
       </c>
       <c r="G54" t="n">
-        <v>437403.4973986149</v>
+        <v>457479.6122236252</v>
       </c>
     </row>
     <row r="55">
@@ -8276,19 +8343,19 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>545861.6257655992</v>
+        <v>546382.8774354211</v>
       </c>
       <c r="D55" t="n">
-        <v>534981.1043074194</v>
+        <v>534977.5955775863</v>
       </c>
       <c r="E55" t="n">
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>455383.1799850464</v>
+        <v>447410.3385355473</v>
       </c>
       <c r="G55" t="n">
-        <v>443035.5292658806</v>
+        <v>443765.7399642467</v>
       </c>
     </row>
     <row r="56">
@@ -8299,19 +8366,19 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>554654.6082957821</v>
+        <v>556030.39849693</v>
       </c>
       <c r="D56" t="n">
-        <v>541867.1161479257</v>
+        <v>541863.1395780526</v>
       </c>
       <c r="E56" t="n">
-        <v>614602.7683121646</v>
+        <v>614602.7683121645</v>
       </c>
       <c r="F56" t="n">
-        <v>466209.726057291</v>
+        <v>462524.5087177753</v>
       </c>
       <c r="G56" t="n">
-        <v>457054.5145981312</v>
+        <v>467182.809700489</v>
       </c>
     </row>
     <row r="57">
@@ -8322,19 +8389,19 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>528145.0717280768</v>
+        <v>530371.864844723</v>
       </c>
       <c r="D57" t="n">
-        <v>516293.1033084352</v>
+        <v>516291.1521900483</v>
       </c>
       <c r="E57" t="n">
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>455494.3655538559</v>
+        <v>466638.3922567368</v>
       </c>
       <c r="G57" t="n">
-        <v>456995.825551033</v>
+        <v>452714.5514035225</v>
       </c>
     </row>
     <row r="58">
@@ -8345,19 +8412,19 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>522537.18794024</v>
+        <v>526594.0630448222</v>
       </c>
       <c r="D58" t="n">
-        <v>507529.3102328324</v>
+        <v>507528.160259891</v>
       </c>
       <c r="E58" t="n">
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>465128.2382338047</v>
+        <v>483450.6963427067</v>
       </c>
       <c r="G58" t="n">
-        <v>435692.2437376976</v>
+        <v>461673.963606596</v>
       </c>
     </row>
     <row r="59">
@@ -8368,19 +8435,19 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>569641.4578320942</v>
+        <v>571408.370857024</v>
       </c>
       <c r="D59" t="n">
-        <v>549518.19456457</v>
+        <v>549512.467255535</v>
       </c>
       <c r="E59" t="n">
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>481541.8591387272</v>
+        <v>479945.9893689156</v>
       </c>
       <c r="G59" t="n">
-        <v>447007.9118504524</v>
+        <v>462736.5414867401</v>
       </c>
     </row>
     <row r="60">
@@ -8391,19 +8458,19 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>559531.3999561215</v>
+        <v>560516.5573752191</v>
       </c>
       <c r="D60" t="n">
-        <v>540061.4185721624</v>
+        <v>540056.8339584076</v>
       </c>
       <c r="E60" t="n">
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>481411.5712034702</v>
+        <v>475139.5400881767</v>
       </c>
       <c r="G60" t="n">
-        <v>451007.9508831501</v>
+        <v>464870.8985700607</v>
       </c>
     </row>
     <row r="61">
@@ -8414,19 +8481,19 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>578303.651423446</v>
+        <v>582197.6360295988</v>
       </c>
       <c r="D61" t="n">
-        <v>556147.5149501024</v>
+        <v>556141.3245965317</v>
       </c>
       <c r="E61" t="n">
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>479051.3268876076</v>
+        <v>490739.7535412312</v>
       </c>
       <c r="G61" t="n">
-        <v>454460.5636744499</v>
+        <v>479625.0276293755</v>
       </c>
     </row>
     <row r="62">
@@ -8437,19 +8504,19 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>591434.6244222793</v>
+        <v>592572.7264118658</v>
       </c>
       <c r="D62" t="n">
-        <v>567067.3275559774</v>
+        <v>567059.5187603674</v>
       </c>
       <c r="E62" t="n">
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>488489.1029303074</v>
+        <v>486593.1230883598</v>
       </c>
       <c r="G62" t="n">
-        <v>474421.6094825268</v>
+        <v>471121.27333951</v>
       </c>
     </row>
     <row r="63">
@@ -8460,19 +8527,19 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>594037.3560629283</v>
+        <v>594315.0339477643</v>
       </c>
       <c r="D63" t="n">
-        <v>565027.6059433514</v>
+        <v>565019.809197626</v>
       </c>
       <c r="E63" t="n">
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>500779.4465501308</v>
+        <v>495773.2271001339</v>
       </c>
       <c r="G63" t="n">
-        <v>477655.2622730732</v>
+        <v>467707.4425504208</v>
       </c>
     </row>
     <row r="64">
@@ -8483,19 +8550,19 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>577184.7772395127</v>
+        <v>576053.2633354879</v>
       </c>
       <c r="D64" t="n">
-        <v>549064.4062069372</v>
+        <v>549058.7906583664</v>
       </c>
       <c r="E64" t="n">
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>511687.8424141407</v>
+        <v>493642.036251545</v>
       </c>
       <c r="G64" t="n">
-        <v>475357.8703405857</v>
+        <v>478701.4666962624</v>
       </c>
     </row>
     <row r="65">
@@ -8506,19 +8573,19 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>548066.5107561713</v>
+        <v>548588.9756047826</v>
       </c>
       <c r="D65" t="n">
-        <v>526174.6305904535</v>
+        <v>526172.3243872615</v>
       </c>
       <c r="E65" t="n">
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>497999.2125675678</v>
+        <v>485957.5145857334</v>
       </c>
       <c r="G65" t="n">
-        <v>456846.6451654434</v>
+        <v>487132.2226572037</v>
       </c>
     </row>
     <row r="66">
@@ -8529,19 +8596,19 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>573620.9079028104</v>
+        <v>575046.400454762</v>
       </c>
       <c r="D66" t="n">
-        <v>550735.6080142081</v>
+        <v>550730.0466990217</v>
       </c>
       <c r="E66" t="n">
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>501967.4842948914</v>
+        <v>505516.9034011364</v>
       </c>
       <c r="G66" t="n">
-        <v>475884.1125473976</v>
+        <v>476706.4764201641</v>
       </c>
     </row>
     <row r="67">
@@ -8552,19 +8619,19 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>569125.4035042918</v>
+        <v>570138.2106388634</v>
       </c>
       <c r="D67" t="n">
-        <v>544608.5334797063</v>
+        <v>544603.8428502311</v>
       </c>
       <c r="E67" t="n">
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>511028.8457577229</v>
+        <v>510027.8257782459</v>
       </c>
       <c r="G67" t="n">
-        <v>485687.9997873306</v>
+        <v>494791.204529047</v>
       </c>
     </row>
     <row r="68">
@@ -8575,19 +8642,19 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>573641.7242366931</v>
+        <v>574671.0654631135</v>
       </c>
       <c r="D68" t="n">
-        <v>550922.9728608044</v>
+        <v>550917.7458256328</v>
       </c>
       <c r="E68" t="n">
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>504792.8677351475</v>
+        <v>501055.0664088726</v>
       </c>
       <c r="G68" t="n">
-        <v>468235.976341486</v>
+        <v>480726.7898509502</v>
       </c>
     </row>
     <row r="69">
@@ -8598,19 +8665,19 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>555033.6774431582</v>
+        <v>553062.1899325806</v>
       </c>
       <c r="D69" t="n">
-        <v>527471.7912225157</v>
+        <v>527468.8204826671</v>
       </c>
       <c r="E69" t="n">
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>538633.6020402908</v>
+        <v>509777.1334581375</v>
       </c>
       <c r="G69" t="n">
-        <v>468530.5236365795</v>
+        <v>501133.5050637722</v>
       </c>
     </row>
     <row r="70">
@@ -8621,19 +8688,19 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>552934.6383122671</v>
+        <v>549136.3907002175</v>
       </c>
       <c r="D70" t="n">
-        <v>519435.4624742399</v>
+        <v>519433.3631066284</v>
       </c>
       <c r="E70" t="n">
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>544198.0234255791</v>
+        <v>516545.5811989307</v>
       </c>
       <c r="G70" t="n">
-        <v>489606.4514234066</v>
+        <v>480593.685541153</v>
       </c>
     </row>
   </sheetData>
@@ -8692,19 +8759,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>574862.378356796</v>
+        <v>576806.5010037232</v>
       </c>
       <c r="C2" t="n">
-        <v>567597.758341391</v>
+        <v>567597.7512207057</v>
       </c>
       <c r="D2" t="n">
         <v>602686.2626755536</v>
       </c>
       <c r="E2" t="n">
-        <v>537244.1186179519</v>
+        <v>545423.8693739772</v>
       </c>
       <c r="F2" t="n">
-        <v>533354.161544621</v>
+        <v>543291.7634041905</v>
       </c>
     </row>
     <row r="3">
@@ -8712,19 +8779,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>562049.114356157</v>
+        <v>562544.9073001784</v>
       </c>
       <c r="C3" t="n">
-        <v>559137.6192011492</v>
+        <v>559137.6109765585</v>
       </c>
       <c r="D3" t="n">
         <v>580422.211595117</v>
       </c>
       <c r="E3" t="n">
-        <v>532425.9760482907</v>
+        <v>532332.5400083065</v>
       </c>
       <c r="F3" t="n">
-        <v>528995.4689385295</v>
+        <v>529838.6218349934</v>
       </c>
     </row>
     <row r="4">
@@ -8732,19 +8799,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>584557.566253998</v>
+        <v>586057.2359880426</v>
       </c>
       <c r="C4" t="n">
-        <v>586003.6468173779</v>
+        <v>586003.6385417941</v>
       </c>
       <c r="D4" t="n">
         <v>605607.626946749</v>
       </c>
       <c r="E4" t="n">
-        <v>535949.060282886</v>
+        <v>539627.4224482775</v>
       </c>
       <c r="F4" t="n">
-        <v>540396.0818659067</v>
+        <v>545883.6443324685</v>
       </c>
     </row>
     <row r="5">
@@ -8752,19 +8819,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>607917.2509240583</v>
+        <v>609614.3105974013</v>
       </c>
       <c r="C5" t="n">
-        <v>611278.4626222842</v>
+        <v>611278.4532062508</v>
       </c>
       <c r="D5" t="n">
         <v>636509.341252004</v>
       </c>
       <c r="E5" t="n">
-        <v>540465.9557740688</v>
+        <v>543595.2390192747</v>
       </c>
       <c r="F5" t="n">
-        <v>537070.1999070048</v>
+        <v>541001.8723999262</v>
       </c>
     </row>
     <row r="6">
@@ -8772,19 +8839,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>611101.3475789041</v>
+        <v>612665.4374112234</v>
       </c>
       <c r="C6" t="n">
-        <v>613413.3658206322</v>
+        <v>613413.3564009352</v>
       </c>
       <c r="D6" t="n">
         <v>640178.4494989081</v>
       </c>
       <c r="E6" t="n">
-        <v>549460.097375989</v>
+        <v>547710.185434103</v>
       </c>
       <c r="F6" t="n">
-        <v>529267.8378968239</v>
+        <v>546038.4579848051</v>
       </c>
     </row>
     <row r="7">
@@ -8792,19 +8859,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>570920.2771873932</v>
+        <v>574736.6575146563</v>
       </c>
       <c r="C7" t="n">
-        <v>564553.5435004764</v>
+        <v>564553.5379777277</v>
       </c>
       <c r="D7" t="n">
         <v>594482.0496377712</v>
       </c>
       <c r="E7" t="n">
-        <v>538182.6575239301</v>
+        <v>560568.8880776167</v>
       </c>
       <c r="F7" t="n">
-        <v>540918.1165658236</v>
+        <v>557616.6574229598</v>
       </c>
     </row>
     <row r="8">
@@ -8812,19 +8879,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>532841.7208153034</v>
+        <v>533713.4371729933</v>
       </c>
       <c r="C8" t="n">
-        <v>529683.5402103409</v>
+        <v>529683.5387219149</v>
       </c>
       <c r="D8" t="n">
         <v>527985.1887606144</v>
       </c>
       <c r="E8" t="n">
-        <v>553837.3843343854</v>
+        <v>559571.5483047366</v>
       </c>
       <c r="F8" t="n">
-        <v>543223.8626794815</v>
+        <v>557046.8020417094</v>
       </c>
     </row>
     <row r="9">
@@ -8832,19 +8899,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>585330.3673175547</v>
+        <v>586864.8990289646</v>
       </c>
       <c r="C9" t="n">
-        <v>588667.795209059</v>
+        <v>588667.7945361527</v>
       </c>
       <c r="D9" t="n">
         <v>600445.4681529488</v>
       </c>
       <c r="E9" t="n">
-        <v>547822.0765428543</v>
+        <v>549277.3573743105</v>
       </c>
       <c r="F9" t="n">
-        <v>536552.8079916835</v>
+        <v>553058.4179349542</v>
       </c>
     </row>
     <row r="10">
@@ -8852,19 +8919,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>580086.3765443196</v>
+        <v>582301.6890799581</v>
       </c>
       <c r="C10" t="n">
-        <v>583408.0101097104</v>
+        <v>583408.0094640368</v>
       </c>
       <c r="D10" t="n">
         <v>592851.4776734043</v>
       </c>
       <c r="E10" t="n">
-        <v>547169.8581628799</v>
+        <v>552734.2355005741</v>
       </c>
       <c r="F10" t="n">
-        <v>537272.1842508316</v>
+        <v>560266.3410194516</v>
       </c>
     </row>
     <row r="11">
@@ -8872,19 +8939,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>587952.2504640672</v>
+        <v>590111.1288453082</v>
       </c>
       <c r="C11" t="n">
-        <v>594694.9802024941</v>
+        <v>594694.9810091069</v>
       </c>
       <c r="D11" t="n">
         <v>597517.3928751803</v>
       </c>
       <c r="E11" t="n">
-        <v>552396.8907718658</v>
+        <v>560866.1655752659</v>
       </c>
       <c r="F11" t="n">
-        <v>543457.8125952482</v>
+        <v>555577.5232146978</v>
       </c>
     </row>
     <row r="12">
@@ -8892,19 +8959,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>546239.6975230598</v>
+        <v>549115.5786432379</v>
       </c>
       <c r="C12" t="n">
-        <v>541183.7063887551</v>
+        <v>541183.7074414761</v>
       </c>
       <c r="D12" t="n">
         <v>551359.5456701583</v>
       </c>
       <c r="E12" t="n">
-        <v>550149.7830276489</v>
+        <v>567272.3029740453</v>
       </c>
       <c r="F12" t="n">
-        <v>545318.5478054285</v>
+        <v>568557.8436006904</v>
       </c>
     </row>
     <row r="13">
@@ -8912,19 +8979,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>531029.0774782907</v>
+        <v>532242.3971317213</v>
       </c>
       <c r="C13" t="n">
-        <v>521728.866295176</v>
+        <v>521728.8675261118</v>
       </c>
       <c r="D13" t="n">
         <v>533143.9267627357</v>
       </c>
       <c r="E13" t="n">
-        <v>554034.354470849</v>
+        <v>560872.1547673941</v>
       </c>
       <c r="F13" t="n">
-        <v>542453.7175707817</v>
+        <v>563300.2382551432</v>
       </c>
     </row>
     <row r="14">
@@ -8932,19 +8999,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>594839.6225658449</v>
+        <v>596780.429006236</v>
       </c>
       <c r="C14" t="n">
-        <v>591325.9817241835</v>
+        <v>591325.9766114871</v>
       </c>
       <c r="D14" t="n">
         <v>619419.1044056325</v>
       </c>
       <c r="E14" t="n">
-        <v>557575.6152071357</v>
+        <v>562469.6673049331</v>
       </c>
       <c r="F14" t="n">
-        <v>538957.5382729173</v>
+        <v>557286.8340052962</v>
       </c>
     </row>
     <row r="15">
@@ -8952,19 +9019,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>581701.323780969</v>
+        <v>582617.2289531195</v>
       </c>
       <c r="C15" t="n">
-        <v>578375.3376677106</v>
+        <v>578375.334432641</v>
       </c>
       <c r="D15" t="n">
         <v>597814.2095437858</v>
       </c>
       <c r="E15" t="n">
-        <v>562755.894975245</v>
+        <v>562088.9821820259</v>
       </c>
       <c r="F15" t="n">
-        <v>539009.6999578476</v>
+        <v>555759.543584764</v>
       </c>
     </row>
     <row r="16">
@@ -8972,19 +9039,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>602155.0680404652</v>
+        <v>602498.8665527719</v>
       </c>
       <c r="C16" t="n">
-        <v>600621.7422701889</v>
+        <v>600621.7378011533</v>
       </c>
       <c r="D16" t="n">
         <v>623734.4912420533</v>
       </c>
       <c r="E16" t="n">
-        <v>560978.4048928618</v>
+        <v>558093.2856895328</v>
       </c>
       <c r="F16" t="n">
-        <v>562736.9756280184</v>
+        <v>562671.3498677611</v>
       </c>
     </row>
     <row r="17">
@@ -8992,19 +9059,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>621120.9241350221</v>
+        <v>623983.40831676</v>
       </c>
       <c r="C17" t="n">
-        <v>622579.2510582452</v>
+        <v>622579.2434896932</v>
       </c>
       <c r="D17" t="n">
         <v>651473.0272178927</v>
       </c>
       <c r="E17" t="n">
-        <v>554216.6766219139</v>
+        <v>563868.8865123987</v>
       </c>
       <c r="F17" t="n">
-        <v>554286.527316153</v>
+        <v>568215.6703760028</v>
       </c>
     </row>
     <row r="18">
@@ -9012,19 +9079,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>625501.096766611</v>
+        <v>626871.4650286532</v>
       </c>
       <c r="C18" t="n">
-        <v>623524.695809538</v>
+        <v>623524.687035834</v>
       </c>
       <c r="D18" t="n">
         <v>656482.533015279</v>
       </c>
       <c r="E18" t="n">
-        <v>569485.2398236394</v>
+        <v>568286.8442638516</v>
       </c>
       <c r="F18" t="n">
-        <v>556644.1333337426</v>
+        <v>570394.2970474362</v>
       </c>
     </row>
     <row r="19">
@@ -9032,19 +9099,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>587694.4231791435</v>
+        <v>588591.1053699944</v>
       </c>
       <c r="C19" t="n">
-        <v>577009.7249039919</v>
+        <v>577009.7209059424</v>
       </c>
       <c r="D19" t="n">
         <v>610776.604753688</v>
       </c>
       <c r="E19" t="n">
-        <v>569009.9347506762</v>
+        <v>579802.1803985834</v>
       </c>
       <c r="F19" t="n">
-        <v>564966.9747110009</v>
+        <v>551729.3512027264</v>
       </c>
     </row>
     <row r="20">
@@ -9052,19 +9119,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>552198.9717856006</v>
+        <v>551831.2610420772</v>
       </c>
       <c r="C20" t="n">
-        <v>543887.517512445</v>
+        <v>543887.518020688</v>
       </c>
       <c r="D20" t="n">
         <v>551298.4640300716</v>
       </c>
       <c r="E20" t="n">
-        <v>577637.89993155</v>
+        <v>578561.3033597469</v>
       </c>
       <c r="F20" t="n">
-        <v>571092.8968455195</v>
+        <v>571874.672129631</v>
       </c>
     </row>
     <row r="21">
@@ -9072,19 +9139,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>599953.9979236932</v>
+        <v>602686.3927082673</v>
       </c>
       <c r="C21" t="n">
-        <v>599054.6632677552</v>
+        <v>599054.6614166819</v>
       </c>
       <c r="D21" t="n">
         <v>616576.5087140256</v>
       </c>
       <c r="E21" t="n">
-        <v>565568.1224604249</v>
+        <v>585451.4974804521</v>
       </c>
       <c r="F21" t="n">
-        <v>574912.306806922</v>
+        <v>571331.8377547264</v>
       </c>
     </row>
     <row r="22">
@@ -9092,19 +9159,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>595759.7693469682</v>
+        <v>596314.6132043819</v>
       </c>
       <c r="C22" t="n">
-        <v>593981.6524699468</v>
+        <v>593981.6504537372</v>
       </c>
       <c r="D22" t="n">
         <v>606885.9353365311</v>
       </c>
       <c r="E22" t="n">
-        <v>579352.4570687413</v>
+        <v>584444.0596510768</v>
       </c>
       <c r="F22" t="n">
-        <v>571073.931070447</v>
+        <v>564360.0931226015</v>
       </c>
     </row>
     <row r="23">
@@ -9112,19 +9179,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>603039.2119738732</v>
+        <v>604887.0352375187</v>
       </c>
       <c r="C23" t="n">
-        <v>604501.4761801459</v>
+        <v>604501.4747514646</v>
       </c>
       <c r="D23" t="n">
         <v>615356.1129595938</v>
       </c>
       <c r="E23" t="n">
-        <v>573204.7138466239</v>
+        <v>582044.6685721278</v>
       </c>
       <c r="F23" t="n">
-        <v>574817.617215097</v>
+        <v>581868.9856030345</v>
       </c>
     </row>
     <row r="24">
@@ -9132,19 +9199,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>562838.5407360478</v>
+        <v>562862.6454029677</v>
       </c>
       <c r="C24" t="n">
-        <v>554202.2752252378</v>
+        <v>554202.2761356608</v>
       </c>
       <c r="D24" t="n">
         <v>567722.9101940858</v>
       </c>
       <c r="E24" t="n">
-        <v>578460.8102871776</v>
+        <v>575287.1884490848</v>
       </c>
       <c r="F24" t="n">
-        <v>566360.2279402614</v>
+        <v>583569.8465256691</v>
       </c>
     </row>
     <row r="25">
@@ -9152,19 +9219,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>548003.4371979428</v>
+        <v>549677.2471191795</v>
       </c>
       <c r="C25" t="n">
-        <v>535904.2071997051</v>
+        <v>535904.2089833217</v>
       </c>
       <c r="D25" t="n">
         <v>551901.5242830559</v>
       </c>
       <c r="E25" t="n">
-        <v>571824.7621952295</v>
+        <v>586964.9988307357</v>
       </c>
       <c r="F25" t="n">
-        <v>572248.5555731058</v>
+        <v>582115.2621119022</v>
       </c>
     </row>
     <row r="26">
@@ -9172,19 +9239,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>608573.2164096246</v>
+        <v>611296.4804261279</v>
       </c>
       <c r="C26" t="n">
-        <v>601245.1128701341</v>
+        <v>601245.1056104415</v>
       </c>
       <c r="D26" t="n">
         <v>636113.5735861117</v>
       </c>
       <c r="E26" t="n">
-        <v>572696.3521473408</v>
+        <v>589520.3178303242</v>
       </c>
       <c r="F26" t="n">
-        <v>564713.4786720872</v>
+        <v>570227.9925032258</v>
       </c>
     </row>
     <row r="27">
@@ -9192,19 +9259,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>597040.6599300919</v>
+        <v>597437.1168583407</v>
       </c>
       <c r="C27" t="n">
-        <v>589073.2870292448</v>
+        <v>589073.2820333408</v>
       </c>
       <c r="D27" t="n">
         <v>615210.3708068638</v>
       </c>
       <c r="E27" t="n">
-        <v>580217.1524857283</v>
+        <v>580403.4906454682</v>
       </c>
       <c r="F27" t="n">
-        <v>580951.6410087347</v>
+        <v>584709.7197856307</v>
       </c>
     </row>
     <row r="28">
@@ -9212,19 +9279,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>616184.2172472894</v>
+        <v>618382.7161763482</v>
       </c>
       <c r="C28" t="n">
-        <v>609958.6152983853</v>
+        <v>609958.6081479054</v>
       </c>
       <c r="D28" t="n">
         <v>641818.2372142585</v>
       </c>
       <c r="E28" t="n">
-        <v>580200.6706004143</v>
+        <v>588701.7716922164</v>
       </c>
       <c r="F28" t="n">
-        <v>576988.9547147155</v>
+        <v>592362.2591369152</v>
       </c>
     </row>
     <row r="29">
@@ -9232,19 +9299,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>635389.6258604492</v>
+        <v>637840.8687098051</v>
       </c>
       <c r="C29" t="n">
-        <v>630575.0633871934</v>
+        <v>630575.0523559012</v>
       </c>
       <c r="D29" t="n">
         <v>666403.3454424358</v>
       </c>
       <c r="E29" t="n">
-        <v>587255.1728679538</v>
+        <v>592397.3818023801</v>
       </c>
       <c r="F29" t="n">
-        <v>572593.9091052413</v>
+        <v>598030.1705710888</v>
       </c>
     </row>
     <row r="30">
@@ -9252,19 +9319,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>639442.0281188426</v>
+        <v>641517.4119866419</v>
       </c>
       <c r="C30" t="n">
-        <v>631460.793086505</v>
+        <v>631460.7808672757</v>
       </c>
       <c r="D30" t="n">
         <v>672819.9574355934</v>
       </c>
       <c r="E30" t="n">
-        <v>588628.7174766064</v>
+        <v>601882.4050195813</v>
       </c>
       <c r="F30" t="n">
-        <v>599528.7685828209</v>
+        <v>593587.8846283555</v>
       </c>
     </row>
     <row r="31">
@@ -9272,19 +9339,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>601461.5850345347</v>
+        <v>603770.8970931694</v>
       </c>
       <c r="C31" t="n">
-        <v>587777.9148110269</v>
+        <v>587777.9090706997</v>
       </c>
       <c r="D31" t="n">
         <v>627176.7671117317</v>
       </c>
       <c r="E31" t="n">
-        <v>583728.1422664523</v>
+        <v>598130.3154348135</v>
       </c>
       <c r="F31" t="n">
-        <v>585992.9158060551</v>
+        <v>596639.1923062801</v>
       </c>
     </row>
     <row r="32">
@@ -9292,19 +9359,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>569889.9307040606</v>
+        <v>570568.11330175</v>
       </c>
       <c r="C32" t="n">
-        <v>556672.5205032746</v>
+        <v>556672.5204154879</v>
       </c>
       <c r="D32" t="n">
         <v>574636.9453647494</v>
       </c>
       <c r="E32" t="n">
-        <v>595918.6321370602</v>
+        <v>606425.7643829584</v>
       </c>
       <c r="F32" t="n">
-        <v>592139.0108396411</v>
+        <v>592577.4057750702</v>
       </c>
     </row>
     <row r="33">
@@ -9312,19 +9379,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>614393.6338960178</v>
+        <v>616165.9634224436</v>
       </c>
       <c r="C33" t="n">
-        <v>608478.8287069208</v>
+        <v>608478.8240227761</v>
       </c>
       <c r="D33" t="n">
         <v>632568.3248061528</v>
       </c>
       <c r="E33" t="n">
-        <v>594505.9488542676</v>
+        <v>603207.478957057</v>
       </c>
       <c r="F33" t="n">
-        <v>585356.3203962445</v>
+        <v>596650.636770308</v>
       </c>
     </row>
     <row r="34">
@@ -9332,19 +9399,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>608305.7527298698</v>
+        <v>610034.0869552732</v>
       </c>
       <c r="C34" t="n">
-        <v>603714.5613785295</v>
+        <v>603714.5567553629</v>
       </c>
       <c r="D34" t="n">
         <v>620908.6794797002</v>
       </c>
       <c r="E34" t="n">
-        <v>595089.2218829989</v>
+        <v>608802.2897477746</v>
       </c>
       <c r="F34" t="n">
-        <v>591743.9562984109</v>
+        <v>590766.7429967523</v>
       </c>
     </row>
     <row r="35">
@@ -9352,19 +9419,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>618797.4735719888</v>
+        <v>619739.5509850922</v>
       </c>
       <c r="C35" t="n">
-        <v>613593.4329678018</v>
+        <v>613593.4284415703</v>
       </c>
       <c r="D35" t="n">
         <v>633222.4200233145</v>
       </c>
       <c r="E35" t="n">
-        <v>602056.6022976041</v>
+        <v>602793.690779984</v>
       </c>
       <c r="F35" t="n">
-        <v>604375.1857106686</v>
+        <v>618715.2152072191</v>
       </c>
     </row>
     <row r="36">
@@ -9372,19 +9439,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>578540.8549923018</v>
+        <v>578558.9674457152</v>
       </c>
       <c r="C36" t="n">
-        <v>566358.0042133005</v>
+        <v>566358.0040497578</v>
       </c>
       <c r="D36" t="n">
         <v>584129.6342546437</v>
       </c>
       <c r="E36" t="n">
-        <v>601218.2546831965</v>
+        <v>601257.0451484919</v>
       </c>
       <c r="F36" t="n">
-        <v>592723.1195695996</v>
+        <v>604581.4878441691</v>
       </c>
     </row>
     <row r="37">
@@ -9392,19 +9459,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>566668.0379928763</v>
+        <v>566752.6574001781</v>
       </c>
       <c r="C37" t="n">
-        <v>549174.4668268898</v>
+        <v>549174.4682710741</v>
       </c>
       <c r="D37" t="n">
         <v>570700.9080906152</v>
       </c>
       <c r="E37" t="n">
-        <v>602789.60512954</v>
+        <v>610926.7119090557</v>
       </c>
       <c r="F37" t="n">
-        <v>610258.3134247661</v>
+        <v>607937.3389776349</v>
       </c>
     </row>
     <row r="38">
@@ -9412,19 +9479,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>624309.7047324739</v>
+        <v>625581.9618580708</v>
       </c>
       <c r="C38" t="n">
-        <v>610535.2382813192</v>
+        <v>610535.228417561</v>
       </c>
       <c r="D38" t="n">
         <v>652769.2824203734</v>
       </c>
       <c r="E38" t="n">
-        <v>604713.435782373</v>
+        <v>615508.2581757307</v>
       </c>
       <c r="F38" t="n">
-        <v>592031.1125256419</v>
+        <v>587933.7854783535</v>
       </c>
     </row>
     <row r="39">
@@ -9432,19 +9499,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>612038.0448833917</v>
+        <v>612333.6636113646</v>
       </c>
       <c r="C39" t="n">
-        <v>599104.8128257752</v>
+        <v>599104.8056120734</v>
       </c>
       <c r="D39" t="n">
         <v>632610.2746277921</v>
       </c>
       <c r="E39" t="n">
-        <v>604458.15227139</v>
+        <v>607500.8940117359</v>
       </c>
       <c r="F39" t="n">
-        <v>600655.2241953015</v>
+        <v>599125.7748799324</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/no_covid_series_HOU-Dom_results.xlsx
+++ b/fcst_results/no_covid_series_HOU-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>543291.7634041905</v>
+        <v>535181.236566484</v>
       </c>
       <c r="C2" t="n">
-        <v>545423.8693739772</v>
+        <v>550197.4644254446</v>
       </c>
       <c r="D2" t="n">
         <v>567597.7512207057</v>
@@ -491,7 +491,7 @@
         <v>602686.2626755536</v>
       </c>
       <c r="F2" t="n">
-        <v>576806.5010037232</v>
+        <v>578564.6440517333</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>529838.6218349934</v>
+        <v>536117.0362295508</v>
       </c>
       <c r="C3" t="n">
-        <v>532332.5400083065</v>
+        <v>544240.8878590465</v>
       </c>
       <c r="D3" t="n">
         <v>559137.6109765585</v>
@@ -511,7 +511,7 @@
         <v>580422.211595117</v>
       </c>
       <c r="F3" t="n">
-        <v>562544.9073001784</v>
+        <v>565390.9933271148</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>545883.6443324685</v>
+        <v>540841.1159833074</v>
       </c>
       <c r="C4" t="n">
-        <v>539627.4224482775</v>
+        <v>550461.569227159</v>
       </c>
       <c r="D4" t="n">
         <v>586003.6385417941</v>
@@ -531,7 +531,7 @@
         <v>605607.626946749</v>
       </c>
       <c r="F4" t="n">
-        <v>586057.2359880426</v>
+        <v>589334.8267246451</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>541001.8723999262</v>
+        <v>539610.8941351175</v>
       </c>
       <c r="C5" t="n">
-        <v>543595.2390192747</v>
+        <v>555369.1550420523</v>
       </c>
       <c r="D5" t="n">
         <v>611278.4532062508</v>
@@ -551,7 +551,7 @@
         <v>636509.341252004</v>
       </c>
       <c r="F5" t="n">
-        <v>609614.3105974013</v>
+        <v>614292.5986462093</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>546038.4579848051</v>
+        <v>538625.5791743398</v>
       </c>
       <c r="C6" t="n">
-        <v>547710.185434103</v>
+        <v>559970.52599895</v>
       </c>
       <c r="D6" t="n">
         <v>613413.3564009352</v>
@@ -571,7 +571,7 @@
         <v>640178.4494989081</v>
       </c>
       <c r="F6" t="n">
-        <v>612665.4374112234</v>
+        <v>616953.4407127134</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>557616.6574229598</v>
+        <v>549952.4182544947</v>
       </c>
       <c r="C7" t="n">
-        <v>560568.8880776167</v>
+        <v>562752.0182501078</v>
       </c>
       <c r="D7" t="n">
         <v>564553.5379777277</v>
@@ -591,7 +591,7 @@
         <v>594482.0496377712</v>
       </c>
       <c r="F7" t="n">
-        <v>574736.6575146563</v>
+        <v>575283.178702662</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>557046.8020417094</v>
+        <v>552443.4811152816</v>
       </c>
       <c r="C8" t="n">
-        <v>559571.5483047366</v>
+        <v>555225.7858537436</v>
       </c>
       <c r="D8" t="n">
         <v>529683.5387219149</v>
@@ -611,7 +611,7 @@
         <v>527985.1887606144</v>
       </c>
       <c r="F8" t="n">
-        <v>533713.4371729933</v>
+        <v>531548.0541797822</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>553058.4179349542</v>
+        <v>542117.1156876087</v>
       </c>
       <c r="C9" t="n">
-        <v>549277.3573743105</v>
+        <v>566454.4764675498</v>
       </c>
       <c r="D9" t="n">
         <v>588667.7945361527</v>
@@ -631,7 +631,7 @@
         <v>600445.4681529488</v>
       </c>
       <c r="F9" t="n">
-        <v>586864.8990289646</v>
+        <v>589472.1892574357</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>560266.3410194516</v>
+        <v>551739.1474782228</v>
       </c>
       <c r="C10" t="n">
-        <v>552734.2355005741</v>
+        <v>570502.2417892814</v>
       </c>
       <c r="D10" t="n">
         <v>583408.0094640368</v>
@@ -651,7 +651,7 @@
         <v>592851.4776734043</v>
       </c>
       <c r="F10" t="n">
-        <v>582301.6890799581</v>
+        <v>584614.9624317577</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>555577.5232146978</v>
+        <v>559867.8740315437</v>
       </c>
       <c r="C11" t="n">
-        <v>560866.1655752659</v>
+        <v>562662.1339403391</v>
       </c>
       <c r="D11" t="n">
         <v>594694.9810091069</v>
@@ -671,7 +671,7 @@
         <v>597517.3928751803</v>
       </c>
       <c r="F11" t="n">
-        <v>590111.1288453082</v>
+        <v>592252.4264847706</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>568557.8436006904</v>
+        <v>563579.385678947</v>
       </c>
       <c r="C12" t="n">
-        <v>567272.3029740453</v>
+        <v>572741.9675059915</v>
       </c>
       <c r="D12" t="n">
         <v>541183.7074414761</v>
@@ -691,7 +691,7 @@
         <v>551359.5456701583</v>
       </c>
       <c r="F12" t="n">
-        <v>549115.5786432379</v>
+        <v>547937.3440614548</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>563300.2382551432</v>
+        <v>565072.8301997781</v>
       </c>
       <c r="C13" t="n">
-        <v>560872.1547673941</v>
+        <v>582070.3199570179</v>
       </c>
       <c r="D13" t="n">
         <v>521728.8675261118</v>
@@ -711,7 +711,7 @@
         <v>533143.9267627357</v>
       </c>
       <c r="F13" t="n">
-        <v>532242.3971317213</v>
+        <v>531534.262253989</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>557286.8340052962</v>
+        <v>557276.2252424955</v>
       </c>
       <c r="C14" t="n">
-        <v>562469.6673049331</v>
+        <v>567364.7408153415</v>
       </c>
       <c r="D14" t="n">
         <v>591325.9766114871</v>
@@ -731,7 +731,7 @@
         <v>619419.1044056325</v>
       </c>
       <c r="F14" t="n">
-        <v>596780.429006236</v>
+        <v>599164.1390939023</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>555759.543584764</v>
+        <v>563103.0127655268</v>
       </c>
       <c r="C15" t="n">
-        <v>562088.9821820259</v>
+        <v>563989.6453397274</v>
       </c>
       <c r="D15" t="n">
         <v>578375.334432641</v>
@@ -751,7 +751,7 @@
         <v>597814.2095437858</v>
       </c>
       <c r="F15" t="n">
-        <v>582617.2289531195</v>
+        <v>584393.52624304</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>562671.3498677611</v>
+        <v>553461.5741353035</v>
       </c>
       <c r="C16" t="n">
-        <v>558093.2856895328</v>
+        <v>581170.8500834107</v>
       </c>
       <c r="D16" t="n">
         <v>600621.7378011533</v>
@@ -771,7 +771,7 @@
         <v>623734.4912420533</v>
       </c>
       <c r="F16" t="n">
-        <v>602498.8665527719</v>
+        <v>605941.0619401224</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>568215.6703760028</v>
+        <v>552440.9275837541</v>
       </c>
       <c r="C17" t="n">
-        <v>563868.8865123987</v>
+        <v>576711.2697680593</v>
       </c>
       <c r="D17" t="n">
         <v>622579.2434896932</v>
@@ -791,7 +791,7 @@
         <v>651473.0272178927</v>
       </c>
       <c r="F17" t="n">
-        <v>623983.40831676</v>
+        <v>627574.6159471598</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>570394.2970474362</v>
+        <v>563775.7290394902</v>
       </c>
       <c r="C18" t="n">
-        <v>568286.8442638516</v>
+        <v>578903.2908730507</v>
       </c>
       <c r="D18" t="n">
         <v>623524.687035834</v>
@@ -811,7 +811,7 @@
         <v>656482.533015279</v>
       </c>
       <c r="F18" t="n">
-        <v>626871.4650286532</v>
+        <v>630782.8972345914</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>551729.3512027264</v>
+        <v>554830.7545264363</v>
       </c>
       <c r="C19" t="n">
-        <v>579802.1803985834</v>
+        <v>587950.2673636675</v>
       </c>
       <c r="D19" t="n">
         <v>577009.7209059424</v>
@@ -831,7 +831,7 @@
         <v>610776.604753688</v>
       </c>
       <c r="F19" t="n">
-        <v>588591.1053699944</v>
+        <v>589370.0182074986</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>571874.672129631</v>
+        <v>592870.0172742009</v>
       </c>
       <c r="C20" t="n">
-        <v>578561.3033597469</v>
+        <v>584054.5996652842</v>
       </c>
       <c r="D20" t="n">
         <v>543887.518020688</v>
@@ -851,7 +851,7 @@
         <v>551298.4640300716</v>
       </c>
       <c r="F20" t="n">
-        <v>551831.2610420772</v>
+        <v>551541.2862555771</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>571331.8377547264</v>
+        <v>583808.8802905679</v>
       </c>
       <c r="C21" t="n">
-        <v>585451.4974804521</v>
+        <v>583354.4445343614</v>
       </c>
       <c r="D21" t="n">
         <v>599054.6614166819</v>
@@ -871,7 +871,7 @@
         <v>616576.5087140256</v>
       </c>
       <c r="F21" t="n">
-        <v>602686.3927082673</v>
+        <v>604265.8712651307</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>564360.0931226015</v>
+        <v>589300.9694721103</v>
       </c>
       <c r="C22" t="n">
-        <v>584444.0596510768</v>
+        <v>590308.7322964072</v>
       </c>
       <c r="D22" t="n">
         <v>593981.6504537372</v>
@@ -891,7 +891,7 @@
         <v>606885.9353365311</v>
       </c>
       <c r="F22" t="n">
-        <v>596314.6132043819</v>
+        <v>598571.4632456201</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>581868.9856030345</v>
+        <v>572604.494654119</v>
       </c>
       <c r="C23" t="n">
-        <v>582044.6685721278</v>
+        <v>607249.9515043497</v>
       </c>
       <c r="D23" t="n">
         <v>604501.4747514646</v>
@@ -911,7 +911,7 @@
         <v>615356.1129595938</v>
       </c>
       <c r="F23" t="n">
-        <v>604887.0352375187</v>
+        <v>606963.2202181674</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>583569.8465256691</v>
+        <v>572609.2070804834</v>
       </c>
       <c r="C24" t="n">
-        <v>575287.1884490848</v>
+        <v>585000.3116734624</v>
       </c>
       <c r="D24" t="n">
         <v>554202.2761356608</v>
@@ -931,7 +931,7 @@
         <v>567722.9101940858</v>
       </c>
       <c r="F24" t="n">
-        <v>562862.6454029677</v>
+        <v>561988.9409720339</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>582115.2621119022</v>
+        <v>592052.3996930122</v>
       </c>
       <c r="C25" t="n">
-        <v>586964.9988307357</v>
+        <v>599360.1658602357</v>
       </c>
       <c r="D25" t="n">
         <v>535904.2089833217</v>
@@ -951,7 +951,7 @@
         <v>551901.5242830559</v>
       </c>
       <c r="F25" t="n">
-        <v>549677.2471191795</v>
+        <v>548404.284931466</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>570227.9925032258</v>
+        <v>593118.1044690609</v>
       </c>
       <c r="C26" t="n">
-        <v>589520.3178303242</v>
+        <v>600717.483936727</v>
       </c>
       <c r="D26" t="n">
         <v>601245.1056104415</v>
@@ -971,7 +971,7 @@
         <v>636113.5735861117</v>
       </c>
       <c r="F26" t="n">
-        <v>611296.4804261279</v>
+        <v>614347.3588629246</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>584709.7197856307</v>
+        <v>584333.8631587029</v>
       </c>
       <c r="C27" t="n">
-        <v>580403.4906454682</v>
+        <v>608777.5901337266</v>
       </c>
       <c r="D27" t="n">
         <v>589073.2820333408</v>
@@ -991,7 +991,7 @@
         <v>615210.3708068638</v>
       </c>
       <c r="F27" t="n">
-        <v>597437.1168583407</v>
+        <v>599896.5458452464</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>592362.2591369152</v>
+        <v>583490.9191875458</v>
       </c>
       <c r="C28" t="n">
-        <v>588701.7716922164</v>
+        <v>606544.59645468</v>
       </c>
       <c r="D28" t="n">
         <v>609958.6081479054</v>
@@ -1011,7 +1011,7 @@
         <v>641818.2372142585</v>
       </c>
       <c r="F28" t="n">
-        <v>618382.7161763482</v>
+        <v>620660.7975658396</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>598030.1705710888</v>
+        <v>592150.3856619</v>
       </c>
       <c r="C29" t="n">
-        <v>592397.3818023801</v>
+        <v>598117.2692101002</v>
       </c>
       <c r="D29" t="n">
         <v>630575.0523559012</v>
@@ -1031,7 +1031,7 @@
         <v>666403.3454424358</v>
       </c>
       <c r="F29" t="n">
-        <v>637840.8687098051</v>
+        <v>640782.392446353</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>593587.8846283555</v>
+        <v>575532.1185504198</v>
       </c>
       <c r="C30" t="n">
-        <v>601882.4050195813</v>
+        <v>602915.6567313075</v>
       </c>
       <c r="D30" t="n">
         <v>631460.7808672757</v>
@@ -1051,7 +1051,7 @@
         <v>672819.9574355934</v>
       </c>
       <c r="F30" t="n">
-        <v>641517.4119866419</v>
+        <v>642963.0516305661</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>596639.1923062801</v>
+        <v>608517.3156293035</v>
       </c>
       <c r="C31" t="n">
-        <v>598130.3154348135</v>
+        <v>615580.0588395</v>
       </c>
       <c r="D31" t="n">
         <v>587777.9090706997</v>
@@ -1071,7 +1071,7 @@
         <v>627176.7671117317</v>
       </c>
       <c r="F31" t="n">
-        <v>603770.8970931694</v>
+        <v>605667.8305026067</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>592577.4057750702</v>
+        <v>607358.4533803463</v>
       </c>
       <c r="C32" t="n">
-        <v>606425.7643829584</v>
+        <v>598808.7655477524</v>
       </c>
       <c r="D32" t="n">
         <v>556672.5204154879</v>
@@ -1091,7 +1091,7 @@
         <v>574636.9453647494</v>
       </c>
       <c r="F32" t="n">
-        <v>570568.11330175</v>
+        <v>568637.6298450265</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>596650.636770308</v>
+        <v>610955.6364570856</v>
       </c>
       <c r="C33" t="n">
-        <v>603207.478957057</v>
+        <v>631505.2510665655</v>
       </c>
       <c r="D33" t="n">
         <v>608478.8240227761</v>
@@ -1111,7 +1111,7 @@
         <v>632568.3248061528</v>
       </c>
       <c r="F33" t="n">
-        <v>616165.9634224436</v>
+        <v>619085.23864495</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>590766.7429967523</v>
+        <v>611707.3961387873</v>
       </c>
       <c r="C34" t="n">
-        <v>608802.2897477746</v>
+        <v>609806.6633393168</v>
       </c>
       <c r="D34" t="n">
         <v>603714.5567553629</v>
@@ -1131,7 +1131,7 @@
         <v>620908.6794797002</v>
       </c>
       <c r="F34" t="n">
-        <v>610034.0869552732</v>
+        <v>611181.9531719828</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>618715.2152072191</v>
+        <v>607513.3366744518</v>
       </c>
       <c r="C35" t="n">
-        <v>602793.690779984</v>
+        <v>629823.9130531549</v>
       </c>
       <c r="D35" t="n">
         <v>613593.4284415703</v>
@@ -1151,7 +1151,7 @@
         <v>633222.4200233145</v>
       </c>
       <c r="F35" t="n">
-        <v>619739.5509850922</v>
+        <v>621637.1172078574</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>604581.4878441691</v>
+        <v>597555.3529905081</v>
       </c>
       <c r="C36" t="n">
-        <v>601257.0451484919</v>
+        <v>630774.1517763138</v>
       </c>
       <c r="D36" t="n">
         <v>566358.0040497578</v>
@@ -1171,7 +1171,7 @@
         <v>584129.6342546437</v>
       </c>
       <c r="F36" t="n">
-        <v>578558.9674457152</v>
+        <v>578107.4092334039</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>607937.3389776349</v>
+        <v>601071.4730482101</v>
       </c>
       <c r="C37" t="n">
-        <v>610926.7119090557</v>
+        <v>624436.8204452395</v>
       </c>
       <c r="D37" t="n">
         <v>549174.4682710741</v>
@@ -1191,7 +1191,7 @@
         <v>570700.9080906152</v>
       </c>
       <c r="F37" t="n">
-        <v>566752.6574001781</v>
+        <v>564120.5939867346</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>587933.7854783535</v>
+        <v>608949.5588751435</v>
       </c>
       <c r="C38" t="n">
-        <v>615508.2581757307</v>
+        <v>623005.1713873744</v>
       </c>
       <c r="D38" t="n">
         <v>610535.228417561</v>
@@ -1211,7 +1211,7 @@
         <v>652769.2824203734</v>
       </c>
       <c r="F38" t="n">
-        <v>625581.9618580708</v>
+        <v>627498.3191563811</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>599125.7748799324</v>
+        <v>608089.3669592142</v>
       </c>
       <c r="C39" t="n">
-        <v>607500.8940117359</v>
+        <v>625141.2469379902</v>
       </c>
       <c r="D39" t="n">
         <v>599104.8056120734</v>
@@ -1231,7 +1231,7 @@
         <v>632610.2746277921</v>
       </c>
       <c r="F39" t="n">
-        <v>612333.6636113646</v>
+        <v>613912.6230007397</v>
       </c>
     </row>
   </sheetData>
@@ -1452,19 +1452,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>31580.70184781211</v>
+        <v>30677.31654593979</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04716082615302049</v>
+        <v>0.04581524959183771</v>
       </c>
       <c r="M2" t="n">
-        <v>24510.50514825035</v>
+        <v>23494.40160447506</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6412723623879265</v>
+        <v>0.6615020695533618</v>
       </c>
       <c r="O2" t="n">
-        <v>549136.3907002175</v>
+        <v>550933.0879670887</v>
       </c>
       <c r="P2" t="n">
         <v>483544</v>
@@ -1473,19 +1473,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>41790.46646009292</v>
+        <v>31138.49640991584</v>
       </c>
       <c r="S2" t="n">
-        <v>20802.47603549185</v>
+        <v>20017.03517960346</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03590646789577915</v>
+        <v>0.03395778127447622</v>
       </c>
       <c r="U2" t="n">
-        <v>15240.720463643</v>
+        <v>14354.62468633699</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9429190387608813</v>
+        <v>0.9471480856978903</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1493,25 +1493,25 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>['arima', 'prophet', 'lstm', 'lstm_reg']</t>
+          <t>['arima', 'prophet', 'lstm_reg', 'lstm']</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>(0.4750257291688496, 0.3657119311459828, 0.11607818248799938, 0.043184157197168144)</t>
+          <t>(0.5042053720322465, 0.39034915707520856, 0.059608618889613364, 0.0458368520029315)</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>31580.70184781211</v>
+        <v>30677.31654593979</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04716082615302049</v>
+        <v>0.04581524959183771</v>
       </c>
       <c r="AE2" t="n">
-        <v>24510.50514825035</v>
+        <v>23494.40160447506</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6412723623879265</v>
+        <v>0.6615020695533618</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>81494.98267611302</v>
+        <v>54421.15806081028</v>
       </c>
       <c r="S3" t="n">
         <v>37361.47525518186</v>
@@ -1665,7 +1665,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>36949.3914265682</v>
+        <v>42751.47121414518</v>
       </c>
       <c r="S4" t="n">
         <v>20469.499490004</v>
@@ -1706,7 +1706,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1717,7 +1717,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1741,19 +1741,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>103538.2401819803</v>
+        <v>116302.4293384701</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1722943165204444</v>
+        <v>0.1954870046085095</v>
       </c>
       <c r="M5" t="n">
-        <v>93806.12610097899</v>
+        <v>106429.3060448152</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.855874060577442</v>
+        <v>-3.865179356407427</v>
       </c>
       <c r="O5" t="n">
-        <v>516545.5811989307</v>
+        <v>504810.3957307339</v>
       </c>
       <c r="P5" t="n">
         <v>483544</v>
@@ -1762,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>82583.60960442312</v>
+        <v>77074.25126488283</v>
       </c>
       <c r="S5" t="n">
-        <v>41530.19938916712</v>
+        <v>42815.52167308352</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07906406398198094</v>
+        <v>0.0817409723826802</v>
       </c>
       <c r="U5" t="n">
-        <v>33292.95088040767</v>
+        <v>33438.87792187559</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7724958885507235</v>
+        <v>0.7581958795893051</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1785,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>103538.2401819803</v>
+        <v>116302.4293384701</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1722943165204444</v>
+        <v>0.1954870046085095</v>
       </c>
       <c r="AE5" t="n">
-        <v>93806.12610097899</v>
+        <v>106429.3060448152</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2.855874060577442</v>
+        <v>-3.865179356407427</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1803,7 +1803,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1814,7 +1814,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 40, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1838,19 +1838,19 @@
         <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>116213.9119782315</v>
+        <v>119453.259225074</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1971885899793361</v>
+        <v>0.2000026042239044</v>
       </c>
       <c r="M6" t="n">
-        <v>107048.0139576076</v>
+        <v>109018.6344340003</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.857776433665328</v>
+        <v>-4.13236210875399</v>
       </c>
       <c r="O6" t="n">
-        <v>480593.685541153</v>
+        <v>487129.2313525677</v>
       </c>
       <c r="P6" t="n">
         <v>483544</v>
@@ -1859,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>85594.89700556837</v>
+        <v>100831.9337756368</v>
       </c>
       <c r="S6" t="n">
-        <v>42339.2597775386</v>
+        <v>43744.89495958952</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08047508273973604</v>
+        <v>0.08204093683829503</v>
       </c>
       <c r="U6" t="n">
-        <v>32720.38438676691</v>
+        <v>33205.81690704112</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7635454153132016</v>
+        <v>0.7475845271174519</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1882,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>116213.9119782315</v>
+        <v>119453.259225074</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1971885899793361</v>
+        <v>0.2000026042239044</v>
       </c>
       <c r="AE6" t="n">
-        <v>107048.0139576076</v>
+        <v>109018.6344340003</v>
       </c>
       <c r="AF6" t="n">
-        <v>-3.857776433665328</v>
+        <v>-4.13236210875399</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>576806.5010037232</v>
+        <v>578564.6440517333</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>562544.9073001784</v>
+        <v>565390.9933271148</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>586057.2359880426</v>
+        <v>589334.8267246451</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>609614.3105974013</v>
+        <v>614292.5986462093</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>612665.4374112234</v>
+        <v>616953.4407127134</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>574736.6575146563</v>
+        <v>575283.178702662</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>533713.4371729933</v>
+        <v>531548.0541797822</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>586864.8990289646</v>
+        <v>589472.1892574357</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>582301.6890799581</v>
+        <v>584614.9624317577</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>590111.1288453082</v>
+        <v>592252.4264847706</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>549115.5786432379</v>
+        <v>547937.3440614548</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>532242.3971317213</v>
+        <v>531534.262253989</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>596780.429006236</v>
+        <v>599164.1390939023</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>582617.2289531195</v>
+        <v>584393.52624304</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>602498.8665527719</v>
+        <v>605941.0619401224</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>623983.40831676</v>
+        <v>627574.6159471598</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>626871.4650286532</v>
+        <v>630782.8972345914</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>588591.1053699944</v>
+        <v>589370.0182074986</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>551831.2610420772</v>
+        <v>551541.2862555771</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>602686.3927082673</v>
+        <v>604265.8712651307</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>596314.6132043819</v>
+        <v>598571.4632456201</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>604887.0352375187</v>
+        <v>606963.2202181674</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>562862.6454029677</v>
+        <v>561988.9409720339</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>549677.2471191795</v>
+        <v>548404.284931466</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>611296.4804261279</v>
+        <v>614347.3588629246</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>597437.1168583407</v>
+        <v>599896.5458452464</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>618382.7161763482</v>
+        <v>620660.7975658396</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>637840.8687098051</v>
+        <v>640782.392446353</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>641517.4119866419</v>
+        <v>642963.0516305661</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>603770.8970931694</v>
+        <v>605667.8305026067</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>570568.11330175</v>
+        <v>568637.6298450265</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>616165.9634224436</v>
+        <v>619085.23864495</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>610034.0869552732</v>
+        <v>611181.9531719828</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>619739.5509850922</v>
+        <v>621637.1172078574</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>578558.9674457152</v>
+        <v>578107.4092334039</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>566752.6574001781</v>
+        <v>564120.5939867346</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>625581.9618580708</v>
+        <v>627498.3191563811</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>612333.6636113646</v>
+        <v>613912.6230007397</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>517526.9488405508</v>
+        <v>523621.4031171121</v>
       </c>
       <c r="D2" t="n">
         <v>540671.5174722987</v>
@@ -5490,10 +5490,10 @@
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>410526.4678070545</v>
+        <v>409142.9981594086</v>
       </c>
       <c r="G2" t="n">
-        <v>397264.6324079037</v>
+        <v>382699.3316403627</v>
       </c>
     </row>
     <row r="3">
@@ -5504,7 +5504,7 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>515228.4060232668</v>
+        <v>521506.1885267823</v>
       </c>
       <c r="D3" t="n">
         <v>533542.9114601641</v>
@@ -5513,10 +5513,10 @@
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>397440.8045072556</v>
+        <v>390577.8245427608</v>
       </c>
       <c r="G3" t="n">
-        <v>410694.5756289959</v>
+        <v>391915.6549284458</v>
       </c>
     </row>
     <row r="4">
@@ -5527,7 +5527,7 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>490100.3398405383</v>
+        <v>494866.8699405664</v>
       </c>
       <c r="D4" t="n">
         <v>505771.8077431328</v>
@@ -5536,10 +5536,10 @@
         <v>510331.3119691162</v>
       </c>
       <c r="F4" t="n">
-        <v>392661.5393633842</v>
+        <v>389740.9414720535</v>
       </c>
       <c r="G4" t="n">
-        <v>408298.5930945873</v>
+        <v>379927.7217115164</v>
       </c>
     </row>
     <row r="5">
@@ -5550,7 +5550,7 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>453024.2061630118</v>
+        <v>455264.3258673868</v>
       </c>
       <c r="D5" t="n">
         <v>467975.7940520919</v>
@@ -5559,10 +5559,10 @@
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>403160.7737336159</v>
+        <v>401017.3552713394</v>
       </c>
       <c r="G5" t="n">
-        <v>400302.9057745934</v>
+        <v>382650.2287625074</v>
       </c>
     </row>
     <row r="6">
@@ -5573,7 +5573,7 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>487614.2425530994</v>
+        <v>492615.1031081245</v>
       </c>
       <c r="D6" t="n">
         <v>503879.4678025942</v>
@@ -5582,10 +5582,10 @@
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>405016.2922444344</v>
+        <v>391104.0667495728</v>
       </c>
       <c r="G6" t="n">
-        <v>382646.3890469074</v>
+        <v>394404.1404974461</v>
       </c>
     </row>
     <row r="7">
@@ -5596,7 +5596,7 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>478109.3991759208</v>
+        <v>482590.9224577681</v>
       </c>
       <c r="D7" t="n">
         <v>492866.9200514383</v>
@@ -5605,10 +5605,10 @@
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>407167.42512393</v>
+        <v>391854.324436903</v>
       </c>
       <c r="G7" t="n">
-        <v>380361.5570952892</v>
+        <v>398906.8936390877</v>
       </c>
     </row>
     <row r="8">
@@ -5619,7 +5619,7 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>487111.8999305262</v>
+        <v>491612.9817616688</v>
       </c>
       <c r="D8" t="n">
         <v>501368.3065314216</v>
@@ -5628,10 +5628,10 @@
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>417249.8535552025</v>
+        <v>403642.7936122417</v>
       </c>
       <c r="G8" t="n">
-        <v>384593.0811235905</v>
+        <v>402803.6189572811</v>
       </c>
     </row>
     <row r="9">
@@ -5642,7 +5642,7 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>454238.4840199869</v>
+        <v>459033.6261523152</v>
       </c>
       <c r="D9" t="n">
         <v>464220.4404883942</v>
@@ -5651,10 +5651,10 @@
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>397563.4479973316</v>
+        <v>398565.2026832104</v>
       </c>
       <c r="G9" t="n">
-        <v>394361.7724282742</v>
+        <v>418460.8596215248</v>
       </c>
     </row>
     <row r="10">
@@ -5665,7 +5665,7 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>448185.488899502</v>
+        <v>449765.1194835367</v>
       </c>
       <c r="D10" t="n">
         <v>451051.0130022227</v>
@@ -5674,10 +5674,10 @@
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>417743.611243248</v>
+        <v>405236.2668397427</v>
       </c>
       <c r="G10" t="n">
-        <v>390053.4016089439</v>
+        <v>397934.7546184063</v>
       </c>
     </row>
     <row r="11">
@@ -5688,7 +5688,7 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>500497.8102668697</v>
+        <v>505977.7697604038</v>
       </c>
       <c r="D11" t="n">
         <v>509819.0315832519</v>
@@ -5697,10 +5697,10 @@
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>409730.6758158207</v>
+        <v>397824.6886022091</v>
       </c>
       <c r="G11" t="n">
-        <v>392241.9870219231</v>
+        <v>399939.22610569</v>
       </c>
     </row>
     <row r="12">
@@ -5711,7 +5711,7 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>487681.0761772438</v>
+        <v>492844.7932775992</v>
       </c>
       <c r="D12" t="n">
         <v>495959.4807957555</v>
@@ -5720,10 +5720,10 @@
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>404993.4288809299</v>
+        <v>405578.6575160027</v>
       </c>
       <c r="G12" t="n">
-        <v>398058.7275772095</v>
+        <v>393984.5881559849</v>
       </c>
     </row>
     <row r="13">
@@ -5734,7 +5734,7 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>508718.3618450286</v>
+        <v>515847.3074067858</v>
       </c>
       <c r="D13" t="n">
         <v>518324.559369278</v>
@@ -5743,10 +5743,10 @@
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>397638.5454874039</v>
+        <v>396659.4267559052</v>
       </c>
       <c r="G13" t="n">
-        <v>390521.1646847725</v>
+        <v>391455.5537908077</v>
       </c>
     </row>
     <row r="14">
@@ -5757,7 +5757,7 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>523856.4295197302</v>
+        <v>530929.4897035565</v>
       </c>
       <c r="D14" t="n">
         <v>533462.6912885965</v>
@@ -5766,10 +5766,10 @@
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>416217.1187493801</v>
+        <v>409487.715405941</v>
       </c>
       <c r="G14" t="n">
-        <v>384807.7378439903</v>
+        <v>396709.7366514206</v>
       </c>
     </row>
     <row r="15">
@@ -5780,7 +5780,7 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>523335.84576029</v>
+        <v>531187.9045660085</v>
       </c>
       <c r="D15" t="n">
         <v>530336.8954178327</v>
@@ -5789,10 +5789,10 @@
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>403149.6481795311</v>
+        <v>410307.6827363968</v>
       </c>
       <c r="G15" t="n">
-        <v>400740.9482271671</v>
+        <v>393911.8172361851</v>
       </c>
     </row>
     <row r="16">
@@ -5803,7 +5803,7 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>501353.6824311748</v>
+        <v>507848.7607888642</v>
       </c>
       <c r="D16" t="n">
         <v>507571.3283965437</v>
@@ -5812,10 +5812,10 @@
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>403186.4534716606</v>
+        <v>398331.5485544205</v>
       </c>
       <c r="G16" t="n">
-        <v>394605.6774606705</v>
+        <v>404717.8789942265</v>
       </c>
     </row>
     <row r="17">
@@ -5826,7 +5826,7 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>469680.2478302259</v>
+        <v>474282.0188714489</v>
       </c>
       <c r="D17" t="n">
         <v>475050.3106654632</v>
@@ -5835,10 +5835,10 @@
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>407250.7093424797</v>
+        <v>395512.0777513981</v>
       </c>
       <c r="G17" t="n">
-        <v>379966.3112906218</v>
+        <v>407892.9651887417</v>
       </c>
     </row>
     <row r="18">
@@ -5849,7 +5849,7 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>501154.9890976611</v>
+        <v>504940.4060280377</v>
       </c>
       <c r="D18" t="n">
         <v>509664.7432722294</v>
@@ -5858,10 +5858,10 @@
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>417498.2018120289</v>
+        <v>404159.5196218491</v>
       </c>
       <c r="G18" t="n">
-        <v>400131.1419136524</v>
+        <v>382685.8270369768</v>
       </c>
     </row>
     <row r="19">
@@ -5872,7 +5872,7 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>491988.1810158348</v>
+        <v>497044.1493915225</v>
       </c>
       <c r="D19" t="n">
         <v>500905.42532869</v>
@@ -5881,10 +5881,10 @@
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>402560.3261802197</v>
+        <v>395832.8470678329</v>
       </c>
       <c r="G19" t="n">
-        <v>400842.8275148869</v>
+        <v>394504.9876976013</v>
       </c>
     </row>
     <row r="20">
@@ -5895,7 +5895,7 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>501124.9756923753</v>
+        <v>504945.6040942335</v>
       </c>
       <c r="D20" t="n">
         <v>509760.8247525753</v>
@@ -5904,10 +5904,10 @@
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>423132.1229243279</v>
+        <v>399824.2445538044</v>
       </c>
       <c r="G20" t="n">
-        <v>386018.5339941978</v>
+        <v>390178.8964595795</v>
       </c>
     </row>
     <row r="21">
@@ -5918,7 +5918,7 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>470094.5695339414</v>
+        <v>474849.0228907456</v>
       </c>
       <c r="D21" t="n">
         <v>476535.9533815344</v>
@@ -5927,10 +5927,10 @@
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>396603.3616602421</v>
+        <v>390342.631029129</v>
       </c>
       <c r="G21" t="n">
-        <v>390543.2058768272</v>
+        <v>399285.1449849606</v>
       </c>
     </row>
     <row r="22">
@@ -5941,7 +5941,7 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>465081.7808632504</v>
+        <v>468503.1632766753</v>
       </c>
       <c r="D22" t="n">
         <v>465123.8928018872</v>
@@ -5950,10 +5950,10 @@
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>402413.1749837399</v>
+        <v>394601.7415335178</v>
       </c>
       <c r="G22" t="n">
-        <v>384551.788874507</v>
+        <v>381007.4427410364</v>
       </c>
     </row>
     <row r="23">
@@ -5964,7 +5964,7 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>520363.4595567161</v>
+        <v>524580.4377607795</v>
       </c>
       <c r="D23" t="n">
         <v>519538.4285381672</v>
@@ -5973,10 +5973,10 @@
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>418789.2034111023</v>
+        <v>383773.0700606108</v>
       </c>
       <c r="G23" t="n">
-        <v>391150.7555921078</v>
+        <v>385448.104445219</v>
       </c>
     </row>
     <row r="24">
@@ -5987,7 +5987,7 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>506797.5392201818</v>
+        <v>509557.9135833823</v>
       </c>
       <c r="D24" t="n">
         <v>507245.5528959208</v>
@@ -5996,10 +5996,10 @@
         <v>543960.5678097815</v>
       </c>
       <c r="F24" t="n">
-        <v>425963.6114249229</v>
+        <v>401364.5390322208</v>
       </c>
       <c r="G24" t="n">
-        <v>404428.3871788979</v>
+        <v>382719.2561782598</v>
       </c>
     </row>
     <row r="25">
@@ -6010,7 +6010,7 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>524379.2687041259</v>
+        <v>528514.910198361</v>
       </c>
       <c r="D25" t="n">
         <v>528083.1213564152</v>
@@ -6019,10 +6019,10 @@
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>415546.8391017914</v>
+        <v>382342.2730755806</v>
       </c>
       <c r="G25" t="n">
-        <v>412356.6564400196</v>
+        <v>392718.5665745735</v>
       </c>
     </row>
     <row r="26">
@@ -6033,7 +6033,7 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>541443.2785768656</v>
+        <v>547793.1272253193</v>
       </c>
       <c r="D26" t="n">
         <v>542225.0963114933</v>
@@ -6042,10 +6042,10 @@
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>421353.7135996819</v>
+        <v>398810.227268219</v>
       </c>
       <c r="G26" t="n">
-        <v>406144.1015572548</v>
+        <v>404848.9541149139</v>
       </c>
     </row>
     <row r="27">
@@ -6056,7 +6056,7 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>541408.4128376974</v>
+        <v>549757.1109480282</v>
       </c>
       <c r="D27" t="n">
         <v>539565.1248611339</v>
@@ -6065,10 +6065,10 @@
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>411985.227367878</v>
+        <v>401809.3337864876</v>
       </c>
       <c r="G27" t="n">
-        <v>399856.1692962646</v>
+        <v>412797.7951552868</v>
       </c>
     </row>
     <row r="28">
@@ -6079,7 +6079,7 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>521676.3719194988</v>
+        <v>526261.0106556083</v>
       </c>
       <c r="D28" t="n">
         <v>518852.9167095724</v>
@@ -6088,10 +6088,10 @@
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>426307.8388671875</v>
+        <v>399537.7790291309</v>
       </c>
       <c r="G28" t="n">
-        <v>407483.9786250591</v>
+        <v>407743.7848031521</v>
       </c>
     </row>
     <row r="29">
@@ -6102,7 +6102,7 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>479495.2185012074</v>
+        <v>482375.6221034568</v>
       </c>
       <c r="D29" t="n">
         <v>489161.1369062281</v>
@@ -6111,10 +6111,10 @@
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>425919.2141666412</v>
+        <v>416213.847556591</v>
       </c>
       <c r="G29" t="n">
-        <v>407461.0277965069</v>
+        <v>407970.4242351055</v>
       </c>
     </row>
     <row r="30">
@@ -6125,7 +6125,7 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>521523.4958093378</v>
+        <v>526740.7505024225</v>
       </c>
       <c r="D30" t="n">
         <v>521004.1069283766</v>
@@ -6134,10 +6134,10 @@
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>417070.6201791763</v>
+        <v>388808.826457262</v>
       </c>
       <c r="G30" t="n">
-        <v>402927.521944046</v>
+        <v>406304.4774689674</v>
       </c>
     </row>
     <row r="31">
@@ -6148,7 +6148,7 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>509601.2885978185</v>
+        <v>515585.2144430244</v>
       </c>
       <c r="D31" t="n">
         <v>513052.9954864146</v>
@@ -6157,10 +6157,10 @@
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>401581.8197040558</v>
+        <v>397072.2093026638</v>
       </c>
       <c r="G31" t="n">
-        <v>406492.667265892</v>
+        <v>391035.8789982796</v>
       </c>
     </row>
     <row r="32">
@@ -6171,7 +6171,7 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>517784.9518694951</v>
+        <v>523694.5369717439</v>
       </c>
       <c r="D32" t="n">
         <v>521237.3005615115</v>
@@ -6180,10 +6180,10 @@
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>402715.8040492535</v>
+        <v>391248.5415155888</v>
       </c>
       <c r="G32" t="n">
-        <v>397906.0136036873</v>
+        <v>379893.9602030516</v>
       </c>
     </row>
     <row r="33">
@@ -6194,7 +6194,7 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>490392.8928053434</v>
+        <v>493741.5089179314</v>
       </c>
       <c r="D33" t="n">
         <v>490821.5817223216</v>
@@ -6203,10 +6203,10 @@
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>421080.0004789829</v>
+        <v>404383.8674695492</v>
       </c>
       <c r="G33" t="n">
-        <v>402481.08284688</v>
+        <v>399566.7474529743</v>
       </c>
     </row>
     <row r="34">
@@ -6217,7 +6217,7 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>480879.8741432714</v>
+        <v>482804.8190678073</v>
       </c>
       <c r="D34" t="n">
         <v>480397.141703499</v>
@@ -6226,10 +6226,10 @@
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>428906.6353545189</v>
+        <v>404788.0784416199</v>
       </c>
       <c r="G34" t="n">
-        <v>414390.3062672615</v>
+        <v>414452.8437764645</v>
       </c>
     </row>
     <row r="35">
@@ -6240,7 +6240,7 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>536407.0178467857</v>
+        <v>543455.310496676</v>
       </c>
       <c r="D35" t="n">
         <v>530325.8356909686</v>
@@ -6249,10 +6249,10 @@
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>427777.4091079235</v>
+        <v>427440.3887856007</v>
       </c>
       <c r="G35" t="n">
-        <v>413613.983995676</v>
+        <v>414398.9128279686</v>
       </c>
     </row>
     <row r="36">
@@ -6263,7 +6263,7 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>524771.995041947</v>
+        <v>528515.4409765763</v>
       </c>
       <c r="D36" t="n">
         <v>519078.7085594727</v>
@@ -6272,10 +6272,10 @@
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>446047.9129784107</v>
+        <v>416691.7215919495</v>
       </c>
       <c r="G36" t="n">
-        <v>406776.001541853</v>
+        <v>415194.1450428963</v>
       </c>
     </row>
     <row r="37">
@@ -6286,7 +6286,7 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>541112.036185988</v>
+        <v>547632.9419431512</v>
       </c>
       <c r="D37" t="n">
         <v>538206.2070136727</v>
@@ -6295,10 +6295,10 @@
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>427769.2398724556</v>
+        <v>407902.0615537167</v>
       </c>
       <c r="G37" t="n">
-        <v>401857.7194509506</v>
+        <v>410027.7071182728</v>
       </c>
     </row>
     <row r="38">
@@ -6309,7 +6309,7 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>558984.90968344</v>
+        <v>563812.3511327471</v>
       </c>
       <c r="D38" t="n">
         <v>551189.8449374987</v>
@@ -6318,10 +6318,10 @@
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>442654.4090664387</v>
+        <v>413085.3977255821</v>
       </c>
       <c r="G38" t="n">
-        <v>432524.3471701145</v>
+        <v>411945.7631382942</v>
       </c>
     </row>
     <row r="39">
@@ -6332,7 +6332,7 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>558414.9337626683</v>
+        <v>565120.6654856512</v>
       </c>
       <c r="D39" t="n">
         <v>548763.1898663259</v>
@@ -6341,10 +6341,10 @@
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>430660.2046055794</v>
+        <v>411504.4494929314</v>
       </c>
       <c r="G39" t="n">
-        <v>425188.4436919689</v>
+        <v>415870.1798906326</v>
       </c>
     </row>
     <row r="40">
@@ -6355,7 +6355,7 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>534833.6462754366</v>
+        <v>544132.8199480805</v>
       </c>
       <c r="D40" t="n">
         <v>529780.4388736694</v>
@@ -6364,10 +6364,10 @@
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>409726.1626193523</v>
+        <v>417651.2656457424</v>
       </c>
       <c r="G40" t="n">
-        <v>412920.228729248</v>
+        <v>429023.82102561</v>
       </c>
     </row>
     <row r="41">
@@ -6378,7 +6378,7 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>502325.5579548397</v>
+        <v>504590.483294375</v>
       </c>
       <c r="D41" t="n">
         <v>502561.5637958674</v>
@@ -6387,10 +6387,10 @@
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>438774.9668416977</v>
+        <v>427838.8620505333</v>
       </c>
       <c r="G41" t="n">
-        <v>436887.8384625912</v>
+        <v>411036.476500988</v>
       </c>
     </row>
     <row r="42">
@@ -6401,7 +6401,7 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>537977.6702219694</v>
+        <v>544054.6939798761</v>
       </c>
       <c r="D42" t="n">
         <v>531767.0387393441</v>
@@ -6410,10 +6410,10 @@
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>430892.61673069</v>
+        <v>426886.7875118256</v>
       </c>
       <c r="G42" t="n">
-        <v>426679.0580232143</v>
+        <v>413268.1122105122</v>
       </c>
     </row>
     <row r="43">
@@ -6424,7 +6424,7 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>532163.5748406011</v>
+        <v>533622.6581097852</v>
       </c>
       <c r="D43" t="n">
         <v>524480.9470335129</v>
@@ -6433,10 +6433,10 @@
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>457229.9344980717</v>
+        <v>409579.4312551022</v>
       </c>
       <c r="G43" t="n">
-        <v>428543.7953500748</v>
+        <v>416190.3544447422</v>
       </c>
     </row>
     <row r="44">
@@ -6447,7 +6447,7 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>541048.7390199502</v>
+        <v>542231.0522344912</v>
       </c>
       <c r="D44" t="n">
         <v>531989.6477680848</v>
@@ -6456,10 +6456,10 @@
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>467451.065002203</v>
+        <v>424402.0279538631</v>
       </c>
       <c r="G44" t="n">
-        <v>430163.8404591084</v>
+        <v>407536.6500768661</v>
       </c>
     </row>
     <row r="45">
@@ -6470,7 +6470,7 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>509557.9327965016</v>
+        <v>513229.3843728321</v>
       </c>
       <c r="D45" t="n">
         <v>504102.1875453966</v>
@@ -6479,10 +6479,10 @@
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>443859.4500164986</v>
+        <v>428273.6682963371</v>
       </c>
       <c r="G45" t="n">
-        <v>403050.7427034378</v>
+        <v>410338.7328283787</v>
       </c>
     </row>
     <row r="46">
@@ -6493,7 +6493,7 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>501309.0117814992</v>
+        <v>505528.8276174596</v>
       </c>
       <c r="D46" t="n">
         <v>494545.6400323637</v>
@@ -6502,10 +6502,10 @@
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>439933.8262465</v>
+        <v>441683.37210536</v>
       </c>
       <c r="G46" t="n">
-        <v>419094.7713022232</v>
+        <v>421921.5891692638</v>
       </c>
     </row>
     <row r="47">
@@ -6516,7 +6516,7 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>552668.1649238004</v>
+        <v>559484.4064392661</v>
       </c>
       <c r="D47" t="n">
         <v>540331.0508832885</v>
@@ -6525,10 +6525,10 @@
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>446210.8953485489</v>
+        <v>432379.4175858498</v>
       </c>
       <c r="G47" t="n">
-        <v>425122.4950459003</v>
+        <v>441028.9061384201</v>
       </c>
     </row>
     <row r="48">
@@ -6539,7 +6539,7 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>541709.0257006126</v>
+        <v>545886.853443831</v>
       </c>
       <c r="D48" t="n">
         <v>530019.2105668101</v>
@@ -6548,10 +6548,10 @@
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>453981.3426773548</v>
+        <v>427508.7164809704</v>
       </c>
       <c r="G48" t="n">
-        <v>427179.9703521729</v>
+        <v>428346.9115273952</v>
       </c>
     </row>
     <row r="49">
@@ -6562,7 +6562,7 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>561093.5401989263</v>
+        <v>566437.5458691807</v>
       </c>
       <c r="D49" t="n">
         <v>547559.9006170026</v>
@@ -6571,10 +6571,10 @@
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>450611.559286356</v>
+        <v>424814.2157382965</v>
       </c>
       <c r="G49" t="n">
-        <v>446648.9552941322</v>
+        <v>440352.0666122437</v>
       </c>
     </row>
     <row r="50">
@@ -6585,7 +6585,7 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>571908.716301729</v>
+        <v>580983.9324525122</v>
       </c>
       <c r="D50" t="n">
         <v>559466.5577785867</v>
@@ -6594,10 +6594,10 @@
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>434324.6752357483</v>
+        <v>447311.7654266357</v>
       </c>
       <c r="G50" t="n">
-        <v>439658.5037689209</v>
+        <v>426281.2494926453</v>
       </c>
     </row>
     <row r="51">
@@ -6608,7 +6608,7 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>575047.3729732761</v>
+        <v>582283.557521348</v>
       </c>
       <c r="D51" t="n">
         <v>557242.1245085704</v>
@@ -6617,10 +6617,10 @@
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>458105.7919940948</v>
+        <v>437766.7222492695</v>
       </c>
       <c r="G51" t="n">
-        <v>425952.6258149147</v>
+        <v>444321.3004550934</v>
       </c>
     </row>
     <row r="52">
@@ -6631,7 +6631,7 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>556455.6002863639</v>
+        <v>562275.5387410417</v>
       </c>
       <c r="D52" t="n">
         <v>539835.9667655325</v>
@@ -6640,10 +6640,10 @@
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>455547.9116561413</v>
+        <v>455178.4418010712</v>
       </c>
       <c r="G52" t="n">
-        <v>454929.7961630821</v>
+        <v>439259.3307836056</v>
       </c>
     </row>
     <row r="53">
@@ -6654,7 +6654,7 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>523278.6179773395</v>
+        <v>528207.7715549661</v>
       </c>
       <c r="D53" t="n">
         <v>514877.3441640146</v>
@@ -6663,10 +6663,10 @@
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>447478.2988777161</v>
+        <v>455186.4361064434</v>
       </c>
       <c r="G53" t="n">
-        <v>445926.7563941479</v>
+        <v>436174.0711932182</v>
       </c>
     </row>
     <row r="54">
@@ -6677,7 +6677,7 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>557961.5830772596</v>
+        <v>560023.0754416178</v>
       </c>
       <c r="D54" t="n">
         <v>541658.4813120329</v>
@@ -6686,10 +6686,10 @@
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>476599.804047823</v>
+        <v>435209.5066456795</v>
       </c>
       <c r="G54" t="n">
-        <v>457479.6122236252</v>
+        <v>440598.4731450081</v>
       </c>
     </row>
     <row r="55">
@@ -6700,7 +6700,7 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>546382.8774354211</v>
+        <v>551995.0921098625</v>
       </c>
       <c r="D55" t="n">
         <v>534977.5955775863</v>
@@ -6709,10 +6709,10 @@
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>447410.3385355473</v>
+        <v>438223.4997150898</v>
       </c>
       <c r="G55" t="n">
-        <v>443765.7399642467</v>
+        <v>438059.1179041862</v>
       </c>
     </row>
     <row r="56">
@@ -6723,7 +6723,7 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>556030.39849693</v>
+        <v>560161.3528397024</v>
       </c>
       <c r="D56" t="n">
         <v>541863.1395780526</v>
@@ -6732,10 +6732,10 @@
         <v>614602.7683121645</v>
       </c>
       <c r="F56" t="n">
-        <v>462524.5087177753</v>
+        <v>447340.8563015461</v>
       </c>
       <c r="G56" t="n">
-        <v>467182.809700489</v>
+        <v>444533.2282660007</v>
       </c>
     </row>
     <row r="57">
@@ -6746,7 +6746,7 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>530371.864844723</v>
+        <v>533679.1247529007</v>
       </c>
       <c r="D57" t="n">
         <v>516291.1521900483</v>
@@ -6755,10 +6755,10 @@
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>466638.3922567368</v>
+        <v>457756.4740860462</v>
       </c>
       <c r="G57" t="n">
-        <v>452714.5514035225</v>
+        <v>445725.6567561626</v>
       </c>
     </row>
     <row r="58">
@@ -6769,7 +6769,7 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>526594.0630448222</v>
+        <v>528001.7419127125</v>
       </c>
       <c r="D58" t="n">
         <v>507528.160259891</v>
@@ -6778,10 +6778,10 @@
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>483450.6963427067</v>
+        <v>462774.4488384724</v>
       </c>
       <c r="G58" t="n">
-        <v>461673.963606596</v>
+        <v>457224.301748991</v>
       </c>
     </row>
     <row r="59">
@@ -6792,7 +6792,7 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>571408.370857024</v>
+        <v>576563.4425535989</v>
       </c>
       <c r="D59" t="n">
         <v>549512.467255535</v>
@@ -6801,10 +6801,10 @@
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>479945.9893689156</v>
+        <v>458653.0607984066</v>
       </c>
       <c r="G59" t="n">
-        <v>462736.5414867401</v>
+        <v>472653.8708937168</v>
       </c>
     </row>
     <row r="60">
@@ -6815,7 +6815,7 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>560516.5573752191</v>
+        <v>567054.7126421657</v>
       </c>
       <c r="D60" t="n">
         <v>540056.8339584076</v>
@@ -6824,10 +6824,10 @@
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>475139.5400881767</v>
+        <v>479962.2928538322</v>
       </c>
       <c r="G60" t="n">
-        <v>464870.8985700607</v>
+        <v>479696.5740385056</v>
       </c>
     </row>
     <row r="61">
@@ -6838,7 +6838,7 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>582197.6360295988</v>
+        <v>585879.1391178431</v>
       </c>
       <c r="D61" t="n">
         <v>556141.3245965317</v>
@@ -6847,10 +6847,10 @@
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>490739.7535412312</v>
+        <v>468488.138074398</v>
       </c>
       <c r="G61" t="n">
-        <v>479625.0276293755</v>
+        <v>458425.2843208313</v>
       </c>
     </row>
     <row r="62">
@@ -6861,7 +6861,7 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>592572.7264118658</v>
+        <v>598847.2309378493</v>
       </c>
       <c r="D62" t="n">
         <v>567059.5187603674</v>
@@ -6870,10 +6870,10 @@
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>486593.1230883598</v>
+        <v>479564.9391415119</v>
       </c>
       <c r="G62" t="n">
-        <v>471121.27333951</v>
+        <v>466254.4381897449</v>
       </c>
     </row>
     <row r="63">
@@ -6884,7 +6884,7 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>594315.0339477643</v>
+        <v>600750.9592014411</v>
       </c>
       <c r="D63" t="n">
         <v>565019.809197626</v>
@@ -6893,10 +6893,10 @@
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>495773.2271001339</v>
+        <v>484255.8995730877</v>
       </c>
       <c r="G63" t="n">
-        <v>467707.4425504208</v>
+        <v>482370.5204949379</v>
       </c>
     </row>
     <row r="64">
@@ -6907,7 +6907,7 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>576053.2633354879</v>
+        <v>581120.7122661715</v>
       </c>
       <c r="D64" t="n">
         <v>549058.7906583664</v>
@@ -6916,10 +6916,10 @@
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>493642.036251545</v>
+        <v>479250.2573924065</v>
       </c>
       <c r="G64" t="n">
-        <v>478701.4666962624</v>
+        <v>490176.9334514141</v>
       </c>
     </row>
     <row r="65">
@@ -6930,7 +6930,7 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>548588.9756047826</v>
+        <v>552043.0185005068</v>
       </c>
       <c r="D65" t="n">
         <v>526172.3243872615</v>
@@ -6939,10 +6939,10 @@
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>485957.5145857334</v>
+        <v>477218.5492892265</v>
       </c>
       <c r="G65" t="n">
-        <v>487132.2226572037</v>
+        <v>484282.8563008308</v>
       </c>
     </row>
     <row r="66">
@@ -6953,7 +6953,7 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>575046.400454762</v>
+        <v>578044.434765837</v>
       </c>
       <c r="D66" t="n">
         <v>550730.0466990217</v>
@@ -6962,10 +6962,10 @@
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>505516.9034011364</v>
+        <v>487394.0055453777</v>
       </c>
       <c r="G66" t="n">
-        <v>476706.4764201641</v>
+        <v>466113.5844767094</v>
       </c>
     </row>
     <row r="67">
@@ -6976,7 +6976,7 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>570138.2106388634</v>
+        <v>572055.2997543154</v>
       </c>
       <c r="D67" t="n">
         <v>544603.8428502311</v>
@@ -6985,10 +6985,10 @@
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>510027.8257782459</v>
+        <v>492189.8015832901</v>
       </c>
       <c r="G67" t="n">
-        <v>494791.204529047</v>
+        <v>473510.083739996</v>
       </c>
     </row>
     <row r="68">
@@ -6999,7 +6999,7 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>574671.0654631135</v>
+        <v>578396.7079094819</v>
       </c>
       <c r="D68" t="n">
         <v>550917.7458256328</v>
@@ -7008,10 +7008,10 @@
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>501055.0664088726</v>
+        <v>480217.8832166195</v>
       </c>
       <c r="G68" t="n">
-        <v>480726.7898509502</v>
+        <v>483865.2106974125</v>
       </c>
     </row>
     <row r="69">
@@ -7022,7 +7022,7 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>553062.1899325806</v>
+        <v>553781.7974014893</v>
       </c>
       <c r="D69" t="n">
         <v>527468.8204826671</v>
@@ -7031,10 +7031,10 @@
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>509777.1334581375</v>
+        <v>489250.626115799</v>
       </c>
       <c r="G69" t="n">
-        <v>501133.5050637722</v>
+        <v>480949.9306809902</v>
       </c>
     </row>
     <row r="70">
@@ -7045,7 +7045,7 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>549136.3907002175</v>
+        <v>550933.0879670887</v>
       </c>
       <c r="D70" t="n">
         <v>519433.3631066284</v>
@@ -7054,10 +7054,10 @@
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>516545.5811989307</v>
+        <v>504810.3957307339</v>
       </c>
       <c r="G70" t="n">
-        <v>480593.685541153</v>
+        <v>487129.2313525677</v>
       </c>
     </row>
   </sheetData>
@@ -7107,12 +7107,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
         <v>561648</v>
       </c>
       <c r="C2" t="n">
-        <v>517526.9488405508</v>
+        <v>523621.4031171121</v>
       </c>
       <c r="D2" t="n">
         <v>540671.5174722987</v>
@@ -7133,10 +7133,10 @@
         <v>535627.4864141967</v>
       </c>
       <c r="F2" t="n">
-        <v>410526.4678070545</v>
+        <v>409142.9981594086</v>
       </c>
       <c r="G2" t="n">
-        <v>397264.6324079037</v>
+        <v>382699.3316403627</v>
       </c>
     </row>
     <row r="3">
@@ -7147,7 +7147,7 @@
         <v>584950</v>
       </c>
       <c r="C3" t="n">
-        <v>515228.4060232668</v>
+        <v>521506.1885267823</v>
       </c>
       <c r="D3" t="n">
         <v>533542.9114601641</v>
@@ -7156,10 +7156,10 @@
         <v>541169.3556075771</v>
       </c>
       <c r="F3" t="n">
-        <v>397440.8045072556</v>
+        <v>390577.8245427608</v>
       </c>
       <c r="G3" t="n">
-        <v>410694.5756289959</v>
+        <v>391915.6549284458</v>
       </c>
     </row>
     <row r="4">
@@ -7170,7 +7170,7 @@
         <v>519348</v>
       </c>
       <c r="C4" t="n">
-        <v>490100.3398405383</v>
+        <v>494866.8699405664</v>
       </c>
       <c r="D4" t="n">
         <v>505771.8077431328</v>
@@ -7179,10 +7179,10 @@
         <v>510331.3119691162</v>
       </c>
       <c r="F4" t="n">
-        <v>392661.5393633842</v>
+        <v>389740.9414720535</v>
       </c>
       <c r="G4" t="n">
-        <v>408298.5930945873</v>
+        <v>379927.7217115164</v>
       </c>
     </row>
     <row r="5">
@@ -7193,7 +7193,7 @@
         <v>463326</v>
       </c>
       <c r="C5" t="n">
-        <v>453024.2061630118</v>
+        <v>455264.3258673868</v>
       </c>
       <c r="D5" t="n">
         <v>467975.7940520919</v>
@@ -7202,10 +7202,10 @@
         <v>455655.7653532519</v>
       </c>
       <c r="F5" t="n">
-        <v>403160.7737336159</v>
+        <v>401017.3552713394</v>
       </c>
       <c r="G5" t="n">
-        <v>400302.9057745934</v>
+        <v>382650.2287625074</v>
       </c>
     </row>
     <row r="6">
@@ -7216,7 +7216,7 @@
         <v>509816</v>
       </c>
       <c r="C6" t="n">
-        <v>487614.2425530994</v>
+        <v>492615.1031081245</v>
       </c>
       <c r="D6" t="n">
         <v>503879.4678025942</v>
@@ -7225,10 +7225,10 @@
         <v>505098.9544443704</v>
       </c>
       <c r="F6" t="n">
-        <v>405016.2922444344</v>
+        <v>391104.0667495728</v>
       </c>
       <c r="G6" t="n">
-        <v>382646.3890469074</v>
+        <v>394404.1404974461</v>
       </c>
     </row>
     <row r="7">
@@ -7239,7 +7239,7 @@
         <v>471702</v>
       </c>
       <c r="C7" t="n">
-        <v>478109.3991759208</v>
+        <v>482590.9224577681</v>
       </c>
       <c r="D7" t="n">
         <v>492866.9200514383</v>
@@ -7248,10 +7248,10 @@
         <v>493000.2764204176</v>
       </c>
       <c r="F7" t="n">
-        <v>407167.42512393</v>
+        <v>391854.324436903</v>
       </c>
       <c r="G7" t="n">
-        <v>380361.5570952892</v>
+        <v>398906.8936390877</v>
       </c>
     </row>
     <row r="8">
@@ -7262,7 +7262,7 @@
         <v>504987</v>
       </c>
       <c r="C8" t="n">
-        <v>487111.8999305262</v>
+        <v>491612.9817616688</v>
       </c>
       <c r="D8" t="n">
         <v>501368.3065314216</v>
@@ -7271,10 +7271,10 @@
         <v>502874.2738738243</v>
       </c>
       <c r="F8" t="n">
-        <v>417249.8535552025</v>
+        <v>403642.7936122417</v>
       </c>
       <c r="G8" t="n">
-        <v>384593.0811235905</v>
+        <v>402803.6189572811</v>
       </c>
     </row>
     <row r="9">
@@ -7285,7 +7285,7 @@
         <v>425591</v>
       </c>
       <c r="C9" t="n">
-        <v>454238.4840199869</v>
+        <v>459033.6261523152</v>
       </c>
       <c r="D9" t="n">
         <v>464220.4404883942</v>
@@ -7294,10 +7294,10 @@
         <v>466332.0854947371</v>
       </c>
       <c r="F9" t="n">
-        <v>397563.4479973316</v>
+        <v>398565.2026832104</v>
       </c>
       <c r="G9" t="n">
-        <v>394361.7724282742</v>
+        <v>418460.8596215248</v>
       </c>
     </row>
     <row r="10">
@@ -7308,7 +7308,7 @@
         <v>404262</v>
       </c>
       <c r="C10" t="n">
-        <v>448185.488899502</v>
+        <v>449765.1194835367</v>
       </c>
       <c r="D10" t="n">
         <v>451051.0130022227</v>
@@ -7317,10 +7317,10 @@
         <v>460990.171903951</v>
       </c>
       <c r="F10" t="n">
-        <v>417743.611243248</v>
+        <v>405236.2668397427</v>
       </c>
       <c r="G10" t="n">
-        <v>390053.4016089439</v>
+        <v>397934.7546184063</v>
       </c>
     </row>
     <row r="11">
@@ -7331,7 +7331,7 @@
         <v>514028</v>
       </c>
       <c r="C11" t="n">
-        <v>500497.8102668697</v>
+        <v>505977.7697604038</v>
       </c>
       <c r="D11" t="n">
         <v>509819.0315832519</v>
@@ -7340,10 +7340,10 @@
         <v>529983.3140591353</v>
       </c>
       <c r="F11" t="n">
-        <v>409730.6758158207</v>
+        <v>397824.6886022091</v>
       </c>
       <c r="G11" t="n">
-        <v>392241.9870219231</v>
+        <v>399939.22610569</v>
       </c>
     </row>
     <row r="12">
@@ -7354,7 +7354,7 @@
         <v>493005</v>
       </c>
       <c r="C12" t="n">
-        <v>487681.0761772438</v>
+        <v>492844.7932775992</v>
       </c>
       <c r="D12" t="n">
         <v>495959.4807957555</v>
@@ -7363,10 +7363,10 @@
         <v>513756.3594816278</v>
       </c>
       <c r="F12" t="n">
-        <v>404993.4288809299</v>
+        <v>405578.6575160027</v>
       </c>
       <c r="G12" t="n">
-        <v>398058.7275772095</v>
+        <v>393984.5881559849</v>
       </c>
     </row>
     <row r="13">
@@ -7377,7 +7377,7 @@
         <v>501991</v>
       </c>
       <c r="C13" t="n">
-        <v>508718.3618450286</v>
+        <v>515847.3074067858</v>
       </c>
       <c r="D13" t="n">
         <v>518324.559369278</v>
@@ -7386,10 +7386,10 @@
         <v>545454.9225329204</v>
       </c>
       <c r="F13" t="n">
-        <v>397638.5454874039</v>
+        <v>396659.4267559052</v>
       </c>
       <c r="G13" t="n">
-        <v>390521.1646847725</v>
+        <v>391455.5537908077</v>
       </c>
     </row>
     <row r="14">
@@ -7400,7 +7400,7 @@
         <v>550352</v>
       </c>
       <c r="C14" t="n">
-        <v>523856.4295197302</v>
+        <v>530929.4897035565</v>
       </c>
       <c r="D14" t="n">
         <v>533462.6912885965</v>
@@ -7409,10 +7409,10 @@
         <v>561963.0742027645</v>
       </c>
       <c r="F14" t="n">
-        <v>416217.1187493801</v>
+        <v>409487.715405941</v>
       </c>
       <c r="G14" t="n">
-        <v>384807.7378439903</v>
+        <v>396709.7366514206</v>
       </c>
     </row>
     <row r="15">
@@ -7423,7 +7423,7 @@
         <v>587297</v>
       </c>
       <c r="C15" t="n">
-        <v>523335.84576029</v>
+        <v>531187.9045660085</v>
       </c>
       <c r="D15" t="n">
         <v>530336.8954178327</v>
@@ -7432,10 +7432,10 @@
         <v>566865.9376923551</v>
       </c>
       <c r="F15" t="n">
-        <v>403149.6481795311</v>
+        <v>410307.6827363968</v>
       </c>
       <c r="G15" t="n">
-        <v>400740.9482271671</v>
+        <v>393911.8172361851</v>
       </c>
     </row>
     <row r="16">
@@ -7446,7 +7446,7 @@
         <v>503108</v>
       </c>
       <c r="C16" t="n">
-        <v>501353.6824311748</v>
+        <v>507848.7607888642</v>
       </c>
       <c r="D16" t="n">
         <v>507571.3283965437</v>
@@ -7455,10 +7455,10 @@
         <v>537041.2092103085</v>
       </c>
       <c r="F16" t="n">
-        <v>403186.4534716606</v>
+        <v>398331.5485544205</v>
       </c>
       <c r="G16" t="n">
-        <v>394605.6774606705</v>
+        <v>404717.8789942265</v>
       </c>
     </row>
     <row r="17">
@@ -7469,7 +7469,7 @@
         <v>469594</v>
       </c>
       <c r="C17" t="n">
-        <v>469680.2478302259</v>
+        <v>474282.0188714489</v>
       </c>
       <c r="D17" t="n">
         <v>475050.3106654632</v>
@@ -7478,10 +7478,10 @@
         <v>493114.0200308741</v>
       </c>
       <c r="F17" t="n">
-        <v>407250.7093424797</v>
+        <v>395512.0777513981</v>
       </c>
       <c r="G17" t="n">
-        <v>379966.3112906218</v>
+        <v>407892.9651887417</v>
       </c>
     </row>
     <row r="18">
@@ -7492,7 +7492,7 @@
         <v>521638</v>
       </c>
       <c r="C18" t="n">
-        <v>501154.9890976611</v>
+        <v>504940.4060280377</v>
       </c>
       <c r="D18" t="n">
         <v>509664.7432722294</v>
@@ -7501,10 +7501,10 @@
         <v>528583.6959082469</v>
       </c>
       <c r="F18" t="n">
-        <v>417498.2018120289</v>
+        <v>404159.5196218491</v>
       </c>
       <c r="G18" t="n">
-        <v>400131.1419136524</v>
+        <v>382685.8270369768</v>
       </c>
     </row>
     <row r="19">
@@ -7515,7 +7515,7 @@
         <v>520563</v>
       </c>
       <c r="C19" t="n">
-        <v>491988.1810158348</v>
+        <v>497044.1493915225</v>
       </c>
       <c r="D19" t="n">
         <v>500905.42532869</v>
@@ -7524,10 +7524,10 @@
         <v>519552.8754818203</v>
       </c>
       <c r="F19" t="n">
-        <v>402560.3261802197</v>
+        <v>395832.8470678329</v>
       </c>
       <c r="G19" t="n">
-        <v>400842.8275148869</v>
+        <v>394504.9876976013</v>
       </c>
     </row>
     <row r="20">
@@ -7538,7 +7538,7 @@
         <v>534069</v>
       </c>
       <c r="C20" t="n">
-        <v>501124.9756923753</v>
+        <v>504945.6040942335</v>
       </c>
       <c r="D20" t="n">
         <v>509760.8247525753</v>
@@ -7547,10 +7547,10 @@
         <v>528255.0524748462</v>
       </c>
       <c r="F20" t="n">
-        <v>423132.1229243279</v>
+        <v>399824.2445538044</v>
       </c>
       <c r="G20" t="n">
-        <v>386018.5339941978</v>
+        <v>390178.8964595795</v>
       </c>
     </row>
     <row r="21">
@@ -7561,7 +7561,7 @@
         <v>469273</v>
       </c>
       <c r="C21" t="n">
-        <v>470094.5695339414</v>
+        <v>474849.0228907456</v>
       </c>
       <c r="D21" t="n">
         <v>476535.9533815344</v>
@@ -7570,10 +7570,10 @@
         <v>494447.7847688861</v>
       </c>
       <c r="F21" t="n">
-        <v>396603.3616602421</v>
+        <v>390342.631029129</v>
       </c>
       <c r="G21" t="n">
-        <v>390543.2058768272</v>
+        <v>399285.1449849606</v>
       </c>
     </row>
     <row r="22">
@@ -7584,7 +7584,7 @@
         <v>440613</v>
       </c>
       <c r="C22" t="n">
-        <v>465081.7808632504</v>
+        <v>468503.1632766753</v>
       </c>
       <c r="D22" t="n">
         <v>465123.8928018872</v>
@@ -7593,10 +7593,10 @@
         <v>494427.4831341376</v>
       </c>
       <c r="F22" t="n">
-        <v>402413.1749837399</v>
+        <v>394601.7415335178</v>
       </c>
       <c r="G22" t="n">
-        <v>384551.788874507</v>
+        <v>381007.4427410364</v>
       </c>
     </row>
     <row r="23">
@@ -7607,7 +7607,7 @@
         <v>514619</v>
       </c>
       <c r="C23" t="n">
-        <v>520363.4595567161</v>
+        <v>524580.4377607795</v>
       </c>
       <c r="D23" t="n">
         <v>519538.4285381672</v>
@@ -7616,10 +7616,10 @@
         <v>568932.8558745929</v>
       </c>
       <c r="F23" t="n">
-        <v>418789.2034111023</v>
+        <v>383773.0700606108</v>
       </c>
       <c r="G23" t="n">
-        <v>391150.7555921078</v>
+        <v>385448.104445219</v>
       </c>
     </row>
     <row r="24">
@@ -7630,7 +7630,7 @@
         <v>493803</v>
       </c>
       <c r="C24" t="n">
-        <v>506797.5392201818</v>
+        <v>509557.9135833823</v>
       </c>
       <c r="D24" t="n">
         <v>507245.5528959208</v>
@@ -7639,10 +7639,10 @@
         <v>543960.5678097815</v>
       </c>
       <c r="F24" t="n">
-        <v>425963.6114249229</v>
+        <v>401364.5390322208</v>
       </c>
       <c r="G24" t="n">
-        <v>404428.3871788979</v>
+        <v>382719.2561782598</v>
       </c>
     </row>
     <row r="25">
@@ -7653,7 +7653,7 @@
         <v>511878</v>
       </c>
       <c r="C25" t="n">
-        <v>524379.2687041259</v>
+        <v>528514.910198361</v>
       </c>
       <c r="D25" t="n">
         <v>528083.1213564152</v>
@@ -7662,10 +7662,10 @@
         <v>567339.9874466695</v>
       </c>
       <c r="F25" t="n">
-        <v>415546.8391017914</v>
+        <v>382342.2730755806</v>
       </c>
       <c r="G25" t="n">
-        <v>412356.6564400196</v>
+        <v>392718.5665745735</v>
       </c>
     </row>
     <row r="26">
@@ -7676,7 +7676,7 @@
         <v>551009</v>
       </c>
       <c r="C26" t="n">
-        <v>541443.2785768656</v>
+        <v>547793.1272253193</v>
       </c>
       <c r="D26" t="n">
         <v>542225.0963114933</v>
@@ -7685,10 +7685,10 @@
         <v>594521.0542105276</v>
       </c>
       <c r="F26" t="n">
-        <v>421353.7135996819</v>
+        <v>398810.227268219</v>
       </c>
       <c r="G26" t="n">
-        <v>406144.1015572548</v>
+        <v>404848.9541149139</v>
       </c>
     </row>
     <row r="27">
@@ -7699,7 +7699,7 @@
         <v>540798</v>
       </c>
       <c r="C27" t="n">
-        <v>541408.4128376974</v>
+        <v>549757.1109480282</v>
       </c>
       <c r="D27" t="n">
         <v>539565.1248611339</v>
@@ -7708,10 +7708,10 @@
         <v>601596.8557578104</v>
       </c>
       <c r="F27" t="n">
-        <v>411985.227367878</v>
+        <v>401809.3337864876</v>
       </c>
       <c r="G27" t="n">
-        <v>399856.1692962646</v>
+        <v>412797.7951552868</v>
       </c>
     </row>
     <row r="28">
@@ -7722,7 +7722,7 @@
         <v>491085</v>
       </c>
       <c r="C28" t="n">
-        <v>521676.3719194988</v>
+        <v>526261.0106556083</v>
       </c>
       <c r="D28" t="n">
         <v>518852.9167095724</v>
@@ -7731,10 +7731,10 @@
         <v>569098.1830196542</v>
       </c>
       <c r="F28" t="n">
-        <v>426307.8388671875</v>
+        <v>399537.7790291309</v>
       </c>
       <c r="G28" t="n">
-        <v>407483.9786250591</v>
+        <v>407743.7848031521</v>
       </c>
     </row>
     <row r="29">
@@ -7745,7 +7745,7 @@
         <v>481068</v>
       </c>
       <c r="C29" t="n">
-        <v>479495.2185012074</v>
+        <v>482375.6221034568</v>
       </c>
       <c r="D29" t="n">
         <v>489161.1369062281</v>
@@ -7754,10 +7754,10 @@
         <v>492451.2658191312</v>
       </c>
       <c r="F29" t="n">
-        <v>425919.2141666412</v>
+        <v>416213.847556591</v>
       </c>
       <c r="G29" t="n">
-        <v>407461.0277965069</v>
+        <v>407970.4242351055</v>
       </c>
     </row>
     <row r="30">
@@ -7768,7 +7768,7 @@
         <v>505115</v>
       </c>
       <c r="C30" t="n">
-        <v>521523.4958093378</v>
+        <v>526740.7505024225</v>
       </c>
       <c r="D30" t="n">
         <v>521004.1069283766</v>
@@ -7777,10 +7777,10 @@
         <v>569355.9254602651</v>
       </c>
       <c r="F30" t="n">
-        <v>417070.6201791763</v>
+        <v>388808.826457262</v>
       </c>
       <c r="G30" t="n">
-        <v>402927.521944046</v>
+        <v>406304.4774689674</v>
       </c>
     </row>
     <row r="31">
@@ -7791,7 +7791,7 @@
         <v>531836</v>
       </c>
       <c r="C31" t="n">
-        <v>509601.2885978185</v>
+        <v>515585.2144430244</v>
       </c>
       <c r="D31" t="n">
         <v>513052.9954864146</v>
@@ -7800,10 +7800,10 @@
         <v>551578.8989665862</v>
       </c>
       <c r="F31" t="n">
-        <v>401581.8197040558</v>
+        <v>397072.2093026638</v>
       </c>
       <c r="G31" t="n">
-        <v>406492.667265892</v>
+        <v>391035.8789982796</v>
       </c>
     </row>
     <row r="32">
@@ -7814,7 +7814,7 @@
         <v>536638</v>
       </c>
       <c r="C32" t="n">
-        <v>517784.9518694951</v>
+        <v>523694.5369717439</v>
       </c>
       <c r="D32" t="n">
         <v>521237.3005615115</v>
@@ -7823,10 +7823,10 @@
         <v>563979.6000627009</v>
       </c>
       <c r="F32" t="n">
-        <v>402715.8040492535</v>
+        <v>391248.5415155888</v>
       </c>
       <c r="G32" t="n">
-        <v>397906.0136036873</v>
+        <v>379893.9602030516</v>
       </c>
     </row>
     <row r="33">
@@ -7837,7 +7837,7 @@
         <v>469950</v>
       </c>
       <c r="C33" t="n">
-        <v>490392.8928053434</v>
+        <v>493741.5089179314</v>
       </c>
       <c r="D33" t="n">
         <v>490821.5817223216</v>
@@ -7846,10 +7846,10 @@
         <v>522217.0492749453</v>
       </c>
       <c r="F33" t="n">
-        <v>421080.0004789829</v>
+        <v>404383.8674695492</v>
       </c>
       <c r="G33" t="n">
-        <v>402481.08284688</v>
+        <v>399566.7474529743</v>
       </c>
     </row>
     <row r="34">
@@ -7860,7 +7860,7 @@
         <v>447859</v>
       </c>
       <c r="C34" t="n">
-        <v>480879.8741432714</v>
+        <v>482804.8190678073</v>
       </c>
       <c r="D34" t="n">
         <v>480397.141703499</v>
@@ -7869,10 +7869,10 @@
         <v>505854.6277651135</v>
       </c>
       <c r="F34" t="n">
-        <v>428906.6353545189</v>
+        <v>404788.0784416199</v>
       </c>
       <c r="G34" t="n">
-        <v>414390.3062672615</v>
+        <v>414452.8437764645</v>
       </c>
     </row>
     <row r="35">
@@ -7883,7 +7883,7 @@
         <v>538969</v>
       </c>
       <c r="C35" t="n">
-        <v>536407.0178467857</v>
+        <v>543455.310496676</v>
       </c>
       <c r="D35" t="n">
         <v>530325.8356909686</v>
@@ -7892,10 +7892,10 @@
         <v>593285.0068856655</v>
       </c>
       <c r="F35" t="n">
-        <v>427777.4091079235</v>
+        <v>427440.3887856007</v>
       </c>
       <c r="G35" t="n">
-        <v>413613.983995676</v>
+        <v>414398.9128279686</v>
       </c>
     </row>
     <row r="36">
@@ -7906,7 +7906,7 @@
         <v>524914</v>
       </c>
       <c r="C36" t="n">
-        <v>524771.995041947</v>
+        <v>528515.4409765763</v>
       </c>
       <c r="D36" t="n">
         <v>519078.7085594727</v>
@@ -7915,10 +7915,10 @@
         <v>571087.5839415027</v>
       </c>
       <c r="F36" t="n">
-        <v>446047.9129784107</v>
+        <v>416691.7215919495</v>
       </c>
       <c r="G36" t="n">
-        <v>406776.001541853</v>
+        <v>415194.1450428963</v>
       </c>
     </row>
     <row r="37">
@@ -7929,7 +7929,7 @@
         <v>558985</v>
       </c>
       <c r="C37" t="n">
-        <v>541112.036185988</v>
+        <v>547632.9419431512</v>
       </c>
       <c r="D37" t="n">
         <v>538206.2070136727</v>
@@ -7938,10 +7938,10 @@
         <v>597305.3073638659</v>
       </c>
       <c r="F37" t="n">
-        <v>427769.2398724556</v>
+        <v>407902.0615537167</v>
       </c>
       <c r="G37" t="n">
-        <v>401857.7194509506</v>
+        <v>410027.7071182728</v>
       </c>
     </row>
     <row r="38">
@@ -7952,7 +7952,7 @@
         <v>592534</v>
       </c>
       <c r="C38" t="n">
-        <v>558984.90968344</v>
+        <v>563812.3511327471</v>
       </c>
       <c r="D38" t="n">
         <v>551189.8449374987</v>
@@ -7961,10 +7961,10 @@
         <v>620966.4319547745</v>
       </c>
       <c r="F38" t="n">
-        <v>442654.4090664387</v>
+        <v>413085.3977255821</v>
       </c>
       <c r="G38" t="n">
-        <v>432524.3471701145</v>
+        <v>411945.7631382942</v>
       </c>
     </row>
     <row r="39">
@@ -7975,7 +7975,7 @@
         <v>594093</v>
       </c>
       <c r="C39" t="n">
-        <v>558414.9337626683</v>
+        <v>565120.6654856512</v>
       </c>
       <c r="D39" t="n">
         <v>548763.1898663259</v>
@@ -7984,10 +7984,10 @@
         <v>627233.1346293674</v>
       </c>
       <c r="F39" t="n">
-        <v>430660.2046055794</v>
+        <v>411504.4494929314</v>
       </c>
       <c r="G39" t="n">
-        <v>425188.4436919689</v>
+        <v>415870.1798906326</v>
       </c>
     </row>
     <row r="40">
@@ -7998,7 +7998,7 @@
         <v>451723</v>
       </c>
       <c r="C40" t="n">
-        <v>534833.6462754366</v>
+        <v>544132.8199480805</v>
       </c>
       <c r="D40" t="n">
         <v>529780.4388736694</v>
@@ -8007,10 +8007,10 @@
         <v>595502.6569017628</v>
       </c>
       <c r="F40" t="n">
-        <v>409726.1626193523</v>
+        <v>417651.2656457424</v>
       </c>
       <c r="G40" t="n">
-        <v>412920.228729248</v>
+        <v>429023.82102561</v>
       </c>
     </row>
     <row r="41">
@@ -8021,7 +8021,7 @@
         <v>401051</v>
       </c>
       <c r="C41" t="n">
-        <v>502325.5579548397</v>
+        <v>504590.483294375</v>
       </c>
       <c r="D41" t="n">
         <v>502561.5637958674</v>
@@ -8030,10 +8030,10 @@
         <v>529917.2227913878</v>
       </c>
       <c r="F41" t="n">
-        <v>438774.9668416977</v>
+        <v>427838.8620505333</v>
       </c>
       <c r="G41" t="n">
-        <v>436887.8384625912</v>
+        <v>411036.476500988</v>
       </c>
     </row>
     <row r="42">
@@ -8044,7 +8044,7 @@
         <v>554974</v>
       </c>
       <c r="C42" t="n">
-        <v>537977.6702219694</v>
+        <v>544054.6939798761</v>
       </c>
       <c r="D42" t="n">
         <v>531767.0387393441</v>
@@ -8053,10 +8053,10 @@
         <v>593176.2655516105</v>
       </c>
       <c r="F42" t="n">
-        <v>430892.61673069</v>
+        <v>426886.7875118256</v>
       </c>
       <c r="G42" t="n">
-        <v>426679.0580232143</v>
+        <v>413268.1122105122</v>
       </c>
     </row>
     <row r="43">
@@ -8067,7 +8067,7 @@
         <v>579797</v>
       </c>
       <c r="C43" t="n">
-        <v>532163.5748406011</v>
+        <v>533622.6581097852</v>
       </c>
       <c r="D43" t="n">
         <v>524480.9470335129</v>
@@ -8076,10 +8076,10 @@
         <v>578162.4555654001</v>
       </c>
       <c r="F43" t="n">
-        <v>457229.9344980717</v>
+        <v>409579.4312551022</v>
       </c>
       <c r="G43" t="n">
-        <v>428543.7953500748</v>
+        <v>416190.3544447422</v>
       </c>
     </row>
     <row r="44">
@@ -8090,7 +8090,7 @@
         <v>570804</v>
       </c>
       <c r="C44" t="n">
-        <v>541048.7390199502</v>
+        <v>542231.0522344912</v>
       </c>
       <c r="D44" t="n">
         <v>531989.6477680848</v>
@@ -8099,10 +8099,10 @@
         <v>589269.3603648221</v>
       </c>
       <c r="F44" t="n">
-        <v>467451.065002203</v>
+        <v>424402.0279538631</v>
       </c>
       <c r="G44" t="n">
-        <v>430163.8404591084</v>
+        <v>407536.6500768661</v>
       </c>
     </row>
     <row r="45">
@@ -8113,7 +8113,7 @@
         <v>496139</v>
       </c>
       <c r="C45" t="n">
-        <v>509557.9327965016</v>
+        <v>513229.3843728321</v>
       </c>
       <c r="D45" t="n">
         <v>504102.1875453966</v>
@@ -8122,10 +8122,10 @@
         <v>550073.9833190108</v>
       </c>
       <c r="F45" t="n">
-        <v>443859.4500164986</v>
+        <v>428273.6682963371</v>
       </c>
       <c r="G45" t="n">
-        <v>403050.7427034378</v>
+        <v>410338.7328283787</v>
       </c>
     </row>
     <row r="46">
@@ -8136,7 +8136,7 @@
         <v>470421</v>
       </c>
       <c r="C46" t="n">
-        <v>501309.0117814992</v>
+        <v>505528.8276174596</v>
       </c>
       <c r="D46" t="n">
         <v>494545.6400323637</v>
@@ -8145,10 +8145,10 @@
         <v>539282.7476252413</v>
       </c>
       <c r="F46" t="n">
-        <v>439933.8262465</v>
+        <v>441683.37210536</v>
       </c>
       <c r="G46" t="n">
-        <v>419094.7713022232</v>
+        <v>421921.5891692638</v>
       </c>
     </row>
     <row r="47">
@@ -8159,7 +8159,7 @@
         <v>574863</v>
       </c>
       <c r="C47" t="n">
-        <v>552668.1649238004</v>
+        <v>559484.4064392661</v>
       </c>
       <c r="D47" t="n">
         <v>540331.0508832885</v>
@@ -8168,10 +8168,10 @@
         <v>617543.7218719774</v>
       </c>
       <c r="F47" t="n">
-        <v>446210.8953485489</v>
+        <v>432379.4175858498</v>
       </c>
       <c r="G47" t="n">
-        <v>425122.4950459003</v>
+        <v>441028.9061384201</v>
       </c>
     </row>
     <row r="48">
@@ -8182,7 +8182,7 @@
         <v>550927</v>
       </c>
       <c r="C48" t="n">
-        <v>541709.0257006126</v>
+        <v>545886.853443831</v>
       </c>
       <c r="D48" t="n">
         <v>530019.2105668101</v>
@@ -8191,10 +8191,10 @@
         <v>598261.935041055</v>
       </c>
       <c r="F48" t="n">
-        <v>453981.3426773548</v>
+        <v>427508.7164809704</v>
       </c>
       <c r="G48" t="n">
-        <v>427179.9703521729</v>
+        <v>428346.9115273952</v>
       </c>
     </row>
     <row r="49">
@@ -8205,7 +8205,7 @@
         <v>580135</v>
       </c>
       <c r="C49" t="n">
-        <v>561093.5401989263</v>
+        <v>566437.5458691807</v>
       </c>
       <c r="D49" t="n">
         <v>547559.9006170026</v>
@@ -8214,10 +8214,10 @@
         <v>627253.72103249</v>
       </c>
       <c r="F49" t="n">
-        <v>450611.559286356</v>
+        <v>424814.2157382965</v>
       </c>
       <c r="G49" t="n">
-        <v>446648.9552941322</v>
+        <v>440352.0666122437</v>
       </c>
     </row>
     <row r="50">
@@ -8228,7 +8228,7 @@
         <v>619648</v>
       </c>
       <c r="C50" t="n">
-        <v>571908.716301729</v>
+        <v>580983.9324525122</v>
       </c>
       <c r="D50" t="n">
         <v>559466.5577785867</v>
@@ -8237,10 +8237,10 @@
         <v>647355.9808525405</v>
       </c>
       <c r="F50" t="n">
-        <v>434324.6752357483</v>
+        <v>447311.7654266357</v>
       </c>
       <c r="G50" t="n">
-        <v>439658.5037689209</v>
+        <v>426281.2494926453</v>
       </c>
     </row>
     <row r="51">
@@ -8251,7 +8251,7 @@
         <v>627688</v>
       </c>
       <c r="C51" t="n">
-        <v>575047.3729732761</v>
+        <v>582283.557521348</v>
       </c>
       <c r="D51" t="n">
         <v>557242.1245085704</v>
@@ -8260,10 +8260,10 @@
         <v>652897.8500459251</v>
       </c>
       <c r="F51" t="n">
-        <v>458105.7919940948</v>
+        <v>437766.7222492695</v>
       </c>
       <c r="G51" t="n">
-        <v>425952.6258149147</v>
+        <v>444321.3004550934</v>
       </c>
     </row>
     <row r="52">
@@ -8274,7 +8274,7 @@
         <v>555319</v>
       </c>
       <c r="C52" t="n">
-        <v>556455.6002863639</v>
+        <v>562275.5387410417</v>
       </c>
       <c r="D52" t="n">
         <v>539835.9667655325</v>
@@ -8283,10 +8283,10 @@
         <v>622059.806407451</v>
       </c>
       <c r="F52" t="n">
-        <v>455547.9116561413</v>
+        <v>455178.4418010712</v>
       </c>
       <c r="G52" t="n">
-        <v>454929.7961630821</v>
+        <v>439259.3307836056</v>
       </c>
     </row>
     <row r="53">
@@ -8297,7 +8297,7 @@
         <v>503641</v>
       </c>
       <c r="C53" t="n">
-        <v>523278.6179773395</v>
+        <v>528207.7715549661</v>
       </c>
       <c r="D53" t="n">
         <v>514877.3441640146</v>
@@ -8306,10 +8306,10 @@
         <v>567384.2597915793</v>
       </c>
       <c r="F53" t="n">
-        <v>447478.2988777161</v>
+        <v>455186.4361064434</v>
       </c>
       <c r="G53" t="n">
-        <v>445926.7563941479</v>
+        <v>436174.0711932182</v>
       </c>
     </row>
     <row r="54">
@@ -8320,7 +8320,7 @@
         <v>574067</v>
       </c>
       <c r="C54" t="n">
-        <v>557961.5830772596</v>
+        <v>560023.0754416178</v>
       </c>
       <c r="D54" t="n">
         <v>541658.4813120329</v>
@@ -8329,10 +8329,10 @@
         <v>616827.448882713</v>
       </c>
       <c r="F54" t="n">
-        <v>476599.804047823</v>
+        <v>435209.5066456795</v>
       </c>
       <c r="G54" t="n">
-        <v>457479.6122236252</v>
+        <v>440598.4731450081</v>
       </c>
     </row>
     <row r="55">
@@ -8343,7 +8343,7 @@
         <v>596158</v>
       </c>
       <c r="C55" t="n">
-        <v>546382.8774354211</v>
+        <v>551995.0921098625</v>
       </c>
       <c r="D55" t="n">
         <v>534977.5955775863</v>
@@ -8352,10 +8352,10 @@
         <v>604728.7708587769</v>
       </c>
       <c r="F55" t="n">
-        <v>447410.3385355473</v>
+        <v>438223.4997150898</v>
       </c>
       <c r="G55" t="n">
-        <v>443765.7399642467</v>
+        <v>438059.1179041862</v>
       </c>
     </row>
     <row r="56">
@@ -8366,7 +8366,7 @@
         <v>583015</v>
       </c>
       <c r="C56" t="n">
-        <v>556030.39849693</v>
+        <v>560161.3528397024</v>
       </c>
       <c r="D56" t="n">
         <v>541863.1395780526</v>
@@ -8375,10 +8375,10 @@
         <v>614602.7683121645</v>
       </c>
       <c r="F56" t="n">
-        <v>462524.5087177753</v>
+        <v>447340.8563015461</v>
       </c>
       <c r="G56" t="n">
-        <v>467182.809700489</v>
+        <v>444533.2282660007</v>
       </c>
     </row>
     <row r="57">
@@ -8389,7 +8389,7 @@
         <v>523125</v>
       </c>
       <c r="C57" t="n">
-        <v>530371.864844723</v>
+        <v>533679.1247529007</v>
       </c>
       <c r="D57" t="n">
         <v>516291.1521900483</v>
@@ -8398,10 +8398,10 @@
         <v>578060.5799330447</v>
       </c>
       <c r="F57" t="n">
-        <v>466638.3922567368</v>
+        <v>457756.4740860462</v>
       </c>
       <c r="G57" t="n">
-        <v>452714.5514035225</v>
+        <v>445725.6567561626</v>
       </c>
     </row>
     <row r="58">
@@ -8412,7 +8412,7 @@
         <v>494938</v>
       </c>
       <c r="C58" t="n">
-        <v>526594.0630448222</v>
+        <v>528001.7419127125</v>
       </c>
       <c r="D58" t="n">
         <v>507528.160259891</v>
@@ -8421,10 +8421,10 @@
         <v>572718.6663423063</v>
       </c>
       <c r="F58" t="n">
-        <v>483450.6963427067</v>
+        <v>462774.4488384724</v>
       </c>
       <c r="G58" t="n">
-        <v>461673.963606596</v>
+        <v>457224.301748991</v>
       </c>
     </row>
     <row r="59">
@@ -8435,7 +8435,7 @@
         <v>587945</v>
       </c>
       <c r="C59" t="n">
-        <v>571408.370857024</v>
+        <v>576563.4425535989</v>
       </c>
       <c r="D59" t="n">
         <v>549512.467255535</v>
@@ -8444,10 +8444,10 @@
         <v>641711.8084975065</v>
       </c>
       <c r="F59" t="n">
-        <v>479945.9893689156</v>
+        <v>458653.0607984066</v>
       </c>
       <c r="G59" t="n">
-        <v>462736.5414867401</v>
+        <v>472653.8708937168</v>
       </c>
     </row>
     <row r="60">
@@ -8458,7 +8458,7 @@
         <v>567956</v>
       </c>
       <c r="C60" t="n">
-        <v>560516.5573752191</v>
+        <v>567054.7126421657</v>
       </c>
       <c r="D60" t="n">
         <v>540056.8339584076</v>
@@ -8467,10 +8467,10 @@
         <v>625484.8539200061</v>
       </c>
       <c r="F60" t="n">
-        <v>475139.5400881767</v>
+        <v>479962.2928538322</v>
       </c>
       <c r="G60" t="n">
-        <v>464870.8985700607</v>
+        <v>479696.5740385056</v>
       </c>
     </row>
     <row r="61">
@@ -8481,7 +8481,7 @@
         <v>603765</v>
       </c>
       <c r="C61" t="n">
-        <v>582197.6360295988</v>
+        <v>585879.1391178431</v>
       </c>
       <c r="D61" t="n">
         <v>556141.3245965317</v>
@@ -8490,10 +8490,10 @@
         <v>657183.4169712827</v>
       </c>
       <c r="F61" t="n">
-        <v>490739.7535412312</v>
+        <v>468488.138074398</v>
       </c>
       <c r="G61" t="n">
-        <v>479625.0276293755</v>
+        <v>458425.2843208313</v>
       </c>
     </row>
     <row r="62">
@@ -8504,7 +8504,7 @@
         <v>616149</v>
       </c>
       <c r="C62" t="n">
-        <v>592572.7264118658</v>
+        <v>598847.2309378493</v>
       </c>
       <c r="D62" t="n">
         <v>567059.5187603674</v>
@@ -8513,10 +8513,10 @@
         <v>673691.5686411072</v>
       </c>
       <c r="F62" t="n">
-        <v>486593.1230883598</v>
+        <v>479564.9391415119</v>
       </c>
       <c r="G62" t="n">
-        <v>471121.27333951</v>
+        <v>466254.4381897449</v>
       </c>
     </row>
     <row r="63">
@@ -8527,7 +8527,7 @@
         <v>602492</v>
       </c>
       <c r="C63" t="n">
-        <v>594315.0339477643</v>
+        <v>600750.9592014411</v>
       </c>
       <c r="D63" t="n">
         <v>565019.809197626</v>
@@ -8536,10 +8536,10 @@
         <v>678594.4321307309</v>
       </c>
       <c r="F63" t="n">
-        <v>495773.2271001339</v>
+        <v>484255.8995730877</v>
       </c>
       <c r="G63" t="n">
-        <v>467707.4425504208</v>
+        <v>482370.5204949379</v>
       </c>
     </row>
     <row r="64">
@@ -8550,7 +8550,7 @@
         <v>568207</v>
       </c>
       <c r="C64" t="n">
-        <v>576053.2633354879</v>
+        <v>581120.7122661715</v>
       </c>
       <c r="D64" t="n">
         <v>549058.7906583664</v>
@@ -8559,10 +8559,10 @@
         <v>648769.7036486367</v>
       </c>
       <c r="F64" t="n">
-        <v>493642.036251545</v>
+        <v>479250.2573924065</v>
       </c>
       <c r="G64" t="n">
-        <v>478701.4666962624</v>
+        <v>490176.9334514141</v>
       </c>
     </row>
     <row r="65">
@@ -8573,7 +8573,7 @@
         <v>515917</v>
       </c>
       <c r="C65" t="n">
-        <v>548588.9756047826</v>
+        <v>552043.0185005068</v>
       </c>
       <c r="D65" t="n">
         <v>526172.3243872615</v>
@@ -8582,10 +8582,10 @@
         <v>604842.5144692</v>
       </c>
       <c r="F65" t="n">
-        <v>485957.5145857334</v>
+        <v>477218.5492892265</v>
       </c>
       <c r="G65" t="n">
-        <v>487132.2226572037</v>
+        <v>484282.8563008308</v>
       </c>
     </row>
     <row r="66">
@@ -8596,7 +8596,7 @@
         <v>600202</v>
       </c>
       <c r="C66" t="n">
-        <v>575046.400454762</v>
+        <v>578044.434765837</v>
       </c>
       <c r="D66" t="n">
         <v>550730.0466990217</v>
@@ -8605,10 +8605,10 @@
         <v>640312.1903465824</v>
       </c>
       <c r="F66" t="n">
-        <v>505516.9034011364</v>
+        <v>487394.0055453777</v>
       </c>
       <c r="G66" t="n">
-        <v>476706.4764201641</v>
+        <v>466113.5844767094</v>
       </c>
     </row>
     <row r="67">
@@ -8619,7 +8619,7 @@
         <v>549746</v>
       </c>
       <c r="C67" t="n">
-        <v>570138.2106388634</v>
+        <v>572055.2997543154</v>
       </c>
       <c r="D67" t="n">
         <v>544603.8428502311</v>
@@ -8628,10 +8628,10 @@
         <v>631281.3699201279</v>
       </c>
       <c r="F67" t="n">
-        <v>510027.8257782459</v>
+        <v>492189.8015832901</v>
       </c>
       <c r="G67" t="n">
-        <v>494791.204529047</v>
+        <v>473510.083739996</v>
       </c>
     </row>
     <row r="68">
@@ -8642,7 +8642,7 @@
         <v>597750</v>
       </c>
       <c r="C68" t="n">
-        <v>574671.0654631135</v>
+        <v>578396.7079094819</v>
       </c>
       <c r="D68" t="n">
         <v>550917.7458256328</v>
@@ -8651,10 +8651,10 @@
         <v>639983.5469131782</v>
       </c>
       <c r="F68" t="n">
-        <v>501055.0664088726</v>
+        <v>480217.8832166195</v>
       </c>
       <c r="G68" t="n">
-        <v>480726.7898509502</v>
+        <v>483865.2106974125</v>
       </c>
     </row>
     <row r="69">
@@ -8665,7 +8665,7 @@
         <v>512288</v>
       </c>
       <c r="C69" t="n">
-        <v>553062.1899325806</v>
+        <v>553781.7974014893</v>
       </c>
       <c r="D69" t="n">
         <v>527468.8204826671</v>
@@ -8674,10 +8674,10 @@
         <v>606176.2792072336</v>
       </c>
       <c r="F69" t="n">
-        <v>509777.1334581375</v>
+        <v>489250.626115799</v>
       </c>
       <c r="G69" t="n">
-        <v>501133.5050637722</v>
+        <v>480949.9306809902</v>
       </c>
     </row>
     <row r="70">
@@ -8688,7 +8688,7 @@
         <v>483544</v>
       </c>
       <c r="C70" t="n">
-        <v>549136.3907002175</v>
+        <v>550933.0879670887</v>
       </c>
       <c r="D70" t="n">
         <v>519433.3631066284</v>
@@ -8697,10 +8697,10 @@
         <v>606155.9775724694</v>
       </c>
       <c r="F70" t="n">
-        <v>516545.5811989307</v>
+        <v>504810.3957307339</v>
       </c>
       <c r="G70" t="n">
-        <v>480593.685541153</v>
+        <v>487129.2313525677</v>
       </c>
     </row>
   </sheetData>
@@ -8745,12 +8745,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>576806.5010037232</v>
+        <v>578564.6440517333</v>
       </c>
       <c r="C2" t="n">
         <v>567597.7512207057</v>
@@ -8768,10 +8768,10 @@
         <v>602686.2626755536</v>
       </c>
       <c r="E2" t="n">
-        <v>545423.8693739772</v>
+        <v>535181.236566484</v>
       </c>
       <c r="F2" t="n">
-        <v>543291.7634041905</v>
+        <v>550197.4644254446</v>
       </c>
     </row>
     <row r="3">
@@ -8779,7 +8779,7 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>562544.9073001784</v>
+        <v>565390.9933271148</v>
       </c>
       <c r="C3" t="n">
         <v>559137.6109765585</v>
@@ -8788,10 +8788,10 @@
         <v>580422.211595117</v>
       </c>
       <c r="E3" t="n">
-        <v>532332.5400083065</v>
+        <v>536117.0362295508</v>
       </c>
       <c r="F3" t="n">
-        <v>529838.6218349934</v>
+        <v>544240.8878590465</v>
       </c>
     </row>
     <row r="4">
@@ -8799,7 +8799,7 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>586057.2359880426</v>
+        <v>589334.8267246451</v>
       </c>
       <c r="C4" t="n">
         <v>586003.6385417941</v>
@@ -8808,10 +8808,10 @@
         <v>605607.626946749</v>
       </c>
       <c r="E4" t="n">
-        <v>539627.4224482775</v>
+        <v>540841.1159833074</v>
       </c>
       <c r="F4" t="n">
-        <v>545883.6443324685</v>
+        <v>550461.569227159</v>
       </c>
     </row>
     <row r="5">
@@ -8819,7 +8819,7 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>609614.3105974013</v>
+        <v>614292.5986462093</v>
       </c>
       <c r="C5" t="n">
         <v>611278.4532062508</v>
@@ -8828,10 +8828,10 @@
         <v>636509.341252004</v>
       </c>
       <c r="E5" t="n">
-        <v>543595.2390192747</v>
+        <v>539610.8941351175</v>
       </c>
       <c r="F5" t="n">
-        <v>541001.8723999262</v>
+        <v>555369.1550420523</v>
       </c>
     </row>
     <row r="6">
@@ -8839,7 +8839,7 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>612665.4374112234</v>
+        <v>616953.4407127134</v>
       </c>
       <c r="C6" t="n">
         <v>613413.3564009352</v>
@@ -8848,10 +8848,10 @@
         <v>640178.4494989081</v>
       </c>
       <c r="E6" t="n">
-        <v>547710.185434103</v>
+        <v>538625.5791743398</v>
       </c>
       <c r="F6" t="n">
-        <v>546038.4579848051</v>
+        <v>559970.52599895</v>
       </c>
     </row>
     <row r="7">
@@ -8859,7 +8859,7 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>574736.6575146563</v>
+        <v>575283.178702662</v>
       </c>
       <c r="C7" t="n">
         <v>564553.5379777277</v>
@@ -8868,10 +8868,10 @@
         <v>594482.0496377712</v>
       </c>
       <c r="E7" t="n">
-        <v>560568.8880776167</v>
+        <v>549952.4182544947</v>
       </c>
       <c r="F7" t="n">
-        <v>557616.6574229598</v>
+        <v>562752.0182501078</v>
       </c>
     </row>
     <row r="8">
@@ -8879,7 +8879,7 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>533713.4371729933</v>
+        <v>531548.0541797822</v>
       </c>
       <c r="C8" t="n">
         <v>529683.5387219149</v>
@@ -8888,10 +8888,10 @@
         <v>527985.1887606144</v>
       </c>
       <c r="E8" t="n">
-        <v>559571.5483047366</v>
+        <v>552443.4811152816</v>
       </c>
       <c r="F8" t="n">
-        <v>557046.8020417094</v>
+        <v>555225.7858537436</v>
       </c>
     </row>
     <row r="9">
@@ -8899,7 +8899,7 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>586864.8990289646</v>
+        <v>589472.1892574357</v>
       </c>
       <c r="C9" t="n">
         <v>588667.7945361527</v>
@@ -8908,10 +8908,10 @@
         <v>600445.4681529488</v>
       </c>
       <c r="E9" t="n">
-        <v>549277.3573743105</v>
+        <v>542117.1156876087</v>
       </c>
       <c r="F9" t="n">
-        <v>553058.4179349542</v>
+        <v>566454.4764675498</v>
       </c>
     </row>
     <row r="10">
@@ -8919,7 +8919,7 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>582301.6890799581</v>
+        <v>584614.9624317577</v>
       </c>
       <c r="C10" t="n">
         <v>583408.0094640368</v>
@@ -8928,10 +8928,10 @@
         <v>592851.4776734043</v>
       </c>
       <c r="E10" t="n">
-        <v>552734.2355005741</v>
+        <v>551739.1474782228</v>
       </c>
       <c r="F10" t="n">
-        <v>560266.3410194516</v>
+        <v>570502.2417892814</v>
       </c>
     </row>
     <row r="11">
@@ -8939,7 +8939,7 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>590111.1288453082</v>
+        <v>592252.4264847706</v>
       </c>
       <c r="C11" t="n">
         <v>594694.9810091069</v>
@@ -8948,10 +8948,10 @@
         <v>597517.3928751803</v>
       </c>
       <c r="E11" t="n">
-        <v>560866.1655752659</v>
+        <v>559867.8740315437</v>
       </c>
       <c r="F11" t="n">
-        <v>555577.5232146978</v>
+        <v>562662.1339403391</v>
       </c>
     </row>
     <row r="12">
@@ -8959,7 +8959,7 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>549115.5786432379</v>
+        <v>547937.3440614548</v>
       </c>
       <c r="C12" t="n">
         <v>541183.7074414761</v>
@@ -8968,10 +8968,10 @@
         <v>551359.5456701583</v>
       </c>
       <c r="E12" t="n">
-        <v>567272.3029740453</v>
+        <v>563579.385678947</v>
       </c>
       <c r="F12" t="n">
-        <v>568557.8436006904</v>
+        <v>572741.9675059915</v>
       </c>
     </row>
     <row r="13">
@@ -8979,7 +8979,7 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>532242.3971317213</v>
+        <v>531534.262253989</v>
       </c>
       <c r="C13" t="n">
         <v>521728.8675261118</v>
@@ -8988,10 +8988,10 @@
         <v>533143.9267627357</v>
       </c>
       <c r="E13" t="n">
-        <v>560872.1547673941</v>
+        <v>565072.8301997781</v>
       </c>
       <c r="F13" t="n">
-        <v>563300.2382551432</v>
+        <v>582070.3199570179</v>
       </c>
     </row>
     <row r="14">
@@ -8999,7 +8999,7 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>596780.429006236</v>
+        <v>599164.1390939023</v>
       </c>
       <c r="C14" t="n">
         <v>591325.9766114871</v>
@@ -9008,10 +9008,10 @@
         <v>619419.1044056325</v>
       </c>
       <c r="E14" t="n">
-        <v>562469.6673049331</v>
+        <v>557276.2252424955</v>
       </c>
       <c r="F14" t="n">
-        <v>557286.8340052962</v>
+        <v>567364.7408153415</v>
       </c>
     </row>
     <row r="15">
@@ -9019,7 +9019,7 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>582617.2289531195</v>
+        <v>584393.52624304</v>
       </c>
       <c r="C15" t="n">
         <v>578375.334432641</v>
@@ -9028,10 +9028,10 @@
         <v>597814.2095437858</v>
       </c>
       <c r="E15" t="n">
-        <v>562088.9821820259</v>
+        <v>563103.0127655268</v>
       </c>
       <c r="F15" t="n">
-        <v>555759.543584764</v>
+        <v>563989.6453397274</v>
       </c>
     </row>
     <row r="16">
@@ -9039,7 +9039,7 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>602498.8665527719</v>
+        <v>605941.0619401224</v>
       </c>
       <c r="C16" t="n">
         <v>600621.7378011533</v>
@@ -9048,10 +9048,10 @@
         <v>623734.4912420533</v>
       </c>
       <c r="E16" t="n">
-        <v>558093.2856895328</v>
+        <v>553461.5741353035</v>
       </c>
       <c r="F16" t="n">
-        <v>562671.3498677611</v>
+        <v>581170.8500834107</v>
       </c>
     </row>
     <row r="17">
@@ -9059,7 +9059,7 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>623983.40831676</v>
+        <v>627574.6159471598</v>
       </c>
       <c r="C17" t="n">
         <v>622579.2434896932</v>
@@ -9068,10 +9068,10 @@
         <v>651473.0272178927</v>
       </c>
       <c r="E17" t="n">
-        <v>563868.8865123987</v>
+        <v>552440.9275837541</v>
       </c>
       <c r="F17" t="n">
-        <v>568215.6703760028</v>
+        <v>576711.2697680593</v>
       </c>
     </row>
     <row r="18">
@@ -9079,7 +9079,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>626871.4650286532</v>
+        <v>630782.8972345914</v>
       </c>
       <c r="C18" t="n">
         <v>623524.687035834</v>
@@ -9088,10 +9088,10 @@
         <v>656482.533015279</v>
       </c>
       <c r="E18" t="n">
-        <v>568286.8442638516</v>
+        <v>563775.7290394902</v>
       </c>
       <c r="F18" t="n">
-        <v>570394.2970474362</v>
+        <v>578903.2908730507</v>
       </c>
     </row>
     <row r="19">
@@ -9099,7 +9099,7 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>588591.1053699944</v>
+        <v>589370.0182074986</v>
       </c>
       <c r="C19" t="n">
         <v>577009.7209059424</v>
@@ -9108,10 +9108,10 @@
         <v>610776.604753688</v>
       </c>
       <c r="E19" t="n">
-        <v>579802.1803985834</v>
+        <v>554830.7545264363</v>
       </c>
       <c r="F19" t="n">
-        <v>551729.3512027264</v>
+        <v>587950.2673636675</v>
       </c>
     </row>
     <row r="20">
@@ -9119,7 +9119,7 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>551831.2610420772</v>
+        <v>551541.2862555771</v>
       </c>
       <c r="C20" t="n">
         <v>543887.518020688</v>
@@ -9128,10 +9128,10 @@
         <v>551298.4640300716</v>
       </c>
       <c r="E20" t="n">
-        <v>578561.3033597469</v>
+        <v>592870.0172742009</v>
       </c>
       <c r="F20" t="n">
-        <v>571874.672129631</v>
+        <v>584054.5996652842</v>
       </c>
     </row>
     <row r="21">
@@ -9139,7 +9139,7 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>602686.3927082673</v>
+        <v>604265.8712651307</v>
       </c>
       <c r="C21" t="n">
         <v>599054.6614166819</v>
@@ -9148,10 +9148,10 @@
         <v>616576.5087140256</v>
       </c>
       <c r="E21" t="n">
-        <v>585451.4974804521</v>
+        <v>583808.8802905679</v>
       </c>
       <c r="F21" t="n">
-        <v>571331.8377547264</v>
+        <v>583354.4445343614</v>
       </c>
     </row>
     <row r="22">
@@ -9159,7 +9159,7 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>596314.6132043819</v>
+        <v>598571.4632456201</v>
       </c>
       <c r="C22" t="n">
         <v>593981.6504537372</v>
@@ -9168,10 +9168,10 @@
         <v>606885.9353365311</v>
       </c>
       <c r="E22" t="n">
-        <v>584444.0596510768</v>
+        <v>589300.9694721103</v>
       </c>
       <c r="F22" t="n">
-        <v>564360.0931226015</v>
+        <v>590308.7322964072</v>
       </c>
     </row>
     <row r="23">
@@ -9179,7 +9179,7 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>604887.0352375187</v>
+        <v>606963.2202181674</v>
       </c>
       <c r="C23" t="n">
         <v>604501.4747514646</v>
@@ -9188,10 +9188,10 @@
         <v>615356.1129595938</v>
       </c>
       <c r="E23" t="n">
-        <v>582044.6685721278</v>
+        <v>572604.494654119</v>
       </c>
       <c r="F23" t="n">
-        <v>581868.9856030345</v>
+        <v>607249.9515043497</v>
       </c>
     </row>
     <row r="24">
@@ -9199,7 +9199,7 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>562862.6454029677</v>
+        <v>561988.9409720339</v>
       </c>
       <c r="C24" t="n">
         <v>554202.2761356608</v>
@@ -9208,10 +9208,10 @@
         <v>567722.9101940858</v>
       </c>
       <c r="E24" t="n">
-        <v>575287.1884490848</v>
+        <v>572609.2070804834</v>
       </c>
       <c r="F24" t="n">
-        <v>583569.8465256691</v>
+        <v>585000.3116734624</v>
       </c>
     </row>
     <row r="25">
@@ -9219,7 +9219,7 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>549677.2471191795</v>
+        <v>548404.284931466</v>
       </c>
       <c r="C25" t="n">
         <v>535904.2089833217</v>
@@ -9228,10 +9228,10 @@
         <v>551901.5242830559</v>
       </c>
       <c r="E25" t="n">
-        <v>586964.9988307357</v>
+        <v>592052.3996930122</v>
       </c>
       <c r="F25" t="n">
-        <v>582115.2621119022</v>
+        <v>599360.1658602357</v>
       </c>
     </row>
     <row r="26">
@@ -9239,7 +9239,7 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>611296.4804261279</v>
+        <v>614347.3588629246</v>
       </c>
       <c r="C26" t="n">
         <v>601245.1056104415</v>
@@ -9248,10 +9248,10 @@
         <v>636113.5735861117</v>
       </c>
       <c r="E26" t="n">
-        <v>589520.3178303242</v>
+        <v>593118.1044690609</v>
       </c>
       <c r="F26" t="n">
-        <v>570227.9925032258</v>
+        <v>600717.483936727</v>
       </c>
     </row>
     <row r="27">
@@ -9259,7 +9259,7 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>597437.1168583407</v>
+        <v>599896.5458452464</v>
       </c>
       <c r="C27" t="n">
         <v>589073.2820333408</v>
@@ -9268,10 +9268,10 @@
         <v>615210.3708068638</v>
       </c>
       <c r="E27" t="n">
-        <v>580403.4906454682</v>
+        <v>584333.8631587029</v>
       </c>
       <c r="F27" t="n">
-        <v>584709.7197856307</v>
+        <v>608777.5901337266</v>
       </c>
     </row>
     <row r="28">
@@ -9279,7 +9279,7 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>618382.7161763482</v>
+        <v>620660.7975658396</v>
       </c>
       <c r="C28" t="n">
         <v>609958.6081479054</v>
@@ -9288,10 +9288,10 @@
         <v>641818.2372142585</v>
       </c>
       <c r="E28" t="n">
-        <v>588701.7716922164</v>
+        <v>583490.9191875458</v>
       </c>
       <c r="F28" t="n">
-        <v>592362.2591369152</v>
+        <v>606544.59645468</v>
       </c>
     </row>
     <row r="29">
@@ -9299,7 +9299,7 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>637840.8687098051</v>
+        <v>640782.392446353</v>
       </c>
       <c r="C29" t="n">
         <v>630575.0523559012</v>
@@ -9308,10 +9308,10 @@
         <v>666403.3454424358</v>
       </c>
       <c r="E29" t="n">
-        <v>592397.3818023801</v>
+        <v>592150.3856619</v>
       </c>
       <c r="F29" t="n">
-        <v>598030.1705710888</v>
+        <v>598117.2692101002</v>
       </c>
     </row>
     <row r="30">
@@ -9319,7 +9319,7 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>641517.4119866419</v>
+        <v>642963.0516305661</v>
       </c>
       <c r="C30" t="n">
         <v>631460.7808672757</v>
@@ -9328,10 +9328,10 @@
         <v>672819.9574355934</v>
       </c>
       <c r="E30" t="n">
-        <v>601882.4050195813</v>
+        <v>575532.1185504198</v>
       </c>
       <c r="F30" t="n">
-        <v>593587.8846283555</v>
+        <v>602915.6567313075</v>
       </c>
     </row>
     <row r="31">
@@ -9339,7 +9339,7 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>603770.8970931694</v>
+        <v>605667.8305026067</v>
       </c>
       <c r="C31" t="n">
         <v>587777.9090706997</v>
@@ -9348,10 +9348,10 @@
         <v>627176.7671117317</v>
       </c>
       <c r="E31" t="n">
-        <v>598130.3154348135</v>
+        <v>608517.3156293035</v>
       </c>
       <c r="F31" t="n">
-        <v>596639.1923062801</v>
+        <v>615580.0588395</v>
       </c>
     </row>
     <row r="32">
@@ -9359,7 +9359,7 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>570568.11330175</v>
+        <v>568637.6298450265</v>
       </c>
       <c r="C32" t="n">
         <v>556672.5204154879</v>
@@ -9368,10 +9368,10 @@
         <v>574636.9453647494</v>
       </c>
       <c r="E32" t="n">
-        <v>606425.7643829584</v>
+        <v>607358.4533803463</v>
       </c>
       <c r="F32" t="n">
-        <v>592577.4057750702</v>
+        <v>598808.7655477524</v>
       </c>
     </row>
     <row r="33">
@@ -9379,7 +9379,7 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>616165.9634224436</v>
+        <v>619085.23864495</v>
       </c>
       <c r="C33" t="n">
         <v>608478.8240227761</v>
@@ -9388,10 +9388,10 @@
         <v>632568.3248061528</v>
       </c>
       <c r="E33" t="n">
-        <v>603207.478957057</v>
+        <v>610955.6364570856</v>
       </c>
       <c r="F33" t="n">
-        <v>596650.636770308</v>
+        <v>631505.2510665655</v>
       </c>
     </row>
     <row r="34">
@@ -9399,7 +9399,7 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>610034.0869552732</v>
+        <v>611181.9531719828</v>
       </c>
       <c r="C34" t="n">
         <v>603714.5567553629</v>
@@ -9408,10 +9408,10 @@
         <v>620908.6794797002</v>
       </c>
       <c r="E34" t="n">
-        <v>608802.2897477746</v>
+        <v>611707.3961387873</v>
       </c>
       <c r="F34" t="n">
-        <v>590766.7429967523</v>
+        <v>609806.6633393168</v>
       </c>
     </row>
     <row r="35">
@@ -9419,7 +9419,7 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>619739.5509850922</v>
+        <v>621637.1172078574</v>
       </c>
       <c r="C35" t="n">
         <v>613593.4284415703</v>
@@ -9428,10 +9428,10 @@
         <v>633222.4200233145</v>
       </c>
       <c r="E35" t="n">
-        <v>602793.690779984</v>
+        <v>607513.3366744518</v>
       </c>
       <c r="F35" t="n">
-        <v>618715.2152072191</v>
+        <v>629823.9130531549</v>
       </c>
     </row>
     <row r="36">
@@ -9439,7 +9439,7 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>578558.9674457152</v>
+        <v>578107.4092334039</v>
       </c>
       <c r="C36" t="n">
         <v>566358.0040497578</v>
@@ -9448,10 +9448,10 @@
         <v>584129.6342546437</v>
       </c>
       <c r="E36" t="n">
-        <v>601257.0451484919</v>
+        <v>597555.3529905081</v>
       </c>
       <c r="F36" t="n">
-        <v>604581.4878441691</v>
+        <v>630774.1517763138</v>
       </c>
     </row>
     <row r="37">
@@ -9459,7 +9459,7 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>566752.6574001781</v>
+        <v>564120.5939867346</v>
       </c>
       <c r="C37" t="n">
         <v>549174.4682710741</v>
@@ -9468,10 +9468,10 @@
         <v>570700.9080906152</v>
       </c>
       <c r="E37" t="n">
-        <v>610926.7119090557</v>
+        <v>601071.4730482101</v>
       </c>
       <c r="F37" t="n">
-        <v>607937.3389776349</v>
+        <v>624436.8204452395</v>
       </c>
     </row>
     <row r="38">
@@ -9479,7 +9479,7 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>625581.9618580708</v>
+        <v>627498.3191563811</v>
       </c>
       <c r="C38" t="n">
         <v>610535.228417561</v>
@@ -9488,10 +9488,10 @@
         <v>652769.2824203734</v>
       </c>
       <c r="E38" t="n">
-        <v>615508.2581757307</v>
+        <v>608949.5588751435</v>
       </c>
       <c r="F38" t="n">
-        <v>587933.7854783535</v>
+        <v>623005.1713873744</v>
       </c>
     </row>
     <row r="39">
@@ -9499,7 +9499,7 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>612333.6636113646</v>
+        <v>613912.6230007397</v>
       </c>
       <c r="C39" t="n">
         <v>599104.8056120734</v>
@@ -9508,10 +9508,10 @@
         <v>632610.2746277921</v>
       </c>
       <c r="E39" t="n">
-        <v>607500.8940117359</v>
+        <v>608089.3669592142</v>
       </c>
       <c r="F39" t="n">
-        <v>599125.7748799324</v>
+        <v>625141.2469379902</v>
       </c>
     </row>
   </sheetData>
